--- a/docs/Finance/Finance model.xlsx
+++ b/docs/Finance/Finance model.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4136" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4136" uniqueCount="613">
   <si>
     <t>Ид</t>
   </si>
@@ -450,18 +450,27 @@
     <t>from_currency_id</t>
   </si>
   <si>
+    <t>From Currency Id</t>
+  </si>
+  <si>
     <t>toCurrencyId</t>
   </si>
   <si>
     <t>to_currency_id</t>
   </si>
   <si>
+    <t>To Currency Id</t>
+  </si>
+  <si>
     <t>effectiveFrom</t>
   </si>
   <si>
     <t>effective_from</t>
   </si>
   <si>
+    <t>Effective from</t>
+  </si>
+  <si>
     <t>LocalDateDate</t>
   </si>
   <si>
@@ -1446,6 +1455,9 @@
     <t>finance.data.ledger_entry.model</t>
   </si>
   <si>
+    <t>Ledger Entry</t>
+  </si>
+  <si>
     <t>ledger_entries</t>
   </si>
   <si>
@@ -1633,6 +1645,12 @@
   </si>
   <si>
     <t>quantity</t>
+  </si>
+  <si>
+    <t>Unit of measure id</t>
+  </si>
+  <si>
+    <t>Basic unit of measure id</t>
   </si>
   <si>
     <t>pk</t>
@@ -1982,13 +2000,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>55</v>
@@ -1996,13 +2014,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>55</v>
@@ -2010,13 +2028,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>55</v>
@@ -2024,13 +2042,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>55</v>
@@ -2065,21 +2083,21 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B2" s="0">
         <f>VLOOKUP(A2,Перечисления!A:B,2,0)</f>
       </c>
       <c r="C2" t="s" s="0">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B3" s="0">
         <f>VLOOKUP(A3,Перечисления!A:B,2,0)</f>
@@ -2088,12 +2106,12 @@
         <v>69</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B4" s="0">
         <f>VLOOKUP(A4,Перечисления!A:B,2,0)</f>
@@ -2102,161 +2120,161 @@
         <v>69</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B5" s="0">
         <f>VLOOKUP(A5,Перечисления!A:B,2,0)</f>
       </c>
       <c r="C5" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B6" s="0">
         <f>VLOOKUP(A6,Перечисления!A:B,2,0)</f>
       </c>
       <c r="C6" t="s" s="0">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B7" s="0">
         <f>VLOOKUP(A7,Перечисления!A:B,2,0)</f>
       </c>
       <c r="C7" t="s" s="0">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B8" s="0">
         <f>VLOOKUP(A8,Перечисления!A:B,2,0)</f>
       </c>
       <c r="C8" t="s" s="0">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B9" s="0">
         <f>VLOOKUP(A9,Перечисления!A:B,2,0)</f>
       </c>
       <c r="C9" t="s" s="0">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B10" s="0">
         <f>VLOOKUP(A10,Перечисления!A:B,2,0)</f>
       </c>
       <c r="C10" t="s" s="0">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B11" s="0">
         <f>VLOOKUP(A11,Перечисления!A:B,2,0)</f>
       </c>
       <c r="C11" t="s" s="0">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B12" s="0">
         <f>VLOOKUP(A12,Перечисления!A:B,2,0)</f>
       </c>
       <c r="C12" t="s" s="0">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B13" s="0">
         <f>VLOOKUP(A13,Перечисления!A:B,2,0)</f>
       </c>
       <c r="C13" t="s" s="0">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B14" s="0">
         <f>VLOOKUP(A14,Перечисления!A:B,2,0)</f>
       </c>
       <c r="C14" t="s" s="0">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B15" s="0">
         <f>VLOOKUP(A15,Перечисления!A:B,2,0)</f>
       </c>
       <c r="C15" t="s" s="0">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -2334,122 +2352,122 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>55</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>55</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>55</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>55</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>55</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>55</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -2655,16 +2673,16 @@
         <f>VLOOKUP(A8,Группы!A:B,2,0)</f>
       </c>
       <c r="C8" t="s" s="0">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G8" t="s" s="0">
         <v>89</v>
@@ -2681,16 +2699,16 @@
         <f>VLOOKUP(A9,Группы!A:B,2,0)</f>
       </c>
       <c r="C9" t="s" s="0">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G9" t="s" s="0">
         <v>89</v>
@@ -2701,22 +2719,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B10" s="0">
         <f>VLOOKUP(A10,Группы!A:B,2,0)</f>
       </c>
       <c r="C10" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G10" t="s" s="0">
         <v>89</v>
@@ -2727,22 +2745,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B11" s="0">
         <f>VLOOKUP(A11,Группы!A:B,2,0)</f>
       </c>
       <c r="C11" t="s" s="0">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G11" t="s" s="0">
         <v>89</v>
@@ -2753,22 +2771,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B12" s="0">
         <f>VLOOKUP(A12,Группы!A:B,2,0)</f>
       </c>
       <c r="C12" t="s" s="0">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G12" t="s" s="0">
         <v>89</v>
@@ -2779,22 +2797,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B13" s="0">
         <f>VLOOKUP(A13,Группы!A:B,2,0)</f>
       </c>
       <c r="C13" t="s" s="0">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G13" t="s" s="0">
         <v>89</v>
@@ -2805,22 +2823,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B14" s="0">
         <f>VLOOKUP(A14,Группы!A:B,2,0)</f>
       </c>
       <c r="C14" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G14" t="s" s="0">
         <v>89</v>
@@ -2831,22 +2849,22 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B15" s="0">
         <f>VLOOKUP(A15,Группы!A:B,2,0)</f>
       </c>
       <c r="C15" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G15" t="s" s="0">
         <v>89</v>
@@ -2857,22 +2875,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B16" s="0">
         <f>VLOOKUP(A16,Группы!A:B,2,0)</f>
       </c>
       <c r="C16" t="s" s="0">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G16" t="s" s="0">
         <v>89</v>
@@ -2883,22 +2901,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B17" s="0">
         <f>VLOOKUP(A17,Группы!A:B,2,0)</f>
       </c>
       <c r="C17" t="s" s="0">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G17" t="s" s="0">
         <v>89</v>
@@ -2909,22 +2927,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B18" s="0">
         <f>VLOOKUP(A18,Группы!A:B,2,0)</f>
       </c>
       <c r="C18" t="s" s="0">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G18" t="s" s="0">
         <v>89</v>
@@ -2935,22 +2953,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B19" s="0">
         <f>VLOOKUP(A19,Группы!A:B,2,0)</f>
       </c>
       <c r="C19" t="s" s="0">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G19" t="s" s="0">
         <v>89</v>
@@ -2961,22 +2979,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B20" s="0">
         <f>VLOOKUP(A20,Группы!A:B,2,0)</f>
       </c>
       <c r="C20" t="s" s="0">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G20" t="s" s="0">
         <v>89</v>
@@ -2987,22 +3005,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B21" s="0">
         <f>VLOOKUP(A21,Группы!A:B,2,0)</f>
       </c>
       <c r="C21" t="s" s="0">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G21" t="s" s="0">
         <v>89</v>
@@ -3013,22 +3031,22 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B22" s="0">
         <f>VLOOKUP(A22,Группы!A:B,2,0)</f>
       </c>
       <c r="C22" t="s" s="0">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G22" t="s" s="0">
         <v>89</v>
@@ -3039,22 +3057,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B23" s="0">
         <f>VLOOKUP(A23,Группы!A:B,2,0)</f>
       </c>
       <c r="C23" t="s" s="0">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G23" t="s" s="0">
         <v>89</v>
@@ -3065,22 +3083,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B24" s="0">
         <f>VLOOKUP(A24,Группы!A:B,2,0)</f>
       </c>
       <c r="C24" t="s" s="0">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G24" t="s" s="0">
         <v>89</v>
@@ -3091,22 +3109,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B25" s="0">
         <f>VLOOKUP(A25,Группы!A:B,2,0)</f>
       </c>
       <c r="C25" t="s" s="0">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G25" t="s" s="0">
         <v>89</v>
@@ -3117,22 +3135,22 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B26" s="0">
         <f>VLOOKUP(A26,Группы!A:B,2,0)</f>
       </c>
       <c r="C26" t="s" s="0">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G26" t="s" s="0">
         <v>89</v>
@@ -3143,22 +3161,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B27" s="0">
         <f>VLOOKUP(A27,Группы!A:B,2,0)</f>
       </c>
       <c r="C27" t="s" s="0">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G27" t="s" s="0">
         <v>89</v>
@@ -3169,22 +3187,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B28" s="0">
         <f>VLOOKUP(A28,Группы!A:B,2,0)</f>
       </c>
       <c r="C28" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G28" t="s" s="0">
         <v>89</v>
@@ -3195,22 +3213,22 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B29" s="0">
         <f>VLOOKUP(A29,Группы!A:B,2,0)</f>
       </c>
       <c r="C29" t="s" s="0">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G29" t="s" s="0">
         <v>89</v>
@@ -3221,22 +3239,22 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B30" s="0">
         <f>VLOOKUP(A30,Группы!A:B,2,0)</f>
       </c>
       <c r="C30" t="s" s="0">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G30" t="s" s="0">
         <v>89</v>
@@ -3247,22 +3265,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B31" s="0">
         <f>VLOOKUP(A31,Группы!A:B,2,0)</f>
       </c>
       <c r="C31" t="s" s="0">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="G31" t="s" s="0">
         <v>89</v>
@@ -3273,22 +3291,22 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B32" s="0">
         <f>VLOOKUP(A32,Группы!A:B,2,0)</f>
       </c>
       <c r="C32" t="s" s="0">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G32" t="s" s="0">
         <v>89</v>
@@ -3299,22 +3317,22 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B33" s="0">
         <f>VLOOKUP(A33,Группы!A:B,2,0)</f>
       </c>
       <c r="C33" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G33" t="s" s="0">
         <v>89</v>
@@ -3325,22 +3343,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B34" s="0">
         <f>VLOOKUP(A34,Группы!A:B,2,0)</f>
       </c>
       <c r="C34" t="s" s="0">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="G34" t="s" s="0">
         <v>89</v>
@@ -4585,7 +4603,7 @@
         <v>141</v>
       </c>
       <c r="G25" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="H25" t="s">
         <v>65</v>
@@ -4632,13 +4650,13 @@
         <v>60</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="H26" t="s">
         <v>65</v>
@@ -4685,22 +4703,22 @@
         <v>60</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I27" t="s" s="0">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J27" t="s" s="0">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K27" t="s" s="0">
         <v>55</v>
@@ -4735,25 +4753,25 @@
         <v>60</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F28" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G28" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H28" t="s">
         <v>65</v>
       </c>
       <c r="I28" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J28" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K28" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L28" t="s">
         <v>116</v>
@@ -4785,13 +4803,13 @@
         <v>60</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H29" t="s" s="0">
         <v>127</v>
@@ -4832,13 +4850,13 @@
         <v>60</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H30" t="s" s="0">
         <v>127</v>
@@ -4879,22 +4897,22 @@
         <v>60</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J31" t="s" s="0">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K31" t="s" s="0">
         <v>55</v>
@@ -4967,7 +4985,7 @@
         <f>B33&amp;"."&amp;E33</f>
       </c>
       <c r="B33" t="s" s="0">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C33" s="0">
         <f>VLOOKUP(B33,Таблицы!C:D,2,0)</f>
@@ -4982,7 +5000,7 @@
         <v>91</v>
       </c>
       <c r="G33" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H33" t="s">
         <v>65</v>
@@ -4994,13 +5012,13 @@
         <v>67</v>
       </c>
       <c r="K33" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L33" t="s">
         <v>55</v>
       </c>
       <c r="M33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P33" t="s">
         <v>69</v>
@@ -5020,7 +5038,7 @@
         <f>B34&amp;"."&amp;E34</f>
       </c>
       <c r="B34" t="s" s="0">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C34" s="0">
         <f>VLOOKUP(B34,Таблицы!C:D,2,0)</f>
@@ -5070,7 +5088,7 @@
         <f>B35&amp;"."&amp;E35</f>
       </c>
       <c r="B35" t="s" s="0">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C35" s="0">
         <f>VLOOKUP(B35,Таблицы!C:D,2,0)</f>
@@ -5097,7 +5115,7 @@
         <v>67</v>
       </c>
       <c r="K35" t="s" s="0">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L35" t="s" s="0">
         <v>55</v>
@@ -5117,7 +5135,7 @@
         <f>B36&amp;"."&amp;E36</f>
       </c>
       <c r="B36" t="s" s="0">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C36" s="0">
         <f>VLOOKUP(B36,Таблицы!C:D,2,0)</f>
@@ -5132,7 +5150,7 @@
         <v>122</v>
       </c>
       <c r="G36" t="s" s="0">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H36" t="s" s="0">
         <v>99</v>
@@ -5161,7 +5179,7 @@
         <f>B37&amp;"."&amp;E37</f>
       </c>
       <c r="B37" t="s" s="0">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C37" s="0">
         <f>VLOOKUP(B37,Таблицы!C:D,2,0)</f>
@@ -5211,7 +5229,7 @@
         <f>B38&amp;"."&amp;E38</f>
       </c>
       <c r="B38" t="s" s="0">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C38" s="0">
         <f>VLOOKUP(B38,Таблицы!C:D,2,0)</f>
@@ -5264,7 +5282,7 @@
         <f>B39&amp;"."&amp;E39</f>
       </c>
       <c r="B39" t="s" s="0">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C39" s="0">
         <f>VLOOKUP(B39,Таблицы!C:D,2,0)</f>
@@ -5273,13 +5291,13 @@
         <v>60</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F39" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G39" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H39" t="s">
         <v>65</v>
@@ -5291,13 +5309,13 @@
         <v>67</v>
       </c>
       <c r="K39" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L39" t="s">
         <v>55</v>
       </c>
       <c r="M39" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P39" t="s">
         <v>69</v>
@@ -5317,7 +5335,7 @@
         <f>B40&amp;"."&amp;E40</f>
       </c>
       <c r="B40" t="s" s="0">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C40" s="0">
         <f>VLOOKUP(B40,Таблицы!C:D,2,0)</f>
@@ -5367,7 +5385,7 @@
         <f>B41&amp;"."&amp;E41</f>
       </c>
       <c r="B41" t="s" s="0">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C41" s="0">
         <f>VLOOKUP(B41,Таблицы!C:D,2,0)</f>
@@ -5417,7 +5435,7 @@
         <f>B42&amp;"."&amp;E42</f>
       </c>
       <c r="B42" t="s" s="0">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C42" s="0">
         <f>VLOOKUP(B42,Таблицы!C:D,2,0)</f>
@@ -5426,13 +5444,13 @@
         <v>60</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F42" t="s" s="0">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G42" t="s" s="0">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H42" t="s" s="0">
         <v>99</v>
@@ -5444,7 +5462,7 @@
         <v>67</v>
       </c>
       <c r="K42" t="s" s="0">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L42" t="s" s="0">
         <v>55</v>
@@ -5464,7 +5482,7 @@
         <f>B43&amp;"."&amp;E43</f>
       </c>
       <c r="B43" t="s" s="0">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C43" s="0">
         <f>VLOOKUP(B43,Таблицы!C:D,2,0)</f>
@@ -5473,13 +5491,13 @@
         <v>60</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G43" t="s" s="0">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H43" t="s" s="0">
         <v>99</v>
@@ -5491,7 +5509,7 @@
         <v>67</v>
       </c>
       <c r="K43" t="s" s="0">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L43" t="s" s="0">
         <v>55</v>
@@ -5511,7 +5529,7 @@
         <f>B44&amp;"."&amp;E44</f>
       </c>
       <c r="B44" t="s" s="0">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C44" s="0">
         <f>VLOOKUP(B44,Таблицы!C:D,2,0)</f>
@@ -5561,7 +5579,7 @@
         <f>B45&amp;"."&amp;E45</f>
       </c>
       <c r="B45" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C45" s="0">
         <f>VLOOKUP(B45,Таблицы!C:D,2,0)</f>
@@ -5576,7 +5594,7 @@
         <v>91</v>
       </c>
       <c r="G45" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H45" t="s">
         <v>65</v>
@@ -5594,7 +5612,7 @@
         <v>55</v>
       </c>
       <c r="M45" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P45" t="s">
         <v>69</v>
@@ -5614,7 +5632,7 @@
         <f>B46&amp;"."&amp;E46</f>
       </c>
       <c r="B46" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C46" s="0">
         <f>VLOOKUP(B46,Таблицы!C:D,2,0)</f>
@@ -5664,7 +5682,7 @@
         <f>B47&amp;"."&amp;E47</f>
       </c>
       <c r="B47" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C47" s="0">
         <f>VLOOKUP(B47,Таблицы!C:D,2,0)</f>
@@ -5673,22 +5691,22 @@
         <v>60</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G47" t="s" s="0">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I47" t="s" s="0">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J47" t="s" s="0">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K47" t="s" s="0">
         <v>55</v>
@@ -5711,7 +5729,7 @@
         <f>B48&amp;"."&amp;E48</f>
       </c>
       <c r="B48" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C48" s="0">
         <f>VLOOKUP(B48,Таблицы!C:D,2,0)</f>
@@ -5720,13 +5738,13 @@
         <v>60</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F48" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G48" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H48" t="s">
         <v>65</v>
@@ -5738,13 +5756,13 @@
         <v>67</v>
       </c>
       <c r="K48" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L48" t="s">
         <v>55</v>
       </c>
       <c r="M48" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q48" t="s">
         <v>69</v>
@@ -5761,7 +5779,7 @@
         <f>B49&amp;"."&amp;E49</f>
       </c>
       <c r="B49" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C49" s="0">
         <f>VLOOKUP(B49,Таблицы!C:D,2,0)</f>
@@ -5770,13 +5788,13 @@
         <v>60</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F49" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G49" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H49" t="s">
         <v>65</v>
@@ -5794,7 +5812,7 @@
         <v>55</v>
       </c>
       <c r="M49" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="R49" t="s">
         <v>55</v>
@@ -5808,7 +5826,7 @@
         <f>B50&amp;"."&amp;E50</f>
       </c>
       <c r="B50" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C50" s="0">
         <f>VLOOKUP(B50,Таблицы!C:D,2,0)</f>
@@ -5858,7 +5876,7 @@
         <f>B51&amp;"."&amp;E51</f>
       </c>
       <c r="B51" t="s" s="0">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C51" s="0">
         <f>VLOOKUP(B51,Таблицы!C:D,2,0)</f>
@@ -5873,7 +5891,7 @@
         <v>91</v>
       </c>
       <c r="G51" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H51" t="s">
         <v>65</v>
@@ -5885,13 +5903,13 @@
         <v>67</v>
       </c>
       <c r="K51" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L51" t="s">
         <v>55</v>
       </c>
       <c r="M51" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P51" t="s">
         <v>69</v>
@@ -5911,7 +5929,7 @@
         <f>B52&amp;"."&amp;E52</f>
       </c>
       <c r="B52" t="s" s="0">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C52" s="0">
         <f>VLOOKUP(B52,Таблицы!C:D,2,0)</f>
@@ -5961,7 +5979,7 @@
         <f>B53&amp;"."&amp;E53</f>
       </c>
       <c r="B53" t="s" s="0">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C53" s="0">
         <f>VLOOKUP(B53,Таблицы!C:D,2,0)</f>
@@ -6011,7 +6029,7 @@
         <f>B54&amp;"."&amp;E54</f>
       </c>
       <c r="B54" t="s" s="0">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C54" s="0">
         <f>VLOOKUP(B54,Таблицы!C:D,2,0)</f>
@@ -6020,13 +6038,13 @@
         <v>60</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F54" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G54" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H54" t="s">
         <v>65</v>
@@ -6038,13 +6056,13 @@
         <v>67</v>
       </c>
       <c r="K54" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L54" t="s">
         <v>55</v>
       </c>
       <c r="M54" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P54" t="s">
         <v>69</v>
@@ -6064,7 +6082,7 @@
         <f>B55&amp;"."&amp;E55</f>
       </c>
       <c r="B55" t="s" s="0">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C55" s="0">
         <f>VLOOKUP(B55,Таблицы!C:D,2,0)</f>
@@ -6073,13 +6091,13 @@
         <v>60</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F55" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G55" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H55" t="s">
         <v>65</v>
@@ -6097,7 +6115,7 @@
         <v>55</v>
       </c>
       <c r="M55" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P55" t="s">
         <v>69</v>
@@ -6117,7 +6135,7 @@
         <f>B56&amp;"."&amp;E56</f>
       </c>
       <c r="B56" t="s" s="0">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C56" s="0">
         <f>VLOOKUP(B56,Таблицы!C:D,2,0)</f>
@@ -6126,22 +6144,22 @@
         <v>60</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F56" t="s" s="0">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G56" t="s" s="0">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H56" t="s" s="0">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I56" t="s" s="0">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J56" t="s" s="0">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K56" t="s" s="0">
         <v>55</v>
@@ -6164,7 +6182,7 @@
         <f>B57&amp;"."&amp;E57</f>
       </c>
       <c r="B57" t="s" s="0">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C57" s="0">
         <f>VLOOKUP(B57,Таблицы!C:D,2,0)</f>
@@ -6214,7 +6232,7 @@
         <f>B58&amp;"."&amp;E58</f>
       </c>
       <c r="B58" t="s" s="0">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C58" s="0">
         <f>VLOOKUP(B58,Таблицы!C:D,2,0)</f>
@@ -6229,7 +6247,7 @@
         <v>91</v>
       </c>
       <c r="G58" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H58" t="s">
         <v>65</v>
@@ -6247,7 +6265,7 @@
         <v>55</v>
       </c>
       <c r="M58" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P58" t="s">
         <v>69</v>
@@ -6267,7 +6285,7 @@
         <f>B59&amp;"."&amp;E59</f>
       </c>
       <c r="B59" t="s" s="0">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C59" s="0">
         <f>VLOOKUP(B59,Таблицы!C:D,2,0)</f>
@@ -6317,7 +6335,7 @@
         <f>B60&amp;"."&amp;E60</f>
       </c>
       <c r="B60" t="s" s="0">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C60" s="0">
         <f>VLOOKUP(B60,Таблицы!C:D,2,0)</f>
@@ -6367,7 +6385,7 @@
         <f>B61&amp;"."&amp;E61</f>
       </c>
       <c r="B61" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C61" s="0">
         <f>VLOOKUP(B61,Таблицы!C:D,2,0)</f>
@@ -6376,13 +6394,13 @@
         <v>60</v>
       </c>
       <c r="E61" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="F61" t="s">
+        <v>249</v>
+      </c>
+      <c r="G61" t="s">
         <v>245</v>
-      </c>
-      <c r="F61" t="s">
-        <v>246</v>
-      </c>
-      <c r="G61" t="s">
-        <v>242</v>
       </c>
       <c r="H61" t="s">
         <v>65</v>
@@ -6400,7 +6418,7 @@
         <v>55</v>
       </c>
       <c r="M61" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P61" t="s">
         <v>69</v>
@@ -6420,7 +6438,7 @@
         <f>B62&amp;"."&amp;E62</f>
       </c>
       <c r="B62" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C62" s="0">
         <f>VLOOKUP(B62,Таблицы!C:D,2,0)</f>
@@ -6429,13 +6447,13 @@
         <v>60</v>
       </c>
       <c r="E62" t="s" s="0">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F62" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G62" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H62" t="s">
         <v>65</v>
@@ -6447,13 +6465,13 @@
         <v>67</v>
       </c>
       <c r="K62" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L62" t="s">
         <v>55</v>
       </c>
       <c r="M62" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P62" t="s">
         <v>69</v>
@@ -6473,7 +6491,7 @@
         <f>B63&amp;"."&amp;E63</f>
       </c>
       <c r="B63" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C63" s="0">
         <f>VLOOKUP(B63,Таблицы!C:D,2,0)</f>
@@ -6523,7 +6541,7 @@
         <f>B64&amp;"."&amp;E64</f>
       </c>
       <c r="B64" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C64" s="0">
         <f>VLOOKUP(B64,Таблицы!C:D,2,0)</f>
@@ -6573,7 +6591,7 @@
         <f>B65&amp;"."&amp;E65</f>
       </c>
       <c r="B65" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C65" s="0">
         <f>VLOOKUP(B65,Таблицы!C:D,2,0)</f>
@@ -6582,13 +6600,13 @@
         <v>60</v>
       </c>
       <c r="E65" t="s" s="0">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F65" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G65" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H65" t="s">
         <v>65</v>
@@ -6600,13 +6618,13 @@
         <v>67</v>
       </c>
       <c r="K65" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L65" t="s">
         <v>55</v>
       </c>
       <c r="M65" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q65" t="s">
         <v>69</v>
@@ -6623,7 +6641,7 @@
         <f>B66&amp;"."&amp;E66</f>
       </c>
       <c r="B66" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C66" s="0">
         <f>VLOOKUP(B66,Таблицы!C:D,2,0)</f>
@@ -6632,13 +6650,13 @@
         <v>60</v>
       </c>
       <c r="E66" t="s" s="0">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F66" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G66" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H66" t="s">
         <v>65</v>
@@ -6650,13 +6668,13 @@
         <v>67</v>
       </c>
       <c r="K66" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L66" t="s">
         <v>55</v>
       </c>
       <c r="M66" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q66" t="s">
         <v>69</v>
@@ -6673,7 +6691,7 @@
         <f>B67&amp;"."&amp;E67</f>
       </c>
       <c r="B67" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C67" s="0">
         <f>VLOOKUP(B67,Таблицы!C:D,2,0)</f>
@@ -6723,7 +6741,7 @@
         <f>B68&amp;"."&amp;E68</f>
       </c>
       <c r="B68" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C68" s="0">
         <f>VLOOKUP(B68,Таблицы!C:D,2,0)</f>
@@ -6732,13 +6750,13 @@
         <v>60</v>
       </c>
       <c r="E68" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="F68" t="s">
+        <v>249</v>
+      </c>
+      <c r="G68" t="s">
         <v>245</v>
-      </c>
-      <c r="F68" t="s">
-        <v>246</v>
-      </c>
-      <c r="G68" t="s">
-        <v>242</v>
       </c>
       <c r="H68" t="s">
         <v>65</v>
@@ -6756,7 +6774,7 @@
         <v>55</v>
       </c>
       <c r="M68" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P68" t="s">
         <v>69</v>
@@ -6776,7 +6794,7 @@
         <f>B69&amp;"."&amp;E69</f>
       </c>
       <c r="B69" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C69" s="0">
         <f>VLOOKUP(B69,Таблицы!C:D,2,0)</f>
@@ -6785,13 +6803,13 @@
         <v>60</v>
       </c>
       <c r="E69" t="s" s="0">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F69" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G69" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H69" t="s">
         <v>65</v>
@@ -6803,13 +6821,13 @@
         <v>67</v>
       </c>
       <c r="K69" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L69" t="s">
         <v>55</v>
       </c>
       <c r="M69" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P69" t="s">
         <v>69</v>
@@ -6829,7 +6847,7 @@
         <f>B70&amp;"."&amp;E70</f>
       </c>
       <c r="B70" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C70" s="0">
         <f>VLOOKUP(B70,Таблицы!C:D,2,0)</f>
@@ -6879,7 +6897,7 @@
         <f>B71&amp;"."&amp;E71</f>
       </c>
       <c r="B71" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C71" s="0">
         <f>VLOOKUP(B71,Таблицы!C:D,2,0)</f>
@@ -6888,13 +6906,13 @@
         <v>60</v>
       </c>
       <c r="E71" t="s" s="0">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F71" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G71" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H71" t="s">
         <v>65</v>
@@ -6906,13 +6924,13 @@
         <v>67</v>
       </c>
       <c r="K71" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L71" t="s">
         <v>55</v>
       </c>
       <c r="M71" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q71" t="s">
         <v>69</v>
@@ -6929,7 +6947,7 @@
         <f>B72&amp;"."&amp;E72</f>
       </c>
       <c r="B72" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C72" s="0">
         <f>VLOOKUP(B72,Таблицы!C:D,2,0)</f>
@@ -6938,13 +6956,13 @@
         <v>60</v>
       </c>
       <c r="E72" t="s" s="0">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F72" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G72" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H72" t="s">
         <v>65</v>
@@ -6956,13 +6974,13 @@
         <v>67</v>
       </c>
       <c r="K72" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L72" t="s">
         <v>55</v>
       </c>
       <c r="M72" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q72" t="s">
         <v>69</v>
@@ -6979,7 +6997,7 @@
         <f>B73&amp;"."&amp;E73</f>
       </c>
       <c r="B73" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C73" s="0">
         <f>VLOOKUP(B73,Таблицы!C:D,2,0)</f>
@@ -6988,13 +7006,13 @@
         <v>60</v>
       </c>
       <c r="E73" t="s" s="0">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F73" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G73" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H73" t="s">
         <v>65</v>
@@ -7006,13 +7024,13 @@
         <v>67</v>
       </c>
       <c r="K73" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L73" t="s">
         <v>55</v>
       </c>
       <c r="M73" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q73" t="s">
         <v>69</v>
@@ -7029,7 +7047,7 @@
         <f>B74&amp;"."&amp;E74</f>
       </c>
       <c r="B74" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C74" s="0">
         <f>VLOOKUP(B74,Таблицы!C:D,2,0)</f>
@@ -7079,7 +7097,7 @@
         <f>B75&amp;"."&amp;E75</f>
       </c>
       <c r="B75" t="s" s="0">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C75" s="0">
         <f>VLOOKUP(B75,Таблицы!C:D,2,0)</f>
@@ -7094,7 +7112,7 @@
         <v>91</v>
       </c>
       <c r="G75" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H75" t="s">
         <v>65</v>
@@ -7106,13 +7124,13 @@
         <v>67</v>
       </c>
       <c r="K75" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L75" t="s">
         <v>55</v>
       </c>
       <c r="M75" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P75" t="s">
         <v>69</v>
@@ -7132,7 +7150,7 @@
         <f>B76&amp;"."&amp;E76</f>
       </c>
       <c r="B76" t="s" s="0">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C76" s="0">
         <f>VLOOKUP(B76,Таблицы!C:D,2,0)</f>
@@ -7182,7 +7200,7 @@
         <f>B77&amp;"."&amp;E77</f>
       </c>
       <c r="B77" t="s" s="0">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C77" s="0">
         <f>VLOOKUP(B77,Таблицы!C:D,2,0)</f>
@@ -7232,7 +7250,7 @@
         <f>B78&amp;"."&amp;E78</f>
       </c>
       <c r="B78" t="s" s="0">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C78" s="0">
         <f>VLOOKUP(B78,Таблицы!C:D,2,0)</f>
@@ -7247,7 +7265,7 @@
         <v>91</v>
       </c>
       <c r="G78" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H78" t="s">
         <v>65</v>
@@ -7259,13 +7277,13 @@
         <v>67</v>
       </c>
       <c r="K78" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L78" t="s">
         <v>55</v>
       </c>
       <c r="M78" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P78" t="s">
         <v>69</v>
@@ -7285,7 +7303,7 @@
         <f>B79&amp;"."&amp;E79</f>
       </c>
       <c r="B79" t="s" s="0">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C79" s="0">
         <f>VLOOKUP(B79,Таблицы!C:D,2,0)</f>
@@ -7335,7 +7353,7 @@
         <f>B80&amp;"."&amp;E80</f>
       </c>
       <c r="B80" t="s" s="0">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C80" s="0">
         <f>VLOOKUP(B80,Таблицы!C:D,2,0)</f>
@@ -7385,7 +7403,7 @@
         <f>B81&amp;"."&amp;E81</f>
       </c>
       <c r="B81" t="s" s="0">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C81" s="0">
         <f>VLOOKUP(B81,Таблицы!C:D,2,0)</f>
@@ -7400,7 +7418,7 @@
         <v>91</v>
       </c>
       <c r="G81" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H81" t="s">
         <v>65</v>
@@ -7412,13 +7430,13 @@
         <v>67</v>
       </c>
       <c r="K81" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L81" t="s">
         <v>55</v>
       </c>
       <c r="M81" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P81" t="s">
         <v>69</v>
@@ -7438,7 +7456,7 @@
         <f>B82&amp;"."&amp;E82</f>
       </c>
       <c r="B82" t="s" s="0">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C82" s="0">
         <f>VLOOKUP(B82,Таблицы!C:D,2,0)</f>
@@ -7488,7 +7506,7 @@
         <f>B83&amp;"."&amp;E83</f>
       </c>
       <c r="B83" t="s" s="0">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C83" s="0">
         <f>VLOOKUP(B83,Таблицы!C:D,2,0)</f>
@@ -7497,13 +7515,13 @@
         <v>60</v>
       </c>
       <c r="E83" t="s" s="0">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F83" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G83" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H83" t="s">
         <v>65</v>
@@ -7515,13 +7533,13 @@
         <v>67</v>
       </c>
       <c r="K83" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L83" t="s">
         <v>55</v>
       </c>
       <c r="M83" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="R83" t="s">
         <v>55</v>
@@ -7535,7 +7553,7 @@
         <f>B84&amp;"."&amp;E84</f>
       </c>
       <c r="B84" t="s" s="0">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C84" s="0">
         <f>VLOOKUP(B84,Таблицы!C:D,2,0)</f>
@@ -7544,13 +7562,13 @@
         <v>60</v>
       </c>
       <c r="E84" t="s" s="0">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F84" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G84" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H84" t="s">
         <v>65</v>
@@ -7562,13 +7580,13 @@
         <v>67</v>
       </c>
       <c r="K84" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L84" t="s">
         <v>55</v>
       </c>
       <c r="M84" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="R84" t="s">
         <v>55</v>
@@ -7582,7 +7600,7 @@
         <f>B85&amp;"."&amp;E85</f>
       </c>
       <c r="B85" t="s" s="0">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C85" s="0">
         <f>VLOOKUP(B85,Таблицы!C:D,2,0)</f>
@@ -7632,7 +7650,7 @@
         <f>B86&amp;"."&amp;E86</f>
       </c>
       <c r="B86" t="s" s="0">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C86" s="0">
         <f>VLOOKUP(B86,Таблицы!C:D,2,0)</f>
@@ -7647,7 +7665,7 @@
         <v>91</v>
       </c>
       <c r="G86" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H86" t="s">
         <v>65</v>
@@ -7665,7 +7683,7 @@
         <v>55</v>
       </c>
       <c r="M86" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P86" t="s">
         <v>69</v>
@@ -7685,7 +7703,7 @@
         <f>B87&amp;"."&amp;E87</f>
       </c>
       <c r="B87" t="s" s="0">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C87" s="0">
         <f>VLOOKUP(B87,Таблицы!C:D,2,0)</f>
@@ -7735,7 +7753,7 @@
         <f>B88&amp;"."&amp;E88</f>
       </c>
       <c r="B88" t="s" s="0">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C88" s="0">
         <f>VLOOKUP(B88,Таблицы!C:D,2,0)</f>
@@ -7785,7 +7803,7 @@
         <f>B89&amp;"."&amp;E89</f>
       </c>
       <c r="B89" t="s" s="0">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C89" s="0">
         <f>VLOOKUP(B89,Таблицы!C:D,2,0)</f>
@@ -7800,7 +7818,7 @@
         <v>91</v>
       </c>
       <c r="G89" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H89" t="s">
         <v>65</v>
@@ -7818,7 +7836,7 @@
         <v>55</v>
       </c>
       <c r="M89" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P89" t="s">
         <v>69</v>
@@ -7838,7 +7856,7 @@
         <f>B90&amp;"."&amp;E90</f>
       </c>
       <c r="B90" t="s" s="0">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C90" s="0">
         <f>VLOOKUP(B90,Таблицы!C:D,2,0)</f>
@@ -7888,7 +7906,7 @@
         <f>B91&amp;"."&amp;E91</f>
       </c>
       <c r="B91" t="s" s="0">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C91" s="0">
         <f>VLOOKUP(B91,Таблицы!C:D,2,0)</f>
@@ -7938,7 +7956,7 @@
         <f>B92&amp;"."&amp;E92</f>
       </c>
       <c r="B92" t="s" s="0">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C92" s="0">
         <f>VLOOKUP(B92,Таблицы!C:D,2,0)</f>
@@ -7953,7 +7971,7 @@
         <v>91</v>
       </c>
       <c r="G92" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H92" t="s">
         <v>65</v>
@@ -7965,13 +7983,13 @@
         <v>67</v>
       </c>
       <c r="K92" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L92" t="s">
         <v>55</v>
       </c>
       <c r="M92" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P92" t="s">
         <v>69</v>
@@ -7991,7 +8009,7 @@
         <f>B93&amp;"."&amp;E93</f>
       </c>
       <c r="B93" t="s" s="0">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C93" s="0">
         <f>VLOOKUP(B93,Таблицы!C:D,2,0)</f>
@@ -8041,7 +8059,7 @@
         <f>B94&amp;"."&amp;E94</f>
       </c>
       <c r="B94" t="s" s="0">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C94" s="0">
         <f>VLOOKUP(B94,Таблицы!C:D,2,0)</f>
@@ -8091,7 +8109,7 @@
         <f>B95&amp;"."&amp;E95</f>
       </c>
       <c r="B95" t="s" s="0">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C95" s="0">
         <f>VLOOKUP(B95,Таблицы!C:D,2,0)</f>
@@ -8106,7 +8124,7 @@
         <v>91</v>
       </c>
       <c r="G95" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H95" t="s">
         <v>65</v>
@@ -8118,13 +8136,13 @@
         <v>67</v>
       </c>
       <c r="K95" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L95" t="s">
         <v>55</v>
       </c>
       <c r="M95" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P95" t="s">
         <v>69</v>
@@ -8144,7 +8162,7 @@
         <f>B96&amp;"."&amp;E96</f>
       </c>
       <c r="B96" t="s" s="0">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C96" s="0">
         <f>VLOOKUP(B96,Таблицы!C:D,2,0)</f>
@@ -8194,7 +8212,7 @@
         <f>B97&amp;"."&amp;E97</f>
       </c>
       <c r="B97" t="s" s="0">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C97" s="0">
         <f>VLOOKUP(B97,Таблицы!C:D,2,0)</f>
@@ -8244,7 +8262,7 @@
         <f>B98&amp;"."&amp;E98</f>
       </c>
       <c r="B98" t="s" s="0">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C98" s="0">
         <f>VLOOKUP(B98,Таблицы!C:D,2,0)</f>
@@ -8253,13 +8271,13 @@
         <v>60</v>
       </c>
       <c r="E98" t="s" s="0">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F98" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G98" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H98" t="s">
         <v>65</v>
@@ -8271,13 +8289,13 @@
         <v>67</v>
       </c>
       <c r="K98" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L98" t="s">
         <v>55</v>
       </c>
       <c r="M98" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P98" t="s">
         <v>69</v>
@@ -8297,7 +8315,7 @@
         <f>B99&amp;"."&amp;E99</f>
       </c>
       <c r="B99" t="s" s="0">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C99" s="0">
         <f>VLOOKUP(B99,Таблицы!C:D,2,0)</f>
@@ -8306,13 +8324,13 @@
         <v>60</v>
       </c>
       <c r="E99" t="s" s="0">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F99" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G99" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H99" t="s">
         <v>65</v>
@@ -8330,7 +8348,7 @@
         <v>55</v>
       </c>
       <c r="M99" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P99" t="s">
         <v>69</v>
@@ -8350,7 +8368,7 @@
         <f>B100&amp;"."&amp;E100</f>
       </c>
       <c r="B100" t="s" s="0">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C100" s="0">
         <f>VLOOKUP(B100,Таблицы!C:D,2,0)</f>
@@ -8400,7 +8418,7 @@
         <f>B101&amp;"."&amp;E101</f>
       </c>
       <c r="B101" t="s" s="0">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C101" s="0">
         <f>VLOOKUP(B101,Таблицы!C:D,2,0)</f>
@@ -8450,7 +8468,7 @@
         <f>B102&amp;"."&amp;E102</f>
       </c>
       <c r="B102" t="s" s="0">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C102" s="0">
         <f>VLOOKUP(B102,Таблицы!C:D,2,0)</f>
@@ -8465,7 +8483,7 @@
         <v>91</v>
       </c>
       <c r="G102" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H102" t="s">
         <v>65</v>
@@ -8477,13 +8495,13 @@
         <v>67</v>
       </c>
       <c r="K102" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L102" t="s">
         <v>55</v>
       </c>
       <c r="M102" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="P102" t="s">
         <v>69</v>
@@ -8503,7 +8521,7 @@
         <f>B103&amp;"."&amp;E103</f>
       </c>
       <c r="B103" t="s" s="0">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C103" s="0">
         <f>VLOOKUP(B103,Таблицы!C:D,2,0)</f>
@@ -8553,7 +8571,7 @@
         <f>B104&amp;"."&amp;E104</f>
       </c>
       <c r="B104" t="s" s="0">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C104" s="0">
         <f>VLOOKUP(B104,Таблицы!C:D,2,0)</f>
@@ -8603,7 +8621,7 @@
         <f>B105&amp;"."&amp;E105</f>
       </c>
       <c r="B105" t="s" s="0">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C105" s="0">
         <f>VLOOKUP(B105,Таблицы!C:D,2,0)</f>
@@ -8612,13 +8630,13 @@
         <v>60</v>
       </c>
       <c r="E105" t="s" s="0">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F105" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G105" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H105" t="s">
         <v>65</v>
@@ -8630,13 +8648,13 @@
         <v>67</v>
       </c>
       <c r="K105" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L105" t="s">
         <v>55</v>
       </c>
       <c r="M105" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q105" t="s">
         <v>69</v>
@@ -8653,7 +8671,7 @@
         <f>B106&amp;"."&amp;E106</f>
       </c>
       <c r="B106" t="s" s="0">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C106" s="0">
         <f>VLOOKUP(B106,Таблицы!C:D,2,0)</f>
@@ -8703,7 +8721,7 @@
         <f>B107&amp;"."&amp;E107</f>
       </c>
       <c r="B107" t="s" s="0">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C107" s="0">
         <f>VLOOKUP(B107,Таблицы!C:D,2,0)</f>
@@ -8718,7 +8736,7 @@
         <v>91</v>
       </c>
       <c r="G107" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H107" t="s">
         <v>65</v>
@@ -8736,7 +8754,7 @@
         <v>55</v>
       </c>
       <c r="M107" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="P107" t="s">
         <v>69</v>
@@ -8756,7 +8774,7 @@
         <f>B108&amp;"."&amp;E108</f>
       </c>
       <c r="B108" t="s" s="0">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C108" s="0">
         <f>VLOOKUP(B108,Таблицы!C:D,2,0)</f>
@@ -8806,7 +8824,7 @@
         <f>B109&amp;"."&amp;E109</f>
       </c>
       <c r="B109" t="s" s="0">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C109" s="0">
         <f>VLOOKUP(B109,Таблицы!C:D,2,0)</f>
@@ -8856,7 +8874,7 @@
         <f>B110&amp;"."&amp;E110</f>
       </c>
       <c r="B110" t="s" s="0">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C110" s="0">
         <f>VLOOKUP(B110,Таблицы!C:D,2,0)</f>
@@ -8906,7 +8924,7 @@
         <f>B111&amp;"."&amp;E111</f>
       </c>
       <c r="B111" t="s" s="0">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C111" s="0">
         <f>VLOOKUP(B111,Таблицы!C:D,2,0)</f>
@@ -8915,13 +8933,13 @@
         <v>60</v>
       </c>
       <c r="E111" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="F111" t="s">
+        <v>359</v>
+      </c>
+      <c r="G111" t="s">
         <v>355</v>
-      </c>
-      <c r="F111" t="s">
-        <v>356</v>
-      </c>
-      <c r="G111" t="s">
-        <v>352</v>
       </c>
       <c r="H111" t="s">
         <v>65</v>
@@ -8939,7 +8957,7 @@
         <v>55</v>
       </c>
       <c r="M111" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="P111" t="s">
         <v>69</v>
@@ -8959,7 +8977,7 @@
         <f>B112&amp;"."&amp;E112</f>
       </c>
       <c r="B112" t="s" s="0">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C112" s="0">
         <f>VLOOKUP(B112,Таблицы!C:D,2,0)</f>
@@ -8968,13 +8986,13 @@
         <v>60</v>
       </c>
       <c r="E112" t="s" s="0">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F112" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G112" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H112" t="s">
         <v>65</v>
@@ -8986,13 +9004,13 @@
         <v>67</v>
       </c>
       <c r="K112" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L112" t="s">
         <v>55</v>
       </c>
       <c r="M112" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P112" t="s">
         <v>69</v>
@@ -9012,7 +9030,7 @@
         <f>B113&amp;"."&amp;E113</f>
       </c>
       <c r="B113" t="s" s="0">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C113" s="0">
         <f>VLOOKUP(B113,Таблицы!C:D,2,0)</f>
@@ -9062,7 +9080,7 @@
         <f>B114&amp;"."&amp;E114</f>
       </c>
       <c r="B114" t="s" s="0">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C114" s="0">
         <f>VLOOKUP(B114,Таблицы!C:D,2,0)</f>
@@ -9112,7 +9130,7 @@
         <f>B115&amp;"."&amp;E115</f>
       </c>
       <c r="B115" t="s" s="0">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C115" s="0">
         <f>VLOOKUP(B115,Таблицы!C:D,2,0)</f>
@@ -9162,7 +9180,7 @@
         <f>B116&amp;"."&amp;E116</f>
       </c>
       <c r="B116" t="s" s="0">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C116" s="0">
         <f>VLOOKUP(B116,Таблицы!C:D,2,0)</f>
@@ -9177,7 +9195,7 @@
         <v>91</v>
       </c>
       <c r="G116" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H116" t="s">
         <v>65</v>
@@ -9195,7 +9213,7 @@
         <v>55</v>
       </c>
       <c r="M116" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P116" t="s">
         <v>69</v>
@@ -9215,7 +9233,7 @@
         <f>B117&amp;"."&amp;E117</f>
       </c>
       <c r="B117" t="s" s="0">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C117" s="0">
         <f>VLOOKUP(B117,Таблицы!C:D,2,0)</f>
@@ -9265,7 +9283,7 @@
         <f>B118&amp;"."&amp;E118</f>
       </c>
       <c r="B118" t="s" s="0">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C118" s="0">
         <f>VLOOKUP(B118,Таблицы!C:D,2,0)</f>
@@ -9315,7 +9333,7 @@
         <f>B119&amp;"."&amp;E119</f>
       </c>
       <c r="B119" t="s" s="0">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C119" s="0">
         <f>VLOOKUP(B119,Таблицы!C:D,2,0)</f>
@@ -9324,13 +9342,13 @@
         <v>60</v>
       </c>
       <c r="E119" t="s" s="0">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F119" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G119" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H119" t="s">
         <v>65</v>
@@ -9348,7 +9366,7 @@
         <v>55</v>
       </c>
       <c r="M119" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q119" t="s">
         <v>69</v>
@@ -9365,7 +9383,7 @@
         <f>B120&amp;"."&amp;E120</f>
       </c>
       <c r="B120" t="s" s="0">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C120" s="0">
         <f>VLOOKUP(B120,Таблицы!C:D,2,0)</f>
@@ -9415,7 +9433,7 @@
         <f>B121&amp;"."&amp;E121</f>
       </c>
       <c r="B121" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C121" s="0">
         <f>VLOOKUP(B121,Таблицы!C:D,2,0)</f>
@@ -9430,7 +9448,7 @@
         <v>91</v>
       </c>
       <c r="G121" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H121" t="s">
         <v>65</v>
@@ -9448,7 +9466,7 @@
         <v>55</v>
       </c>
       <c r="M121" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P121" t="s">
         <v>69</v>
@@ -9468,7 +9486,7 @@
         <f>B122&amp;"."&amp;E122</f>
       </c>
       <c r="B122" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C122" s="0">
         <f>VLOOKUP(B122,Таблицы!C:D,2,0)</f>
@@ -9518,7 +9536,7 @@
         <f>B123&amp;"."&amp;E123</f>
       </c>
       <c r="B123" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C123" s="0">
         <f>VLOOKUP(B123,Таблицы!C:D,2,0)</f>
@@ -9527,10 +9545,10 @@
         <v>60</v>
       </c>
       <c r="E123" t="s" s="0">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F123" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G123" t="s">
         <v>92</v>
@@ -9568,7 +9586,7 @@
         <f>B124&amp;"."&amp;E124</f>
       </c>
       <c r="B124" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C124" s="0">
         <f>VLOOKUP(B124,Таблицы!C:D,2,0)</f>
@@ -9618,7 +9636,7 @@
         <f>B125&amp;"."&amp;E125</f>
       </c>
       <c r="B125" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C125" s="0">
         <f>VLOOKUP(B125,Таблицы!C:D,2,0)</f>
@@ -9627,10 +9645,10 @@
         <v>60</v>
       </c>
       <c r="E125" t="s" s="0">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F125" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G125" t="s">
         <v>115</v>
@@ -9668,7 +9686,7 @@
         <f>B126&amp;"."&amp;E126</f>
       </c>
       <c r="B126" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C126" s="0">
         <f>VLOOKUP(B126,Таблицы!C:D,2,0)</f>
@@ -9677,13 +9695,13 @@
         <v>60</v>
       </c>
       <c r="E126" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
+        <v>249</v>
+      </c>
+      <c r="G126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
-      </c>
-      <c r="G126" t="s">
-        <v>242</v>
       </c>
       <c r="H126" t="s">
         <v>65</v>
@@ -9701,7 +9719,7 @@
         <v>55</v>
       </c>
       <c r="M126" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q126" t="s">
         <v>69</v>
@@ -9718,7 +9736,7 @@
         <f>B127&amp;"."&amp;E127</f>
       </c>
       <c r="B127" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C127" s="0">
         <f>VLOOKUP(B127,Таблицы!C:D,2,0)</f>
@@ -9727,13 +9745,13 @@
         <v>60</v>
       </c>
       <c r="E127" t="s" s="0">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F127" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G127" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H127" t="s">
         <v>65</v>
@@ -9745,13 +9763,13 @@
         <v>67</v>
       </c>
       <c r="K127" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L127" t="s">
         <v>55</v>
       </c>
       <c r="M127" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q127" t="s">
         <v>69</v>
@@ -9768,7 +9786,7 @@
         <f>B128&amp;"."&amp;E128</f>
       </c>
       <c r="B128" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C128" s="0">
         <f>VLOOKUP(B128,Таблицы!C:D,2,0)</f>
@@ -9777,13 +9795,13 @@
         <v>60</v>
       </c>
       <c r="E128" t="s" s="0">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F128" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G128" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H128" t="s">
         <v>65</v>
@@ -9801,7 +9819,7 @@
         <v>55</v>
       </c>
       <c r="M128" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q128" t="s">
         <v>69</v>
@@ -9818,7 +9836,7 @@
         <f>B129&amp;"."&amp;E129</f>
       </c>
       <c r="B129" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C129" s="0">
         <f>VLOOKUP(B129,Таблицы!C:D,2,0)</f>
@@ -9868,7 +9886,7 @@
         <f>B130&amp;"."&amp;E130</f>
       </c>
       <c r="B130" t="s" s="0">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C130" s="0">
         <f>VLOOKUP(B130,Таблицы!C:D,2,0)</f>
@@ -9877,13 +9895,13 @@
         <v>60</v>
       </c>
       <c r="E130" t="s" s="0">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F130" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G130" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H130" t="s">
         <v>65</v>
@@ -9901,7 +9919,7 @@
         <v>55</v>
       </c>
       <c r="M130" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P130" t="s">
         <v>69</v>
@@ -9921,7 +9939,7 @@
         <f>B131&amp;"."&amp;E131</f>
       </c>
       <c r="B131" t="s" s="0">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C131" s="0">
         <f>VLOOKUP(B131,Таблицы!C:D,2,0)</f>
@@ -9930,13 +9948,13 @@
         <v>60</v>
       </c>
       <c r="E131" t="s" s="0">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F131" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G131" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H131" t="s">
         <v>65</v>
@@ -9954,7 +9972,7 @@
         <v>55</v>
       </c>
       <c r="M131" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P131" t="s">
         <v>69</v>
@@ -9974,7 +9992,7 @@
         <f>B132&amp;"."&amp;E132</f>
       </c>
       <c r="B132" t="s" s="0">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C132" s="0">
         <f>VLOOKUP(B132,Таблицы!C:D,2,0)</f>
@@ -10024,7 +10042,7 @@
         <f>B133&amp;"."&amp;E133</f>
       </c>
       <c r="B133" t="s" s="0">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C133" s="0">
         <f>VLOOKUP(B133,Таблицы!C:D,2,0)</f>
@@ -10039,7 +10057,7 @@
         <v>91</v>
       </c>
       <c r="G133" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H133" t="s">
         <v>65</v>
@@ -10051,13 +10069,13 @@
         <v>67</v>
       </c>
       <c r="K133" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L133" t="s">
         <v>55</v>
       </c>
       <c r="M133" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="P133" t="s">
         <v>69</v>
@@ -10077,7 +10095,7 @@
         <f>B134&amp;"."&amp;E134</f>
       </c>
       <c r="B134" t="s" s="0">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C134" s="0">
         <f>VLOOKUP(B134,Таблицы!C:D,2,0)</f>
@@ -10127,7 +10145,7 @@
         <f>B135&amp;"."&amp;E135</f>
       </c>
       <c r="B135" t="s" s="0">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C135" s="0">
         <f>VLOOKUP(B135,Таблицы!C:D,2,0)</f>
@@ -10177,7 +10195,7 @@
         <f>B136&amp;"."&amp;E136</f>
       </c>
       <c r="B136" t="s" s="0">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C136" s="0">
         <f>VLOOKUP(B136,Таблицы!C:D,2,0)</f>
@@ -10192,7 +10210,7 @@
         <v>91</v>
       </c>
       <c r="G136" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H136" t="s">
         <v>65</v>
@@ -10210,7 +10228,7 @@
         <v>55</v>
       </c>
       <c r="M136" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="P136" t="s">
         <v>69</v>
@@ -10230,7 +10248,7 @@
         <f>B137&amp;"."&amp;E137</f>
       </c>
       <c r="B137" t="s" s="0">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C137" s="0">
         <f>VLOOKUP(B137,Таблицы!C:D,2,0)</f>
@@ -10280,7 +10298,7 @@
         <f>B138&amp;"."&amp;E138</f>
       </c>
       <c r="B138" t="s" s="0">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C138" s="0">
         <f>VLOOKUP(B138,Таблицы!C:D,2,0)</f>
@@ -10330,7 +10348,7 @@
         <f>B139&amp;"."&amp;E139</f>
       </c>
       <c r="B139" t="s" s="0">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C139" s="0">
         <f>VLOOKUP(B139,Таблицы!C:D,2,0)</f>
@@ -10339,13 +10357,13 @@
         <v>60</v>
       </c>
       <c r="E139" t="s" s="0">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F139" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G139" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H139" t="s">
         <v>65</v>
@@ -10363,7 +10381,7 @@
         <v>55</v>
       </c>
       <c r="M139" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="P139" t="s">
         <v>69</v>
@@ -10383,7 +10401,7 @@
         <f>B140&amp;"."&amp;E140</f>
       </c>
       <c r="B140" t="s" s="0">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C140" s="0">
         <f>VLOOKUP(B140,Таблицы!C:D,2,0)</f>
@@ -10392,13 +10410,13 @@
         <v>60</v>
       </c>
       <c r="E140" t="s" s="0">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F140" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G140" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H140" t="s">
         <v>65</v>
@@ -10410,13 +10428,13 @@
         <v>67</v>
       </c>
       <c r="K140" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L140" t="s">
         <v>55</v>
       </c>
       <c r="M140" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="P140" t="s">
         <v>69</v>
@@ -10436,7 +10454,7 @@
         <f>B141&amp;"."&amp;E141</f>
       </c>
       <c r="B141" t="s" s="0">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C141" s="0">
         <f>VLOOKUP(B141,Таблицы!C:D,2,0)</f>
@@ -10445,13 +10463,13 @@
         <v>60</v>
       </c>
       <c r="E141" t="s" s="0">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F141" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G141" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H141" t="s">
         <v>65</v>
@@ -10463,13 +10481,13 @@
         <v>67</v>
       </c>
       <c r="K141" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L141" t="s">
         <v>55</v>
       </c>
       <c r="M141" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P141" t="s">
         <v>69</v>
@@ -10489,7 +10507,7 @@
         <f>B142&amp;"."&amp;E142</f>
       </c>
       <c r="B142" t="s" s="0">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C142" s="0">
         <f>VLOOKUP(B142,Таблицы!C:D,2,0)</f>
@@ -10498,13 +10516,13 @@
         <v>60</v>
       </c>
       <c r="E142" t="s" s="0">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F142" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G142" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H142" t="s">
         <v>65</v>
@@ -10516,13 +10534,13 @@
         <v>67</v>
       </c>
       <c r="K142" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L142" t="s">
         <v>55</v>
       </c>
       <c r="M142" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="Q142" t="s">
         <v>69</v>
@@ -10539,7 +10557,7 @@
         <f>B143&amp;"."&amp;E143</f>
       </c>
       <c r="B143" t="s" s="0">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C143" s="0">
         <f>VLOOKUP(B143,Таблицы!C:D,2,0)</f>
@@ -10548,13 +10566,13 @@
         <v>60</v>
       </c>
       <c r="E143" t="s" s="0">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F143" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G143" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H143" t="s">
         <v>65</v>
@@ -10572,7 +10590,7 @@
         <v>55</v>
       </c>
       <c r="M143" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q143" t="s">
         <v>69</v>
@@ -10589,7 +10607,7 @@
         <f>B144&amp;"."&amp;E144</f>
       </c>
       <c r="B144" t="s" s="0">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C144" s="0">
         <f>VLOOKUP(B144,Таблицы!C:D,2,0)</f>
@@ -10598,13 +10616,13 @@
         <v>60</v>
       </c>
       <c r="E144" t="s" s="0">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F144" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G144" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H144" t="s">
         <v>65</v>
@@ -10622,7 +10640,7 @@
         <v>55</v>
       </c>
       <c r="M144" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q144" t="s">
         <v>69</v>
@@ -10639,7 +10657,7 @@
         <f>B145&amp;"."&amp;E145</f>
       </c>
       <c r="B145" t="s" s="0">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C145" s="0">
         <f>VLOOKUP(B145,Таблицы!C:D,2,0)</f>
@@ -10648,13 +10666,13 @@
         <v>60</v>
       </c>
       <c r="E145" t="s" s="0">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F145" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G145" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H145" t="s">
         <v>65</v>
@@ -10672,7 +10690,7 @@
         <v>55</v>
       </c>
       <c r="M145" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q145" t="s">
         <v>69</v>
@@ -10689,7 +10707,7 @@
         <f>B146&amp;"."&amp;E146</f>
       </c>
       <c r="B146" t="s" s="0">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C146" s="0">
         <f>VLOOKUP(B146,Таблицы!C:D,2,0)</f>
@@ -10698,13 +10716,13 @@
         <v>60</v>
       </c>
       <c r="E146" t="s" s="0">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F146" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G146" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H146" t="s">
         <v>65</v>
@@ -10722,7 +10740,7 @@
         <v>55</v>
       </c>
       <c r="M146" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q146" t="s">
         <v>69</v>
@@ -10739,7 +10757,7 @@
         <f>B147&amp;"."&amp;E147</f>
       </c>
       <c r="B147" t="s" s="0">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C147" s="0">
         <f>VLOOKUP(B147,Таблицы!C:D,2,0)</f>
@@ -10748,13 +10766,13 @@
         <v>60</v>
       </c>
       <c r="E147" t="s" s="0">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F147" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G147" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H147" t="s">
         <v>65</v>
@@ -10772,7 +10790,7 @@
         <v>55</v>
       </c>
       <c r="M147" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q147" t="s">
         <v>69</v>
@@ -10789,7 +10807,7 @@
         <f>B148&amp;"."&amp;E148</f>
       </c>
       <c r="B148" t="s" s="0">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C148" s="0">
         <f>VLOOKUP(B148,Таблицы!C:D,2,0)</f>
@@ -10798,13 +10816,13 @@
         <v>60</v>
       </c>
       <c r="E148" t="s" s="0">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F148" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G148" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H148" t="s">
         <v>65</v>
@@ -10822,7 +10840,7 @@
         <v>55</v>
       </c>
       <c r="M148" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q148" t="s">
         <v>69</v>
@@ -10839,7 +10857,7 @@
         <f>B149&amp;"."&amp;E149</f>
       </c>
       <c r="B149" t="s" s="0">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C149" s="0">
         <f>VLOOKUP(B149,Таблицы!C:D,2,0)</f>
@@ -10848,13 +10866,13 @@
         <v>60</v>
       </c>
       <c r="E149" t="s" s="0">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F149" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G149" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H149" t="s">
         <v>65</v>
@@ -10872,7 +10890,7 @@
         <v>55</v>
       </c>
       <c r="M149" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q149" t="s">
         <v>69</v>
@@ -10889,7 +10907,7 @@
         <f>B150&amp;"."&amp;E150</f>
       </c>
       <c r="B150" t="s" s="0">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C150" s="0">
         <f>VLOOKUP(B150,Таблицы!C:D,2,0)</f>
@@ -10898,13 +10916,13 @@
         <v>60</v>
       </c>
       <c r="E150" t="s" s="0">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F150" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="G150" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H150" t="s">
         <v>65</v>
@@ -10922,7 +10940,7 @@
         <v>55</v>
       </c>
       <c r="M150" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q150" t="s">
         <v>69</v>
@@ -10939,7 +10957,7 @@
         <f>B151&amp;"."&amp;E151</f>
       </c>
       <c r="B151" t="s" s="0">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C151" s="0">
         <f>VLOOKUP(B151,Таблицы!C:D,2,0)</f>
@@ -10948,13 +10966,13 @@
         <v>60</v>
       </c>
       <c r="E151" t="s" s="0">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F151" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="G151" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H151" t="s">
         <v>65</v>
@@ -10972,7 +10990,7 @@
         <v>55</v>
       </c>
       <c r="M151" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q151" t="s">
         <v>69</v>
@@ -10989,7 +11007,7 @@
         <f>B152&amp;"."&amp;E152</f>
       </c>
       <c r="B152" t="s" s="0">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C152" s="0">
         <f>VLOOKUP(B152,Таблицы!C:D,2,0)</f>
@@ -10998,13 +11016,13 @@
         <v>60</v>
       </c>
       <c r="E152" t="s" s="0">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F152" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="G152" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H152" t="s">
         <v>65</v>
@@ -11022,7 +11040,7 @@
         <v>55</v>
       </c>
       <c r="M152" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q152" t="s">
         <v>69</v>
@@ -11039,7 +11057,7 @@
         <f>B153&amp;"."&amp;E153</f>
       </c>
       <c r="B153" t="s" s="0">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C153" s="0">
         <f>VLOOKUP(B153,Таблицы!C:D,2,0)</f>
@@ -11048,13 +11066,13 @@
         <v>60</v>
       </c>
       <c r="E153" t="s" s="0">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F153" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="G153" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="H153" t="s">
         <v>65</v>
@@ -11072,7 +11090,7 @@
         <v>55</v>
       </c>
       <c r="M153" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q153" t="s">
         <v>69</v>
@@ -11089,7 +11107,7 @@
         <f>B154&amp;"."&amp;E154</f>
       </c>
       <c r="B154" t="s" s="0">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C154" s="0">
         <f>VLOOKUP(B154,Таблицы!C:D,2,0)</f>
@@ -11098,13 +11116,13 @@
         <v>60</v>
       </c>
       <c r="E154" t="s" s="0">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F154" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="G154" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H154" t="s">
         <v>65</v>
@@ -11122,7 +11140,7 @@
         <v>55</v>
       </c>
       <c r="M154" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q154" t="s">
         <v>69</v>
@@ -11139,7 +11157,7 @@
         <f>B155&amp;"."&amp;E155</f>
       </c>
       <c r="B155" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C155" s="0">
         <f>VLOOKUP(B155,Таблицы!C:D,2,0)</f>
@@ -11148,31 +11166,31 @@
         <v>60</v>
       </c>
       <c r="E155" t="s" s="0">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="F155" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="G155" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="H155" t="s">
         <v>65</v>
       </c>
       <c r="I155" t="s">
+        <v>483</v>
+      </c>
+      <c r="J155" t="s">
+        <v>484</v>
+      </c>
+      <c r="K155" t="s">
+        <v>55</v>
+      </c>
+      <c r="L155" t="s">
+        <v>55</v>
+      </c>
+      <c r="M155" t="s">
         <v>479</v>
-      </c>
-      <c r="J155" t="s">
-        <v>480</v>
-      </c>
-      <c r="K155" t="s">
-        <v>55</v>
-      </c>
-      <c r="L155" t="s">
-        <v>55</v>
-      </c>
-      <c r="M155" t="s">
-        <v>475</v>
       </c>
       <c r="P155" t="s">
         <v>69</v>
@@ -11192,7 +11210,7 @@
         <f>B156&amp;"."&amp;E156</f>
       </c>
       <c r="B156" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C156" s="0">
         <f>VLOOKUP(B156,Таблицы!C:D,2,0)</f>
@@ -11201,13 +11219,13 @@
         <v>60</v>
       </c>
       <c r="E156" t="s" s="0">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F156" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G156" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H156" t="s">
         <v>65</v>
@@ -11225,7 +11243,7 @@
         <v>55</v>
       </c>
       <c r="M156" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q156" t="s">
         <v>69</v>
@@ -11242,7 +11260,7 @@
         <f>B157&amp;"."&amp;E157</f>
       </c>
       <c r="B157" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C157" s="0">
         <f>VLOOKUP(B157,Таблицы!C:D,2,0)</f>
@@ -11251,13 +11269,13 @@
         <v>60</v>
       </c>
       <c r="E157" t="s" s="0">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F157" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G157" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H157" t="s">
         <v>65</v>
@@ -11275,7 +11293,7 @@
         <v>55</v>
       </c>
       <c r="M157" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q157" t="s">
         <v>69</v>
@@ -11292,7 +11310,7 @@
         <f>B158&amp;"."&amp;E158</f>
       </c>
       <c r="B158" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C158" s="0">
         <f>VLOOKUP(B158,Таблицы!C:D,2,0)</f>
@@ -11301,13 +11319,13 @@
         <v>60</v>
       </c>
       <c r="E158" t="s" s="0">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F158" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="G158" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="H158" t="s">
         <v>65</v>
@@ -11325,7 +11343,7 @@
         <v>55</v>
       </c>
       <c r="M158" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q158" t="s">
         <v>69</v>
@@ -11342,7 +11360,7 @@
         <f>B159&amp;"."&amp;E159</f>
       </c>
       <c r="B159" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C159" s="0">
         <f>VLOOKUP(B159,Таблицы!C:D,2,0)</f>
@@ -11351,13 +11369,13 @@
         <v>60</v>
       </c>
       <c r="E159" t="s" s="0">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="F159" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G159" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H159" t="s">
         <v>65</v>
@@ -11369,13 +11387,13 @@
         <v>67</v>
       </c>
       <c r="K159" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L159" t="s">
         <v>55</v>
       </c>
       <c r="M159" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="Q159" t="s">
         <v>69</v>
@@ -11392,7 +11410,7 @@
         <f>B160&amp;"."&amp;E160</f>
       </c>
       <c r="B160" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C160" s="0">
         <f>VLOOKUP(B160,Таблицы!C:D,2,0)</f>
@@ -11401,13 +11419,13 @@
         <v>60</v>
       </c>
       <c r="E160" t="s" s="0">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F160" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G160" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="H160" t="s">
         <v>65</v>
@@ -11419,13 +11437,13 @@
         <v>67</v>
       </c>
       <c r="K160" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L160" t="s">
         <v>55</v>
       </c>
       <c r="M160" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="Q160" t="s">
         <v>69</v>
@@ -11442,7 +11460,7 @@
         <f>B161&amp;"."&amp;E161</f>
       </c>
       <c r="B161" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C161" s="0">
         <f>VLOOKUP(B161,Таблицы!C:D,2,0)</f>
@@ -11451,22 +11469,22 @@
         <v>60</v>
       </c>
       <c r="E161" t="s" s="0">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F161" t="s" s="0">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G161" t="s" s="0">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H161" t="s" s="0">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I161" t="s" s="0">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J161" t="s" s="0">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K161" t="s" s="0">
         <v>55</v>
@@ -11489,7 +11507,7 @@
         <f>B162&amp;"."&amp;E162</f>
       </c>
       <c r="B162" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C162" s="0">
         <f>VLOOKUP(B162,Таблицы!C:D,2,0)</f>
@@ -11498,22 +11516,22 @@
         <v>60</v>
       </c>
       <c r="E162" t="s" s="0">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="F162" t="s" s="0">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="G162" t="s" s="0">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H162" t="s" s="0">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I162" t="s" s="0">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J162" t="s" s="0">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K162" t="s" s="0">
         <v>55</v>
@@ -11536,7 +11554,7 @@
         <f>B163&amp;"."&amp;E163</f>
       </c>
       <c r="B163" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C163" s="0">
         <f>VLOOKUP(B163,Таблицы!C:D,2,0)</f>
@@ -11545,22 +11563,22 @@
         <v>60</v>
       </c>
       <c r="E163" t="s" s="0">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="F163" t="s" s="0">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="G163" t="s" s="0">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="H163" t="s" s="0">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I163" t="s" s="0">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J163" t="s" s="0">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K163" t="s" s="0">
         <v>55</v>
@@ -11583,7 +11601,7 @@
         <f>B164&amp;"."&amp;E164</f>
       </c>
       <c r="B164" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C164" s="0">
         <f>VLOOKUP(B164,Таблицы!C:D,2,0)</f>
@@ -11592,13 +11610,13 @@
         <v>60</v>
       </c>
       <c r="E164" t="s" s="0">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="F164" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="G164" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H164" t="s">
         <v>65</v>
@@ -11616,7 +11634,7 @@
         <v>55</v>
       </c>
       <c r="M164" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q164" t="s">
         <v>69</v>
@@ -11633,7 +11651,7 @@
         <f>B165&amp;"."&amp;E165</f>
       </c>
       <c r="B165" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C165" s="0">
         <f>VLOOKUP(B165,Таблицы!C:D,2,0)</f>
@@ -11642,13 +11660,13 @@
         <v>60</v>
       </c>
       <c r="E165" t="s" s="0">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F165" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G165" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H165" t="s">
         <v>65</v>
@@ -11666,7 +11684,7 @@
         <v>55</v>
       </c>
       <c r="M165" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="Q165" t="s">
         <v>69</v>
@@ -11683,7 +11701,7 @@
         <f>B166&amp;"."&amp;E166</f>
       </c>
       <c r="B166" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C166" s="0">
         <f>VLOOKUP(B166,Таблицы!C:D,2,0)</f>
@@ -11692,13 +11710,13 @@
         <v>60</v>
       </c>
       <c r="E166" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="F166" t="s">
+        <v>249</v>
+      </c>
+      <c r="G166" t="s">
         <v>245</v>
-      </c>
-      <c r="F166" t="s">
-        <v>246</v>
-      </c>
-      <c r="G166" t="s">
-        <v>242</v>
       </c>
       <c r="H166" t="s">
         <v>65</v>
@@ -11716,7 +11734,7 @@
         <v>55</v>
       </c>
       <c r="M166" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q166" t="s">
         <v>69</v>
@@ -11733,7 +11751,7 @@
         <f>B167&amp;"."&amp;E167</f>
       </c>
       <c r="B167" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C167" s="0">
         <f>VLOOKUP(B167,Таблицы!C:D,2,0)</f>
@@ -11742,13 +11760,13 @@
         <v>60</v>
       </c>
       <c r="E167" t="s" s="0">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F167" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G167" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H167" t="s">
         <v>65</v>
@@ -11760,13 +11778,13 @@
         <v>67</v>
       </c>
       <c r="K167" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L167" t="s">
         <v>55</v>
       </c>
       <c r="M167" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q167" t="s">
         <v>69</v>
@@ -11783,7 +11801,7 @@
         <f>B168&amp;"."&amp;E168</f>
       </c>
       <c r="B168" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C168" s="0">
         <f>VLOOKUP(B168,Таблицы!C:D,2,0)</f>
@@ -11792,13 +11810,13 @@
         <v>60</v>
       </c>
       <c r="E168" t="s" s="0">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F168" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G168" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H168" t="s">
         <v>65</v>
@@ -11810,13 +11828,13 @@
         <v>67</v>
       </c>
       <c r="K168" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L168" t="s">
         <v>55</v>
       </c>
       <c r="M168" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="R168" t="s">
         <v>55</v>
@@ -11830,7 +11848,7 @@
         <f>B169&amp;"."&amp;E169</f>
       </c>
       <c r="B169" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C169" s="0">
         <f>VLOOKUP(B169,Таблицы!C:D,2,0)</f>
@@ -11839,13 +11857,13 @@
         <v>60</v>
       </c>
       <c r="E169" t="s" s="0">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F169" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G169" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H169" t="s">
         <v>65</v>
@@ -11857,13 +11875,13 @@
         <v>67</v>
       </c>
       <c r="K169" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L169" t="s">
         <v>55</v>
       </c>
       <c r="M169" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="R169" t="s">
         <v>55</v>
@@ -11877,7 +11895,7 @@
         <f>B170&amp;"."&amp;E170</f>
       </c>
       <c r="B170" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C170" s="0">
         <f>VLOOKUP(B170,Таблицы!C:D,2,0)</f>
@@ -11886,13 +11904,13 @@
         <v>60</v>
       </c>
       <c r="E170" t="s" s="0">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="F170" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="G170" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H170" t="s">
         <v>65</v>
@@ -11904,13 +11922,13 @@
         <v>67</v>
       </c>
       <c r="K170" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L170" t="s">
         <v>55</v>
       </c>
       <c r="M170" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="R170" t="s">
         <v>55</v>
@@ -11924,7 +11942,7 @@
         <f>B171&amp;"."&amp;E171</f>
       </c>
       <c r="B171" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C171" s="0">
         <f>VLOOKUP(B171,Таблицы!C:D,2,0)</f>
@@ -11933,13 +11951,13 @@
         <v>60</v>
       </c>
       <c r="E171" t="s" s="0">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F171" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="G171" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H171" t="s">
         <v>65</v>
@@ -11957,7 +11975,7 @@
         <v>55</v>
       </c>
       <c r="M171" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="R171" t="s">
         <v>55</v>
@@ -11971,7 +11989,7 @@
         <f>B172&amp;"."&amp;E172</f>
       </c>
       <c r="B172" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C172" s="0">
         <f>VLOOKUP(B172,Таблицы!C:D,2,0)</f>
@@ -11980,13 +11998,13 @@
         <v>60</v>
       </c>
       <c r="E172" t="s" s="0">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="F172" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="G172" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H172" t="s">
         <v>65</v>
@@ -12004,7 +12022,7 @@
         <v>55</v>
       </c>
       <c r="M172" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="R172" t="s">
         <v>55</v>
@@ -12018,7 +12036,7 @@
         <f>B173&amp;"."&amp;E173</f>
       </c>
       <c r="B173" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C173" s="0">
         <f>VLOOKUP(B173,Таблицы!C:D,2,0)</f>
@@ -12027,13 +12045,13 @@
         <v>60</v>
       </c>
       <c r="E173" t="s" s="0">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="F173" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="G173" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H173" t="s">
         <v>65</v>
@@ -12045,13 +12063,13 @@
         <v>67</v>
       </c>
       <c r="K173" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L173" t="s">
         <v>55</v>
       </c>
       <c r="M173" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="R173" t="s">
         <v>55</v>
@@ -12065,7 +12083,7 @@
         <f>B174&amp;"."&amp;E174</f>
       </c>
       <c r="B174" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C174" s="0">
         <f>VLOOKUP(B174,Таблицы!C:D,2,0)</f>
@@ -12074,13 +12092,13 @@
         <v>60</v>
       </c>
       <c r="E174" t="s" s="0">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="F174" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="G174" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H174" t="s">
         <v>65</v>
@@ -12098,7 +12116,7 @@
         <v>55</v>
       </c>
       <c r="M174" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="R174" t="s">
         <v>55</v>
@@ -12112,7 +12130,7 @@
         <f>B175&amp;"."&amp;E175</f>
       </c>
       <c r="B175" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C175" s="0">
         <f>VLOOKUP(B175,Таблицы!C:D,2,0)</f>
@@ -12121,13 +12139,13 @@
         <v>60</v>
       </c>
       <c r="E175" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="F175" t="s">
+        <v>359</v>
+      </c>
+      <c r="G175" t="s">
         <v>355</v>
-      </c>
-      <c r="F175" t="s">
-        <v>356</v>
-      </c>
-      <c r="G175" t="s">
-        <v>352</v>
       </c>
       <c r="H175" t="s">
         <v>65</v>
@@ -12145,7 +12163,7 @@
         <v>55</v>
       </c>
       <c r="M175" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="R175" t="s">
         <v>55</v>
@@ -12159,7 +12177,7 @@
         <f>B176&amp;"."&amp;E176</f>
       </c>
       <c r="B176" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C176" s="0">
         <f>VLOOKUP(B176,Таблицы!C:D,2,0)</f>
@@ -12168,13 +12186,13 @@
         <v>60</v>
       </c>
       <c r="E176" t="s" s="0">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F176" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G176" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H176" t="s">
         <v>65</v>
@@ -12186,13 +12204,13 @@
         <v>67</v>
       </c>
       <c r="K176" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L176" t="s">
         <v>55</v>
       </c>
       <c r="M176" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R176" t="s">
         <v>55</v>
@@ -12206,7 +12224,7 @@
         <f>B177&amp;"."&amp;E177</f>
       </c>
       <c r="B177" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C177" s="0">
         <f>VLOOKUP(B177,Таблицы!C:D,2,0)</f>
@@ -12215,13 +12233,13 @@
         <v>60</v>
       </c>
       <c r="E177" t="s" s="0">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F177" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G177" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H177" t="s">
         <v>65</v>
@@ -12233,13 +12251,13 @@
         <v>67</v>
       </c>
       <c r="K177" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L177" t="s">
         <v>55</v>
       </c>
       <c r="M177" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="R177" t="s">
         <v>55</v>
@@ -12253,7 +12271,7 @@
         <f>B178&amp;"."&amp;E178</f>
       </c>
       <c r="B178" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C178" s="0">
         <f>VLOOKUP(B178,Таблицы!C:D,2,0)</f>
@@ -12262,13 +12280,13 @@
         <v>60</v>
       </c>
       <c r="E178" t="s" s="0">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="F178" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="G178" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H178" t="s">
         <v>65</v>
@@ -12280,13 +12298,13 @@
         <v>67</v>
       </c>
       <c r="K178" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L178" t="s">
         <v>55</v>
       </c>
       <c r="M178" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="Q178" t="s">
         <v>69</v>
@@ -12303,7 +12321,7 @@
         <f>B179&amp;"."&amp;E179</f>
       </c>
       <c r="B179" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C179" s="0">
         <f>VLOOKUP(B179,Таблицы!C:D,2,0)</f>
@@ -12312,31 +12330,31 @@
         <v>60</v>
       </c>
       <c r="E179" t="s" s="0">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="F179" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G179" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H179" t="s">
         <v>65</v>
       </c>
       <c r="I179" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J179" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K179" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L179" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M179" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="Q179" t="s">
         <v>69</v>
@@ -12353,7 +12371,7 @@
         <f>B180&amp;"."&amp;E180</f>
       </c>
       <c r="B180" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C180" s="0">
         <f>VLOOKUP(B180,Таблицы!C:D,2,0)</f>
@@ -12362,13 +12380,13 @@
         <v>60</v>
       </c>
       <c r="E180" t="s" s="0">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="F180" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="G180" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H180" t="s">
         <v>65</v>
@@ -12403,7 +12421,7 @@
         <f>B181&amp;"."&amp;E181</f>
       </c>
       <c r="B181" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C181" s="0">
         <f>VLOOKUP(B181,Таблицы!C:D,2,0)</f>
@@ -12412,31 +12430,31 @@
         <v>60</v>
       </c>
       <c r="E181" t="s" s="0">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="F181" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G181" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="H181" t="s">
         <v>65</v>
       </c>
       <c r="I181" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J181" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K181" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L181" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M181" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="Q181" t="s">
         <v>69</v>
@@ -12453,7 +12471,7 @@
         <f>B182&amp;"."&amp;E182</f>
       </c>
       <c r="B182" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C182" s="0">
         <f>VLOOKUP(B182,Таблицы!C:D,2,0)</f>
@@ -12462,13 +12480,13 @@
         <v>60</v>
       </c>
       <c r="E182" t="s" s="0">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="F182" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="G182" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="H182" t="s">
         <v>65</v>
@@ -12503,7 +12521,7 @@
         <f>B183&amp;"."&amp;E183</f>
       </c>
       <c r="B183" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C183" s="0">
         <f>VLOOKUP(B183,Таблицы!C:D,2,0)</f>
@@ -12512,31 +12530,31 @@
         <v>60</v>
       </c>
       <c r="E183" t="s" s="0">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="F183" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G183" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H183" t="s">
         <v>65</v>
       </c>
       <c r="I183" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J183" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K183" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L183" t="s">
         <v>93</v>
       </c>
       <c r="M183" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="R183" t="s">
         <v>55</v>
@@ -12550,7 +12568,7 @@
         <f>B184&amp;"."&amp;E184</f>
       </c>
       <c r="B184" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C184" s="0">
         <f>VLOOKUP(B184,Таблицы!C:D,2,0)</f>
@@ -12559,13 +12577,13 @@
         <v>60</v>
       </c>
       <c r="E184" t="s" s="0">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F184" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G184" t="s">
-        <v>177</v>
+        <v>541</v>
       </c>
       <c r="H184" t="s">
         <v>65</v>
@@ -12577,13 +12595,13 @@
         <v>67</v>
       </c>
       <c r="K184" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L184" t="s">
         <v>55</v>
       </c>
       <c r="M184" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="R184" t="s">
         <v>55</v>
@@ -12597,7 +12615,7 @@
         <f>B185&amp;"."&amp;E185</f>
       </c>
       <c r="B185" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C185" s="0">
         <f>VLOOKUP(B185,Таблицы!C:D,2,0)</f>
@@ -12606,13 +12624,13 @@
         <v>60</v>
       </c>
       <c r="E185" t="s" s="0">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F185" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G185" t="s">
-        <v>177</v>
+        <v>542</v>
       </c>
       <c r="H185" t="s">
         <v>65</v>
@@ -12624,13 +12642,13 @@
         <v>67</v>
       </c>
       <c r="K185" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L185" t="s">
         <v>55</v>
       </c>
       <c r="M185" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="R185" t="s">
         <v>55</v>
@@ -12644,7 +12662,7 @@
         <f>B186&amp;"."&amp;E186</f>
       </c>
       <c r="B186" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C186" s="0">
         <f>VLOOKUP(B186,Таблицы!C:D,2,0)</f>
@@ -12694,7 +12712,7 @@
         <f>B187&amp;"."&amp;E187</f>
       </c>
       <c r="B187" t="s" s="0">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C187" s="0">
         <f>VLOOKUP(B187,Таблицы!C:D,2,0)</f>
@@ -12703,31 +12721,31 @@
         <v>60</v>
       </c>
       <c r="E187" t="s" s="0">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="F187" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="G187" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="H187" t="s">
         <v>65</v>
       </c>
       <c r="I187" t="s">
+        <v>483</v>
+      </c>
+      <c r="J187" t="s">
+        <v>484</v>
+      </c>
+      <c r="K187" t="s">
+        <v>55</v>
+      </c>
+      <c r="L187" t="s">
+        <v>55</v>
+      </c>
+      <c r="M187" t="s">
         <v>479</v>
-      </c>
-      <c r="J187" t="s">
-        <v>480</v>
-      </c>
-      <c r="K187" t="s">
-        <v>55</v>
-      </c>
-      <c r="L187" t="s">
-        <v>55</v>
-      </c>
-      <c r="M187" t="s">
-        <v>475</v>
       </c>
       <c r="P187" t="s">
         <v>69</v>
@@ -12747,7 +12765,7 @@
         <f>B188&amp;"."&amp;E188</f>
       </c>
       <c r="B188" t="s" s="0">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C188" s="0">
         <f>VLOOKUP(B188,Таблицы!C:D,2,0)</f>
@@ -12756,13 +12774,13 @@
         <v>60</v>
       </c>
       <c r="E188" t="s" s="0">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F188" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G188" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H188" t="s">
         <v>65</v>
@@ -12774,13 +12792,13 @@
         <v>67</v>
       </c>
       <c r="K188" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L188" t="s">
         <v>55</v>
       </c>
       <c r="M188" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P188" t="s">
         <v>69</v>
@@ -12800,7 +12818,7 @@
         <f>B189&amp;"."&amp;E189</f>
       </c>
       <c r="B189" t="s" s="0">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C189" s="0">
         <f>VLOOKUP(B189,Таблицы!C:D,2,0)</f>
@@ -12809,13 +12827,13 @@
         <v>60</v>
       </c>
       <c r="E189" t="s" s="0">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F189" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G189" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H189" t="s">
         <v>65</v>
@@ -12833,7 +12851,7 @@
         <v>55</v>
       </c>
       <c r="M189" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P189" t="s">
         <v>69</v>
@@ -12889,16 +12907,16 @@
         <f>B2&amp;"_"&amp;D2</f>
       </c>
       <c r="B2" t="s" s="0">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C2" s="0">
         <f>VLOOKUP(B2,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D2" t="s" s="0">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>69</v>
@@ -12912,16 +12930,16 @@
         <f>B3&amp;"_"&amp;D3</f>
       </c>
       <c r="B3" t="s" s="0">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C3" s="0">
         <f>VLOOKUP(B3,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D3" t="s" s="0">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>69</v>
@@ -12935,16 +12953,16 @@
         <f>B4&amp;"_"&amp;D4</f>
       </c>
       <c r="B4" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C4" s="0">
         <f>VLOOKUP(B4,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D4" t="s" s="0">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>69</v>
@@ -12991,7 +13009,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B2" s="0">
         <f>VLOOKUP(A2,Индексы!A:E,2,0)</f>
@@ -13006,7 +13024,7 @@
         <f>VLOOKUP(A2,Индексы!A:E,5,0)</f>
       </c>
       <c r="F2" t="s" s="0">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G2" s="0">
         <f>VLOOKUP(B2&amp;"."&amp;F2,'Поля таблиц'!A:G,7,0)</f>
@@ -13014,7 +13032,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B3" s="0">
         <f>VLOOKUP(A3,Индексы!A:E,2,0)</f>
@@ -13029,7 +13047,7 @@
         <f>VLOOKUP(A3,Индексы!A:E,5,0)</f>
       </c>
       <c r="F3" t="s" s="0">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G3" s="0">
         <f>VLOOKUP(B3&amp;"."&amp;F3,'Поля таблиц'!A:G,7,0)</f>
@@ -13037,7 +13055,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B4" s="0">
         <f>VLOOKUP(A4,Индексы!A:E,2,0)</f>
@@ -13052,7 +13070,7 @@
         <f>VLOOKUP(A4,Индексы!A:E,5,0)</f>
       </c>
       <c r="F4" t="s" s="0">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G4" s="0">
         <f>VLOOKUP(B4&amp;"."&amp;F4,'Поля таблиц'!A:G,7,0)</f>
@@ -13060,7 +13078,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B5" s="0">
         <f>VLOOKUP(A5,Индексы!A:E,2,0)</f>
@@ -13075,7 +13093,7 @@
         <f>VLOOKUP(A5,Индексы!A:E,5,0)</f>
       </c>
       <c r="F5" t="s" s="0">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G5" s="0">
         <f>VLOOKUP(B5&amp;"."&amp;F5,'Поля таблиц'!A:G,7,0)</f>
@@ -13083,7 +13101,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B6" s="0">
         <f>VLOOKUP(A6,Индексы!A:E,2,0)</f>
@@ -13098,7 +13116,7 @@
         <f>VLOOKUP(A6,Индексы!A:E,5,0)</f>
       </c>
       <c r="F6" t="s" s="0">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="G6" s="0">
         <f>VLOOKUP(B6&amp;"."&amp;F6,'Поля таблиц'!A:G,7,0)</f>
@@ -13106,7 +13124,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B7" s="0">
         <f>VLOOKUP(A7,Индексы!A:E,2,0)</f>
@@ -13121,7 +13139,7 @@
         <f>VLOOKUP(A7,Индексы!A:E,5,0)</f>
       </c>
       <c r="F7" t="s" s="0">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G7" s="0">
         <f>VLOOKUP(B7&amp;"."&amp;F7,'Поля таблиц'!A:G,7,0)</f>
@@ -13129,7 +13147,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B8" s="0">
         <f>VLOOKUP(A8,Индексы!A:E,2,0)</f>
@@ -13144,7 +13162,7 @@
         <f>VLOOKUP(A8,Индексы!A:E,5,0)</f>
       </c>
       <c r="F8" t="s" s="0">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G8" s="0">
         <f>VLOOKUP(B8&amp;"."&amp;F8,'Поля таблиц'!A:G,7,0)</f>
@@ -13247,7 +13265,7 @@
         <v>138</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>107</v>
@@ -13282,7 +13300,7 @@
         <v>140</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>107</v>
@@ -13314,10 +13332,10 @@
         <f>VLOOKUP(B5,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D5" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>107</v>
@@ -13343,7 +13361,7 @@
         <f>B6&amp;"_"&amp;D6</f>
       </c>
       <c r="B6" t="s" s="0">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C6" s="0">
         <f>VLOOKUP(B6,Таблицы!C:D,2,0)</f>
@@ -13378,22 +13396,22 @@
         <f>B7&amp;"_"&amp;D7</f>
       </c>
       <c r="B7" t="s" s="0">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C7" s="0">
         <f>VLOOKUP(B7,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D7" t="s" s="0">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H7" s="0">
         <f>VLOOKUP(G7,Таблицы!C:D,2,0)</f>
@@ -13413,22 +13431,22 @@
         <f>B8&amp;"_"&amp;D8</f>
       </c>
       <c r="B8" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C8" s="0">
         <f>VLOOKUP(B8,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D8" t="s" s="0">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H8" s="0">
         <f>VLOOKUP(G8,Таблицы!C:D,2,0)</f>
@@ -13448,22 +13466,22 @@
         <f>B9&amp;"_"&amp;D9</f>
       </c>
       <c r="B9" t="s" s="0">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C9" s="0">
         <f>VLOOKUP(B9,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D9" t="s" s="0">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H9" s="0">
         <f>VLOOKUP(G9,Таблицы!C:D,2,0)</f>
@@ -13483,22 +13501,22 @@
         <f>B10&amp;"_"&amp;D10</f>
       </c>
       <c r="B10" t="s" s="0">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C10" s="0">
         <f>VLOOKUP(B10,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D10" t="s" s="0">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F10" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H10" s="0">
         <f>VLOOKUP(G10,Таблицы!C:D,2,0)</f>
@@ -13518,22 +13536,22 @@
         <f>B11&amp;"_"&amp;D11</f>
       </c>
       <c r="B11" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C11" s="0">
         <f>VLOOKUP(B11,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D11" t="s" s="0">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F11" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H11" s="0">
         <f>VLOOKUP(G11,Таблицы!C:D,2,0)</f>
@@ -13553,22 +13571,22 @@
         <f>B12&amp;"_"&amp;D12</f>
       </c>
       <c r="B12" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C12" s="0">
         <f>VLOOKUP(B12,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D12" t="s" s="0">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F12" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H12" s="0">
         <f>VLOOKUP(G12,Таблицы!C:D,2,0)</f>
@@ -13588,22 +13606,22 @@
         <f>B13&amp;"_"&amp;D13</f>
       </c>
       <c r="B13" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C13" s="0">
         <f>VLOOKUP(B13,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D13" t="s" s="0">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F13" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H13" s="0">
         <f>VLOOKUP(G13,Таблицы!C:D,2,0)</f>
@@ -13623,22 +13641,22 @@
         <f>B14&amp;"_"&amp;D14</f>
       </c>
       <c r="B14" t="s" s="0">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C14" s="0">
         <f>VLOOKUP(B14,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D14" t="s" s="0">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H14" s="0">
         <f>VLOOKUP(G14,Таблицы!C:D,2,0)</f>
@@ -13658,22 +13676,22 @@
         <f>B15&amp;"_"&amp;D15</f>
       </c>
       <c r="B15" t="s" s="0">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C15" s="0">
         <f>VLOOKUP(B15,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D15" t="s" s="0">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H15" s="0">
         <f>VLOOKUP(G15,Таблицы!C:D,2,0)</f>
@@ -13693,22 +13711,22 @@
         <f>B16&amp;"_"&amp;D16</f>
       </c>
       <c r="B16" t="s" s="0">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C16" s="0">
         <f>VLOOKUP(B16,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D16" t="s" s="0">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F16" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H16" s="0">
         <f>VLOOKUP(G16,Таблицы!C:D,2,0)</f>
@@ -13728,22 +13746,22 @@
         <f>B17&amp;"_"&amp;D17</f>
       </c>
       <c r="B17" t="s" s="0">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C17" s="0">
         <f>VLOOKUP(B17,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D17" t="s" s="0">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F17" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H17" s="0">
         <f>VLOOKUP(G17,Таблицы!C:D,2,0)</f>
@@ -13763,22 +13781,22 @@
         <f>B18&amp;"_"&amp;D18</f>
       </c>
       <c r="B18" t="s" s="0">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C18" s="0">
         <f>VLOOKUP(B18,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D18" t="s" s="0">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F18" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H18" s="0">
         <f>VLOOKUP(G18,Таблицы!C:D,2,0)</f>
@@ -13798,22 +13816,22 @@
         <f>B19&amp;"_"&amp;D19</f>
       </c>
       <c r="B19" t="s" s="0">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C19" s="0">
         <f>VLOOKUP(B19,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D19" t="s" s="0">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F19" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H19" s="0">
         <f>VLOOKUP(G19,Таблицы!C:D,2,0)</f>
@@ -13833,16 +13851,16 @@
         <f>B20&amp;"_"&amp;D20</f>
       </c>
       <c r="B20" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C20" s="0">
         <f>VLOOKUP(B20,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D20" t="s" s="0">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F20" t="s" s="0">
         <v>107</v>
@@ -13868,7 +13886,7 @@
         <f>B21&amp;"_"&amp;D21</f>
       </c>
       <c r="B21" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C21" s="0">
         <f>VLOOKUP(B21,Таблицы!C:D,2,0)</f>
@@ -13877,7 +13895,7 @@
         <v>101</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F21" t="s" s="0">
         <v>107</v>
@@ -13903,16 +13921,16 @@
         <f>B22&amp;"_"&amp;D22</f>
       </c>
       <c r="B22" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C22" s="0">
         <f>VLOOKUP(B22,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D22" t="s" s="0">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F22" t="s" s="0">
         <v>107</v>
@@ -13938,22 +13956,22 @@
         <f>B23&amp;"_"&amp;D23</f>
       </c>
       <c r="B23" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C23" s="0">
         <f>VLOOKUP(B23,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D23" t="s" s="0">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F23" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H23" s="0">
         <f>VLOOKUP(G23,Таблицы!C:D,2,0)</f>
@@ -13973,22 +13991,22 @@
         <f>B24&amp;"_"&amp;D24</f>
       </c>
       <c r="B24" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C24" s="0">
         <f>VLOOKUP(B24,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D24" t="s" s="0">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F24" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H24" s="0">
         <f>VLOOKUP(G24,Таблицы!C:D,2,0)</f>
@@ -14008,22 +14026,22 @@
         <f>B25&amp;"_"&amp;D25</f>
       </c>
       <c r="B25" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C25" s="0">
         <f>VLOOKUP(B25,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D25" t="s" s="0">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F25" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H25" s="0">
         <f>VLOOKUP(G25,Таблицы!C:D,2,0)</f>
@@ -14043,22 +14061,22 @@
         <f>B26&amp;"_"&amp;D26</f>
       </c>
       <c r="B26" t="s" s="0">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C26" s="0">
         <f>VLOOKUP(B26,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D26" t="s" s="0">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F26" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H26" s="0">
         <f>VLOOKUP(G26,Таблицы!C:D,2,0)</f>
@@ -14078,22 +14096,22 @@
         <f>B27&amp;"_"&amp;D27</f>
       </c>
       <c r="B27" t="s" s="0">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C27" s="0">
         <f>VLOOKUP(B27,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D27" t="s" s="0">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F27" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H27" s="0">
         <f>VLOOKUP(G27,Таблицы!C:D,2,0)</f>
@@ -14113,22 +14131,22 @@
         <f>B28&amp;"_"&amp;D28</f>
       </c>
       <c r="B28" t="s" s="0">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C28" s="0">
         <f>VLOOKUP(B28,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D28" t="s" s="0">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F28" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H28" s="0">
         <f>VLOOKUP(G28,Таблицы!C:D,2,0)</f>
@@ -14148,22 +14166,22 @@
         <f>B29&amp;"_"&amp;D29</f>
       </c>
       <c r="B29" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C29" s="0">
         <f>VLOOKUP(B29,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D29" t="s" s="0">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F29" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H29" s="0">
         <f>VLOOKUP(G29,Таблицы!C:D,2,0)</f>
@@ -14183,22 +14201,22 @@
         <f>B30&amp;"_"&amp;D30</f>
       </c>
       <c r="B30" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C30" s="0">
         <f>VLOOKUP(B30,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D30" t="s" s="0">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F30" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H30" s="0">
         <f>VLOOKUP(G30,Таблицы!C:D,2,0)</f>
@@ -14218,22 +14236,22 @@
         <f>B31&amp;"_"&amp;D31</f>
       </c>
       <c r="B31" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C31" s="0">
         <f>VLOOKUP(B31,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D31" t="s" s="0">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="F31" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H31" s="0">
         <f>VLOOKUP(G31,Таблицы!C:D,2,0)</f>
@@ -14253,22 +14271,22 @@
         <f>B32&amp;"_"&amp;D32</f>
       </c>
       <c r="B32" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C32" s="0">
         <f>VLOOKUP(B32,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D32" t="s" s="0">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F32" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H32" s="0">
         <f>VLOOKUP(G32,Таблицы!C:D,2,0)</f>
@@ -14288,22 +14306,22 @@
         <f>B33&amp;"_"&amp;D33</f>
       </c>
       <c r="B33" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C33" s="0">
         <f>VLOOKUP(B33,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D33" t="s" s="0">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F33" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G33" t="s" s="0">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H33" s="0">
         <f>VLOOKUP(G33,Таблицы!C:D,2,0)</f>
@@ -14323,22 +14341,22 @@
         <f>B34&amp;"_"&amp;D34</f>
       </c>
       <c r="B34" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C34" s="0">
         <f>VLOOKUP(B34,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D34" t="s" s="0">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="F34" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G34" t="s" s="0">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H34" s="0">
         <f>VLOOKUP(G34,Таблицы!C:D,2,0)</f>
@@ -14358,22 +14376,22 @@
         <f>B35&amp;"_"&amp;D35</f>
       </c>
       <c r="B35" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C35" s="0">
         <f>VLOOKUP(B35,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D35" t="s" s="0">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="F35" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G35" t="s" s="0">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H35" s="0">
         <f>VLOOKUP(G35,Таблицы!C:D,2,0)</f>
@@ -14393,22 +14411,22 @@
         <f>B36&amp;"_"&amp;D36</f>
       </c>
       <c r="B36" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C36" s="0">
         <f>VLOOKUP(B36,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D36" t="s" s="0">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="F36" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G36" t="s" s="0">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H36" s="0">
         <f>VLOOKUP(G36,Таблицы!C:D,2,0)</f>
@@ -14428,22 +14446,22 @@
         <f>B37&amp;"_"&amp;D37</f>
       </c>
       <c r="B37" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C37" s="0">
         <f>VLOOKUP(B37,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D37" t="s" s="0">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="F37" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G37" t="s" s="0">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H37" s="0">
         <f>VLOOKUP(G37,Таблицы!C:D,2,0)</f>
@@ -14463,22 +14481,22 @@
         <f>B38&amp;"_"&amp;D38</f>
       </c>
       <c r="B38" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C38" s="0">
         <f>VLOOKUP(B38,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D38" t="s" s="0">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F38" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G38" t="s" s="0">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H38" s="0">
         <f>VLOOKUP(G38,Таблицы!C:D,2,0)</f>
@@ -14498,22 +14516,22 @@
         <f>B39&amp;"_"&amp;D39</f>
       </c>
       <c r="B39" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C39" s="0">
         <f>VLOOKUP(B39,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D39" t="s" s="0">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F39" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G39" t="s" s="0">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H39" s="0">
         <f>VLOOKUP(G39,Таблицы!C:D,2,0)</f>
@@ -14533,22 +14551,22 @@
         <f>B40&amp;"_"&amp;D40</f>
       </c>
       <c r="B40" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C40" s="0">
         <f>VLOOKUP(B40,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D40" t="s" s="0">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="F40" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G40" t="s" s="0">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H40" s="0">
         <f>VLOOKUP(G40,Таблицы!C:D,2,0)</f>
@@ -14568,22 +14586,22 @@
         <f>B41&amp;"_"&amp;D41</f>
       </c>
       <c r="B41" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C41" s="0">
         <f>VLOOKUP(B41,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D41" t="s" s="0">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="F41" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G41" t="s" s="0">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H41" s="0">
         <f>VLOOKUP(G41,Таблицы!C:D,2,0)</f>
@@ -14603,16 +14621,16 @@
         <f>B42&amp;"_"&amp;D42</f>
       </c>
       <c r="B42" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C42" s="0">
         <f>VLOOKUP(B42,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D42" t="s" s="0">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F42" t="s" s="0">
         <v>107</v>
@@ -14638,16 +14656,16 @@
         <f>B43&amp;"_"&amp;D43</f>
       </c>
       <c r="B43" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C43" s="0">
         <f>VLOOKUP(B43,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D43" t="s" s="0">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F43" t="s" s="0">
         <v>107</v>
@@ -14673,22 +14691,22 @@
         <f>B44&amp;"_"&amp;D44</f>
       </c>
       <c r="B44" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C44" s="0">
         <f>VLOOKUP(B44,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D44" t="s" s="0">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F44" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G44" t="s" s="0">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H44" s="0">
         <f>VLOOKUP(G44,Таблицы!C:D,2,0)</f>
@@ -14708,22 +14726,22 @@
         <f>B45&amp;"_"&amp;D45</f>
       </c>
       <c r="B45" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C45" s="0">
         <f>VLOOKUP(B45,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D45" t="s" s="0">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F45" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H45" s="0">
         <f>VLOOKUP(G45,Таблицы!C:D,2,0)</f>
@@ -14743,22 +14761,22 @@
         <f>B46&amp;"_"&amp;D46</f>
       </c>
       <c r="B46" t="s" s="0">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C46" s="0">
         <f>VLOOKUP(B46,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D46" t="s" s="0">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="F46" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G46" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H46" s="0">
         <f>VLOOKUP(G46,Таблицы!C:D,2,0)</f>
@@ -14778,22 +14796,22 @@
         <f>B47&amp;"_"&amp;D47</f>
       </c>
       <c r="B47" t="s" s="0">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C47" s="0">
         <f>VLOOKUP(B47,Таблицы!C:D,2,0)</f>
       </c>
       <c r="D47" t="s" s="0">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="F47" t="s" s="0">
         <v>107</v>
       </c>
       <c r="G47" t="s" s="0">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H47" s="0">
         <f>VLOOKUP(G47,Таблицы!C:D,2,0)</f>
@@ -14893,7 +14911,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B3" s="0">
         <f>VLOOKUP(A3,Отношения!A:E,2,0)</f>
@@ -14928,7 +14946,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B4" s="0">
         <f>VLOOKUP(A4,Отношения!A:E,2,0)</f>
@@ -14963,7 +14981,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B5" s="0">
         <f>VLOOKUP(A5,Отношения!A:E,2,0)</f>
@@ -14984,7 +15002,7 @@
         <f>VLOOKUP(A5,Отношения!A:E,5,0)</f>
       </c>
       <c r="H5" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I5" s="0">
         <f>VLOOKUP(B5&amp;"."&amp;H5,'Поля таблиц'!A:G,7,0)</f>
@@ -14998,7 +15016,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B6" s="0">
         <f>VLOOKUP(A6,Отношения!A:E,2,0)</f>
@@ -15033,7 +15051,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B7" s="0">
         <f>VLOOKUP(A7,Отношения!A:E,2,0)</f>
@@ -15042,7 +15060,7 @@
         <f>VLOOKUP(A7,Отношения!A:E,3,0)</f>
       </c>
       <c r="D7" t="s" s="0">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E7" s="0">
         <f>VLOOKUP(D7,Таблицы!C:D,2,0)</f>
@@ -15054,7 +15072,7 @@
         <f>VLOOKUP(A7,Отношения!A:E,5,0)</f>
       </c>
       <c r="H7" t="s" s="0">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I7" s="0">
         <f>VLOOKUP(B7&amp;"."&amp;H7,'Поля таблиц'!A:G,7,0)</f>
@@ -15068,7 +15086,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B8" s="0">
         <f>VLOOKUP(A8,Отношения!A:E,2,0)</f>
@@ -15077,7 +15095,7 @@
         <f>VLOOKUP(A8,Отношения!A:E,3,0)</f>
       </c>
       <c r="D8" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E8" s="0">
         <f>VLOOKUP(D8,Таблицы!C:D,2,0)</f>
@@ -15089,7 +15107,7 @@
         <f>VLOOKUP(A8,Отношения!A:E,5,0)</f>
       </c>
       <c r="H8" t="s" s="0">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I8" s="0">
         <f>VLOOKUP(B8&amp;"."&amp;H8,'Поля таблиц'!A:G,7,0)</f>
@@ -15103,7 +15121,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B9" s="0">
         <f>VLOOKUP(A9,Отношения!A:E,2,0)</f>
@@ -15112,7 +15130,7 @@
         <f>VLOOKUP(A9,Отношения!A:E,3,0)</f>
       </c>
       <c r="D9" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E9" s="0">
         <f>VLOOKUP(D9,Таблицы!C:D,2,0)</f>
@@ -15124,7 +15142,7 @@
         <f>VLOOKUP(A9,Отношения!A:E,5,0)</f>
       </c>
       <c r="H9" t="s" s="0">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I9" s="0">
         <f>VLOOKUP(B9&amp;"."&amp;H9,'Поля таблиц'!A:G,7,0)</f>
@@ -15138,7 +15156,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B10" s="0">
         <f>VLOOKUP(A10,Отношения!A:E,2,0)</f>
@@ -15147,7 +15165,7 @@
         <f>VLOOKUP(A10,Отношения!A:E,3,0)</f>
       </c>
       <c r="D10" t="s" s="0">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E10" s="0">
         <f>VLOOKUP(D10,Таблицы!C:D,2,0)</f>
@@ -15159,7 +15177,7 @@
         <f>VLOOKUP(A10,Отношения!A:E,5,0)</f>
       </c>
       <c r="H10" t="s" s="0">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I10" s="0">
         <f>VLOOKUP(B10&amp;"."&amp;H10,'Поля таблиц'!A:G,7,0)</f>
@@ -15173,7 +15191,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B11" s="0">
         <f>VLOOKUP(A11,Отношения!A:E,2,0)</f>
@@ -15182,7 +15200,7 @@
         <f>VLOOKUP(A11,Отношения!A:E,3,0)</f>
       </c>
       <c r="D11" t="s" s="0">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E11" s="0">
         <f>VLOOKUP(D11,Таблицы!C:D,2,0)</f>
@@ -15194,7 +15212,7 @@
         <f>VLOOKUP(A11,Отношения!A:E,5,0)</f>
       </c>
       <c r="H11" t="s" s="0">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I11" s="0">
         <f>VLOOKUP(B11&amp;"."&amp;H11,'Поля таблиц'!A:G,7,0)</f>
@@ -15208,7 +15226,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B12" s="0">
         <f>VLOOKUP(A12,Отношения!A:E,2,0)</f>
@@ -15217,7 +15235,7 @@
         <f>VLOOKUP(A12,Отношения!A:E,3,0)</f>
       </c>
       <c r="D12" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E12" s="0">
         <f>VLOOKUP(D12,Таблицы!C:D,2,0)</f>
@@ -15229,13 +15247,13 @@
         <f>VLOOKUP(A12,Отношения!A:E,5,0)</f>
       </c>
       <c r="H12" t="s" s="0">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I12" s="0">
         <f>VLOOKUP(B12&amp;"."&amp;H12,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J12" t="s" s="0">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K12" s="0">
         <f>VLOOKUP(D12&amp;"."&amp;J12,'Поля таблиц'!A:G,7,0)</f>
@@ -15243,7 +15261,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B13" s="0">
         <f>VLOOKUP(A13,Отношения!A:E,2,0)</f>
@@ -15252,7 +15270,7 @@
         <f>VLOOKUP(A13,Отношения!A:E,3,0)</f>
       </c>
       <c r="D13" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E13" s="0">
         <f>VLOOKUP(D12,Таблицы!C:D,2,0)</f>
@@ -15264,13 +15282,13 @@
         <f>VLOOKUP(A13,Отношения!A:E,5,0)</f>
       </c>
       <c r="H13" t="s" s="0">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I13" s="0">
         <f>VLOOKUP(B13&amp;"."&amp;H13,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J13" t="s" s="0">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K13" s="0">
         <f>VLOOKUP(D13&amp;"."&amp;J13,'Поля таблиц'!A:G,7,0)</f>
@@ -15278,7 +15296,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B14" s="0">
         <f>VLOOKUP(A14,Отношения!A:E,2,0)</f>
@@ -15287,7 +15305,7 @@
         <f>VLOOKUP(A14,Отношения!A:E,3,0)</f>
       </c>
       <c r="D14" t="s" s="0">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E14" s="0">
         <f>VLOOKUP(D13,Таблицы!C:D,2,0)</f>
@@ -15299,7 +15317,7 @@
         <f>VLOOKUP(A14,Отношения!A:E,5,0)</f>
       </c>
       <c r="H14" t="s" s="0">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I14" s="0">
         <f>VLOOKUP(B14&amp;"."&amp;H14,'Поля таблиц'!A:G,7,0)</f>
@@ -15313,7 +15331,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B15" s="0">
         <f>VLOOKUP(A15,Отношения!A:E,2,0)</f>
@@ -15322,7 +15340,7 @@
         <f>VLOOKUP(A15,Отношения!A:E,3,0)</f>
       </c>
       <c r="D15" t="s" s="0">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E15" s="0">
         <f>VLOOKUP(D14,Таблицы!C:D,2,0)</f>
@@ -15334,7 +15352,7 @@
         <f>VLOOKUP(A15,Отношения!A:E,5,0)</f>
       </c>
       <c r="H15" t="s" s="0">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="I15" s="0">
         <f>VLOOKUP(B15&amp;"."&amp;H15,'Поля таблиц'!A:G,7,0)</f>
@@ -15348,7 +15366,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B16" s="0">
         <f>VLOOKUP(A16,Отношения!A:E,2,0)</f>
@@ -15357,7 +15375,7 @@
         <f>VLOOKUP(A16,Отношения!A:E,3,0)</f>
       </c>
       <c r="D16" t="s" s="0">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E16" s="0">
         <f>VLOOKUP(D15,Таблицы!C:D,2,0)</f>
@@ -15369,7 +15387,7 @@
         <f>VLOOKUP(A16,Отношения!A:E,5,0)</f>
       </c>
       <c r="H16" t="s" s="0">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="I16" s="0">
         <f>VLOOKUP(B16&amp;"."&amp;H16,'Поля таблиц'!A:G,7,0)</f>
@@ -15383,7 +15401,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B17" s="0">
         <f>VLOOKUP(A17,Отношения!A:E,2,0)</f>
@@ -15392,7 +15410,7 @@
         <f>VLOOKUP(A17,Отношения!A:E,3,0)</f>
       </c>
       <c r="D17" t="s" s="0">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E17" s="0">
         <f>VLOOKUP(D16,Таблицы!C:D,2,0)</f>
@@ -15404,7 +15422,7 @@
         <f>VLOOKUP(A17,Отношения!A:E,5,0)</f>
       </c>
       <c r="H17" t="s" s="0">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I17" s="0">
         <f>VLOOKUP(B17&amp;"."&amp;H17,'Поля таблиц'!A:G,7,0)</f>
@@ -15418,7 +15436,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B18" s="0">
         <f>VLOOKUP(A18,Отношения!A:E,2,0)</f>
@@ -15427,7 +15445,7 @@
         <f>VLOOKUP(A18,Отношения!A:E,3,0)</f>
       </c>
       <c r="D18" t="s" s="0">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E18" s="0">
         <f>VLOOKUP(D17,Таблицы!C:D,2,0)</f>
@@ -15439,7 +15457,7 @@
         <f>VLOOKUP(A18,Отношения!A:E,5,0)</f>
       </c>
       <c r="H18" t="s" s="0">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="I18" s="0">
         <f>VLOOKUP(B18&amp;"."&amp;H18,'Поля таблиц'!A:G,7,0)</f>
@@ -15453,7 +15471,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B19" s="0">
         <f>VLOOKUP(A19,Отношения!A:E,2,0)</f>
@@ -15462,7 +15480,7 @@
         <f>VLOOKUP(A19,Отношения!A:E,3,0)</f>
       </c>
       <c r="D19" t="s" s="0">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E19" s="0">
         <f>VLOOKUP(D18,Таблицы!C:D,2,0)</f>
@@ -15474,7 +15492,7 @@
         <f>VLOOKUP(A19,Отношения!A:E,5,0)</f>
       </c>
       <c r="H19" t="s" s="0">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="I19" s="0">
         <f>VLOOKUP(B19&amp;"."&amp;H19,'Поля таблиц'!A:G,7,0)</f>
@@ -15488,7 +15506,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B20" s="0">
         <f>VLOOKUP(A20,Отношения!A:E,2,0)</f>
@@ -15497,7 +15515,7 @@
         <f>VLOOKUP(A20,Отношения!A:E,3,0)</f>
       </c>
       <c r="D20" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E20" s="0">
         <f>VLOOKUP(D19,Таблицы!C:D,2,0)</f>
@@ -15509,7 +15527,7 @@
         <f>VLOOKUP(A20,Отношения!A:E,5,0)</f>
       </c>
       <c r="H20" t="s" s="0">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="I20" s="0">
         <f>VLOOKUP(B20&amp;"."&amp;H20,'Поля таблиц'!A:G,7,0)</f>
@@ -15523,7 +15541,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B21" s="0">
         <f>VLOOKUP(A21,Отношения!A:E,2,0)</f>
@@ -15544,7 +15562,7 @@
         <f>VLOOKUP(A21,Отношения!A:E,5,0)</f>
       </c>
       <c r="H21" t="s" s="0">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I21" s="0">
         <f>VLOOKUP(B21&amp;"."&amp;H21,'Поля таблиц'!A:G,7,0)</f>
@@ -15558,7 +15576,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B22" s="0">
         <f>VLOOKUP(A22,Отношения!A:E,2,0)</f>
@@ -15593,7 +15611,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B23" s="0">
         <f>VLOOKUP(A23,Отношения!A:E,2,0)</f>
@@ -15614,7 +15632,7 @@
         <f>VLOOKUP(A23,Отношения!A:E,5,0)</f>
       </c>
       <c r="H23" t="s" s="0">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="I23" s="0">
         <f>VLOOKUP(B23&amp;"."&amp;H23,'Поля таблиц'!A:G,7,0)</f>
@@ -15628,7 +15646,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B24" s="0">
         <f>VLOOKUP(A24,Отношения!A:E,2,0)</f>
@@ -15637,7 +15655,7 @@
         <f>VLOOKUP(A24,Отношения!A:E,3,0)</f>
       </c>
       <c r="D24" t="s" s="0">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E24" s="0">
         <f>VLOOKUP(D23,Таблицы!C:D,2,0)</f>
@@ -15649,7 +15667,7 @@
         <f>VLOOKUP(A24,Отношения!A:E,5,0)</f>
       </c>
       <c r="H24" t="s" s="0">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I24" s="0">
         <f>VLOOKUP(B24&amp;"."&amp;H24,'Поля таблиц'!A:G,7,0)</f>
@@ -15663,7 +15681,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B25" s="0">
         <f>VLOOKUP(A25,Отношения!A:E,2,0)</f>
@@ -15672,7 +15690,7 @@
         <f>VLOOKUP(A25,Отношения!A:E,3,0)</f>
       </c>
       <c r="D25" t="s" s="0">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E25" s="0">
         <f>VLOOKUP(D24,Таблицы!C:D,2,0)</f>
@@ -15684,7 +15702,7 @@
         <f>VLOOKUP(A25,Отношения!A:E,5,0)</f>
       </c>
       <c r="H25" t="s" s="0">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="I25" s="0">
         <f>VLOOKUP(B25&amp;"."&amp;H25,'Поля таблиц'!A:G,7,0)</f>
@@ -15698,7 +15716,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B26" s="0">
         <f>VLOOKUP(A26,Отношения!A:E,2,0)</f>
@@ -15707,7 +15725,7 @@
         <f>VLOOKUP(A26,Отношения!A:E,3,0)</f>
       </c>
       <c r="D26" t="s" s="0">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E26" s="0">
         <f>VLOOKUP(D25,Таблицы!C:D,2,0)</f>
@@ -15719,7 +15737,7 @@
         <f>VLOOKUP(A26,Отношения!A:E,5,0)</f>
       </c>
       <c r="H26" t="s" s="0">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I26" s="0">
         <f>VLOOKUP(B26&amp;"."&amp;H26,'Поля таблиц'!A:G,7,0)</f>
@@ -15733,7 +15751,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B27" s="0">
         <f>VLOOKUP(A27,Отношения!A:E,2,0)</f>
@@ -15742,7 +15760,7 @@
         <f>VLOOKUP(A27,Отношения!A:E,3,0)</f>
       </c>
       <c r="D27" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E27" s="0">
         <f>VLOOKUP(D26,Таблицы!C:D,2,0)</f>
@@ -15754,7 +15772,7 @@
         <f>VLOOKUP(A27,Отношения!A:E,5,0)</f>
       </c>
       <c r="H27" t="s" s="0">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="I27" s="0">
         <f>VLOOKUP(B27&amp;"."&amp;H27,'Поля таблиц'!A:G,7,0)</f>
@@ -15768,7 +15786,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B28" s="0">
         <f>VLOOKUP(A28,Отношения!A:E,2,0)</f>
@@ -15777,7 +15795,7 @@
         <f>VLOOKUP(A28,Отношения!A:E,3,0)</f>
       </c>
       <c r="D28" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E28" s="0">
         <f>VLOOKUP(D27,Таблицы!C:D,2,0)</f>
@@ -15789,7 +15807,7 @@
         <f>VLOOKUP(A28,Отношения!A:E,5,0)</f>
       </c>
       <c r="H28" t="s" s="0">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I28" s="0">
         <f>VLOOKUP(B28&amp;"."&amp;H28,'Поля таблиц'!A:G,7,0)</f>
@@ -15803,7 +15821,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B29" s="0">
         <f>VLOOKUP(A29,Отношения!A:E,2,0)</f>
@@ -15812,7 +15830,7 @@
         <f>VLOOKUP(A29,Отношения!A:E,3,0)</f>
       </c>
       <c r="D29" t="s" s="0">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E29" s="0">
         <f>VLOOKUP(D28,Таблицы!C:D,2,0)</f>
@@ -15824,7 +15842,7 @@
         <f>VLOOKUP(A29,Отношения!A:E,5,0)</f>
       </c>
       <c r="H29" t="s" s="0">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I29" s="0">
         <f>VLOOKUP(B29&amp;"."&amp;H29,'Поля таблиц'!A:G,7,0)</f>
@@ -15838,7 +15856,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B30" s="0">
         <f>VLOOKUP(A30,Отношения!A:E,2,0)</f>
@@ -15847,7 +15865,7 @@
         <f>VLOOKUP(A30,Отношения!A:E,3,0)</f>
       </c>
       <c r="D30" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E30" s="0">
         <f>VLOOKUP(D29,Таблицы!C:D,2,0)</f>
@@ -15859,7 +15877,7 @@
         <f>VLOOKUP(A30,Отношения!A:E,5,0)</f>
       </c>
       <c r="H30" t="s" s="0">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I30" s="0">
         <f>VLOOKUP(B30&amp;"."&amp;H30,'Поля таблиц'!A:G,7,0)</f>
@@ -15873,7 +15891,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B31" s="0">
         <f>VLOOKUP(A31,Отношения!A:E,2,0)</f>
@@ -15882,7 +15900,7 @@
         <f>VLOOKUP(A31,Отношения!A:E,3,0)</f>
       </c>
       <c r="D31" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E31" s="0">
         <f>VLOOKUP(D30,Таблицы!C:D,2,0)</f>
@@ -15894,7 +15912,7 @@
         <f>VLOOKUP(A31,Отношения!A:E,5,0)</f>
       </c>
       <c r="H31" t="s" s="0">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="I31" s="0">
         <f>VLOOKUP(B31&amp;"."&amp;H31,'Поля таблиц'!A:G,7,0)</f>
@@ -15908,7 +15926,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B32" s="0">
         <f>VLOOKUP(A32,Отношения!A:E,2,0)</f>
@@ -15917,7 +15935,7 @@
         <f>VLOOKUP(A32,Отношения!A:E,3,0)</f>
       </c>
       <c r="D32" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E32" s="0">
         <f>VLOOKUP(D31,Таблицы!C:D,2,0)</f>
@@ -15929,13 +15947,13 @@
         <f>VLOOKUP(A32,Отношения!A:E,5,0)</f>
       </c>
       <c r="H32" t="s" s="0">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I32" s="0">
         <f>VLOOKUP(B32&amp;"."&amp;H32,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J32" t="s" s="0">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K32" s="0">
         <f>VLOOKUP(D32&amp;"."&amp;J32,'Поля таблиц'!A:G,7,0)</f>
@@ -15943,7 +15961,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B33" s="0">
         <f>VLOOKUP(A33,Отношения!A:E,2,0)</f>
@@ -15952,7 +15970,7 @@
         <f>VLOOKUP(A33,Отношения!A:E,3,0)</f>
       </c>
       <c r="D33" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E33" s="0">
         <f>VLOOKUP(D31,Таблицы!C:D,2,0)</f>
@@ -15964,13 +15982,13 @@
         <f>VLOOKUP(A33,Отношения!A:E,5,0)</f>
       </c>
       <c r="H33" t="s" s="0">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I33" s="0">
         <f>VLOOKUP(B33&amp;"."&amp;H33,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J33" t="s" s="0">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K33" s="0">
         <f>VLOOKUP(D33&amp;"."&amp;J33,'Поля таблиц'!A:G,7,0)</f>
@@ -15978,7 +15996,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B34" s="0">
         <f>VLOOKUP(A34,Отношения!A:E,2,0)</f>
@@ -15987,7 +16005,7 @@
         <f>VLOOKUP(A34,Отношения!A:E,3,0)</f>
       </c>
       <c r="D34" t="s" s="0">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E34" s="0">
         <f>VLOOKUP(D32,Таблицы!C:D,2,0)</f>
@@ -15999,7 +16017,7 @@
         <f>VLOOKUP(A34,Отношения!A:E,5,0)</f>
       </c>
       <c r="H34" t="s" s="0">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="I34" s="0">
         <f>VLOOKUP(B34&amp;"."&amp;H34,'Поля таблиц'!A:G,7,0)</f>
@@ -16013,7 +16031,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B35" s="0">
         <f>VLOOKUP(A35,Отношения!A:E,2,0)</f>
@@ -16022,7 +16040,7 @@
         <f>VLOOKUP(A35,Отношения!A:E,3,0)</f>
       </c>
       <c r="D35" t="s" s="0">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E35" s="0">
         <f>VLOOKUP(D33,Таблицы!C:D,2,0)</f>
@@ -16034,7 +16052,7 @@
         <f>VLOOKUP(A35,Отношения!A:E,5,0)</f>
       </c>
       <c r="H35" t="s" s="0">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="I35" s="0">
         <f>VLOOKUP(B35&amp;"."&amp;H35,'Поля таблиц'!A:G,7,0)</f>
@@ -16048,7 +16066,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B36" s="0">
         <f>VLOOKUP(A36,Отношения!A:E,2,0)</f>
@@ -16057,7 +16075,7 @@
         <f>VLOOKUP(A36,Отношения!A:E,3,0)</f>
       </c>
       <c r="D36" t="s" s="0">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E36" s="0">
         <f>VLOOKUP(D34,Таблицы!C:D,2,0)</f>
@@ -16069,7 +16087,7 @@
         <f>VLOOKUP(A36,Отношения!A:E,5,0)</f>
       </c>
       <c r="H36" t="s" s="0">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="I36" s="0">
         <f>VLOOKUP(B36&amp;"."&amp;H36,'Поля таблиц'!A:G,7,0)</f>
@@ -16083,7 +16101,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B37" s="0">
         <f>VLOOKUP(A37,Отношения!A:E,2,0)</f>
@@ -16092,7 +16110,7 @@
         <f>VLOOKUP(A37,Отношения!A:E,3,0)</f>
       </c>
       <c r="D37" t="s" s="0">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E37" s="0">
         <f>VLOOKUP(D35,Таблицы!C:D,2,0)</f>
@@ -16104,7 +16122,7 @@
         <f>VLOOKUP(A37,Отношения!A:E,5,0)</f>
       </c>
       <c r="H37" t="s" s="0">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="I37" s="0">
         <f>VLOOKUP(B37&amp;"."&amp;H37,'Поля таблиц'!A:G,7,0)</f>
@@ -16118,7 +16136,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B38" s="0">
         <f>VLOOKUP(A38,Отношения!A:E,2,0)</f>
@@ -16127,7 +16145,7 @@
         <f>VLOOKUP(A38,Отношения!A:E,3,0)</f>
       </c>
       <c r="D38" t="s" s="0">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E38" s="0">
         <f>VLOOKUP(D36,Таблицы!C:D,2,0)</f>
@@ -16139,7 +16157,7 @@
         <f>VLOOKUP(A38,Отношения!A:E,5,0)</f>
       </c>
       <c r="H38" t="s" s="0">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="I38" s="0">
         <f>VLOOKUP(B38&amp;"."&amp;H38,'Поля таблиц'!A:G,7,0)</f>
@@ -16153,7 +16171,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="B39" s="0">
         <f>VLOOKUP(A39,Отношения!A:E,2,0)</f>
@@ -16162,7 +16180,7 @@
         <f>VLOOKUP(A39,Отношения!A:E,3,0)</f>
       </c>
       <c r="D39" t="s" s="0">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E39" s="0">
         <f>VLOOKUP(D37,Таблицы!C:D,2,0)</f>
@@ -16174,7 +16192,7 @@
         <f>VLOOKUP(A39,Отношения!A:E,5,0)</f>
       </c>
       <c r="H39" t="s" s="0">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I39" s="0">
         <f>VLOOKUP(B39&amp;"."&amp;H39,'Поля таблиц'!A:G,7,0)</f>
@@ -16188,7 +16206,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B40" s="0">
         <f>VLOOKUP(A40,Отношения!A:E,2,0)</f>
@@ -16197,7 +16215,7 @@
         <f>VLOOKUP(A40,Отношения!A:E,3,0)</f>
       </c>
       <c r="D40" t="s" s="0">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E40" s="0">
         <f>VLOOKUP(D38,Таблицы!C:D,2,0)</f>
@@ -16209,7 +16227,7 @@
         <f>VLOOKUP(A40,Отношения!A:E,5,0)</f>
       </c>
       <c r="H40" t="s" s="0">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="I40" s="0">
         <f>VLOOKUP(B40&amp;"."&amp;H40,'Поля таблиц'!A:G,7,0)</f>
@@ -16223,7 +16241,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B41" s="0">
         <f>VLOOKUP(A41,Отношения!A:E,2,0)</f>
@@ -16232,7 +16250,7 @@
         <f>VLOOKUP(A41,Отношения!A:E,3,0)</f>
       </c>
       <c r="D41" t="s" s="0">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E41" s="0">
         <f>VLOOKUP(D39,Таблицы!C:D,2,0)</f>
@@ -16244,7 +16262,7 @@
         <f>VLOOKUP(A41,Отношения!A:E,5,0)</f>
       </c>
       <c r="H41" t="s" s="0">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="I41" s="0">
         <f>VLOOKUP(B41&amp;"."&amp;H41,'Поля таблиц'!A:G,7,0)</f>
@@ -16258,7 +16276,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B42" s="0">
         <f>VLOOKUP(A42,Отношения!A:E,2,0)</f>
@@ -16267,7 +16285,7 @@
         <f>VLOOKUP(A42,Отношения!A:E,3,0)</f>
       </c>
       <c r="D42" t="s" s="0">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E42" s="0">
         <f>VLOOKUP(D40,Таблицы!C:D,2,0)</f>
@@ -16279,13 +16297,13 @@
         <f>VLOOKUP(A42,Отношения!A:E,5,0)</f>
       </c>
       <c r="H42" t="s" s="0">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="I42" s="0">
         <f>VLOOKUP(B42&amp;"."&amp;H42,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J42" t="s" s="0">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K42" s="0">
         <f>VLOOKUP(D42&amp;"."&amp;J42,'Поля таблиц'!A:G,7,0)</f>
@@ -16293,7 +16311,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B43" s="0">
         <f>VLOOKUP(A43,Отношения!A:E,2,0)</f>
@@ -16302,7 +16320,7 @@
         <f>VLOOKUP(A43,Отношения!A:E,3,0)</f>
       </c>
       <c r="D43" t="s" s="0">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E43" s="0">
         <f>VLOOKUP(D40,Таблицы!C:D,2,0)</f>
@@ -16314,13 +16332,13 @@
         <f>VLOOKUP(A43,Отношения!A:E,5,0)</f>
       </c>
       <c r="H43" t="s" s="0">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="I43" s="0">
         <f>VLOOKUP(B43&amp;"."&amp;H43,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J43" t="s" s="0">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K43" s="0">
         <f>VLOOKUP(D43&amp;"."&amp;J43,'Поля таблиц'!A:G,7,0)</f>
@@ -16328,7 +16346,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B44" s="0">
         <f>VLOOKUP(A44,Отношения!A:E,2,0)</f>
@@ -16337,7 +16355,7 @@
         <f>VLOOKUP(A44,Отношения!A:E,3,0)</f>
       </c>
       <c r="D44" t="s" s="0">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E44" s="0">
         <f>VLOOKUP(D41,Таблицы!C:D,2,0)</f>
@@ -16349,7 +16367,7 @@
         <f>VLOOKUP(A44,Отношения!A:E,5,0)</f>
       </c>
       <c r="H44" t="s" s="0">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="I44" s="0">
         <f>VLOOKUP(B44&amp;"."&amp;H44,'Поля таблиц'!A:G,7,0)</f>
@@ -16363,7 +16381,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B45" s="0">
         <f>VLOOKUP(A45,Отношения!A:E,2,0)</f>
@@ -16384,7 +16402,7 @@
         <f>VLOOKUP(A45,Отношения!A:E,5,0)</f>
       </c>
       <c r="H45" t="s" s="0">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="I45" s="0">
         <f>VLOOKUP(B45&amp;"."&amp;H45,'Поля таблиц'!A:G,7,0)</f>
@@ -16398,7 +16416,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B46" s="0">
         <f>VLOOKUP(A46,Отношения!A:E,2,0)</f>
@@ -16419,7 +16437,7 @@
         <f>VLOOKUP(A46,Отношения!A:E,5,0)</f>
       </c>
       <c r="H46" t="s" s="0">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="I46" s="0">
         <f>VLOOKUP(B46&amp;"."&amp;H46,'Поля таблиц'!A:G,7,0)</f>
@@ -16433,7 +16451,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B47" s="0">
         <f>VLOOKUP(A47,Отношения!A:E,2,0)</f>
@@ -16442,7 +16460,7 @@
         <f>VLOOKUP(A47,Отношения!A:E,3,0)</f>
       </c>
       <c r="D47" t="s" s="0">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E47" s="0">
         <f>VLOOKUP(D44,Таблицы!C:D,2,0)</f>
@@ -16454,7 +16472,7 @@
         <f>VLOOKUP(A47,Отношения!A:E,5,0)</f>
       </c>
       <c r="H47" t="s" s="0">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I47" s="0">
         <f>VLOOKUP(B47&amp;"."&amp;H47,'Поля таблиц'!A:G,7,0)</f>
@@ -16468,7 +16486,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B48" s="0">
         <f>VLOOKUP(A48,Отношения!A:E,2,0)</f>
@@ -16477,7 +16495,7 @@
         <f>VLOOKUP(A48,Отношения!A:E,3,0)</f>
       </c>
       <c r="D48" t="s" s="0">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E48" s="0">
         <f>VLOOKUP(D45,Таблицы!C:D,2,0)</f>
@@ -16489,7 +16507,7 @@
         <f>VLOOKUP(A48,Отношения!A:E,5,0)</f>
       </c>
       <c r="H48" t="s" s="0">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="I48" s="0">
         <f>VLOOKUP(B48&amp;"."&amp;H48,'Поля таблиц'!A:G,7,0)</f>
@@ -16503,7 +16521,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="B49" s="0">
         <f>VLOOKUP(A49,Отношения!A:E,2,0)</f>
@@ -16512,7 +16530,7 @@
         <f>VLOOKUP(A49,Отношения!A:E,3,0)</f>
       </c>
       <c r="D49" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E49" s="0">
         <f>VLOOKUP(D46,Таблицы!C:D,2,0)</f>
@@ -16524,13 +16542,13 @@
         <f>VLOOKUP(A49,Отношения!A:E,5,0)</f>
       </c>
       <c r="H49" t="s" s="0">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="I49" s="0">
         <f>VLOOKUP(B49&amp;"."&amp;H49,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J49" t="s" s="0">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K49" s="0">
         <f>VLOOKUP(D49&amp;"."&amp;J49,'Поля таблиц'!A:G,7,0)</f>
@@ -16538,7 +16556,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B50" s="0">
         <f>VLOOKUP(A50,Отношения!A:E,2,0)</f>
@@ -16547,7 +16565,7 @@
         <f>VLOOKUP(A50,Отношения!A:E,3,0)</f>
       </c>
       <c r="D50" t="s" s="0">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E50" s="0">
         <f>VLOOKUP(D47,Таблицы!C:D,2,0)</f>
@@ -16559,13 +16577,13 @@
         <f>VLOOKUP(A50,Отношения!A:E,5,0)</f>
       </c>
       <c r="H50" t="s" s="0">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I50" s="0">
         <f>VLOOKUP(B50&amp;"."&amp;H50,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J50" t="s" s="0">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K50" s="0">
         <f>VLOOKUP(D50&amp;"."&amp;J50,'Поля таблиц'!A:G,7,0)</f>
@@ -16573,7 +16591,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B51" s="0">
         <f>VLOOKUP(A51,Отношения!A:E,2,0)</f>
@@ -16582,7 +16600,7 @@
         <f>VLOOKUP(A51,Отношения!A:E,3,0)</f>
       </c>
       <c r="D51" t="s" s="0">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E51" s="0">
         <f>VLOOKUP(D47,Таблицы!C:D,2,0)</f>
@@ -16594,13 +16612,13 @@
         <f>VLOOKUP(A51,Отношения!A:E,5,0)</f>
       </c>
       <c r="H51" t="s" s="0">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I51" s="0">
         <f>VLOOKUP(B51&amp;"."&amp;H51,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J51" t="s" s="0">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K51" s="0">
         <f>VLOOKUP(D51&amp;"."&amp;J51,'Поля таблиц'!A:G,7,0)</f>
@@ -16662,13 +16680,13 @@
         <v>61</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>99</v>
@@ -16767,10 +16785,10 @@
         <v>90</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>92</v>
@@ -16837,10 +16855,10 @@
         <v>114</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>115</v>
@@ -16907,25 +16925,25 @@
         <v>136</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I9" t="s" s="0">
         <v>116</v>
@@ -16939,16 +16957,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>99</v>
@@ -16960,7 +16978,7 @@
         <v>67</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I10" t="s" s="0">
         <v>55</v>
@@ -16974,16 +16992,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>99</v>
@@ -17009,16 +17027,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>99</v>
@@ -17030,7 +17048,7 @@
         <v>67</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I12" t="s" s="0">
         <v>55</v>
@@ -17044,19 +17062,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="F13" t="s" s="0">
         <v>66</v>
@@ -17065,13 +17083,13 @@
         <v>67</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I13" t="s" s="0">
         <v>55</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K13" t="s" s="0">
         <v>55</v>
@@ -17082,16 +17100,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B14" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>245</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>242</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>99</v>
@@ -17117,16 +17135,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>99</v>
@@ -17138,7 +17156,7 @@
         <v>67</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I15" t="s" s="0">
         <v>55</v>
@@ -17152,16 +17170,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>99</v>
@@ -17173,7 +17191,7 @@
         <v>67</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I16" t="s" s="0">
         <v>55</v>
@@ -17187,19 +17205,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="F17" t="s" s="0">
         <v>66</v>
@@ -17208,13 +17226,13 @@
         <v>67</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I17" t="s" s="0">
         <v>55</v>
       </c>
       <c r="J17" t="s" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K17" t="s" s="0">
         <v>55</v>
@@ -17225,16 +17243,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E18" t="s" s="0">
         <v>99</v>
@@ -17246,7 +17264,7 @@
         <v>67</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I18" t="s" s="0">
         <v>55</v>
@@ -17260,16 +17278,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E19" t="s" s="0">
         <v>99</v>
@@ -17281,7 +17299,7 @@
         <v>67</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I19" t="s" s="0">
         <v>55</v>
@@ -17295,16 +17313,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>99</v>
@@ -17316,7 +17334,7 @@
         <v>67</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I20" t="s" s="0">
         <v>55</v>
@@ -17330,16 +17348,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E21" t="s" s="0">
         <v>99</v>
@@ -17365,16 +17383,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E22" t="s" s="0">
         <v>99</v>
@@ -17400,16 +17418,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E23" t="s" s="0">
         <v>99</v>
@@ -17421,7 +17439,7 @@
         <v>67</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I23" t="s" s="0">
         <v>55</v>
@@ -17435,16 +17453,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E24" t="s" s="0">
         <v>99</v>
@@ -17456,7 +17474,7 @@
         <v>67</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I24" t="s" s="0">
         <v>55</v>
@@ -17470,16 +17488,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E25" t="s" s="0">
         <v>99</v>
@@ -17505,16 +17523,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B26" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D26" t="s" s="0">
         <v>355</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>356</v>
-      </c>
-      <c r="D26" t="s" s="0">
-        <v>352</v>
       </c>
       <c r="E26" t="s" s="0">
         <v>99</v>
@@ -17540,16 +17558,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E27" t="s" s="0">
         <v>99</v>
@@ -17561,7 +17579,7 @@
         <v>67</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="I27" t="s" s="0">
         <v>55</v>
@@ -17575,16 +17593,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E28" t="s" s="0">
         <v>99</v>
@@ -17596,7 +17614,7 @@
         <v>67</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I28" t="s" s="0">
         <v>55</v>
@@ -17610,16 +17628,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E29" t="s" s="0">
         <v>99</v>
@@ -17645,16 +17663,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E30" t="s" s="0">
         <v>99</v>
@@ -17680,16 +17698,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E31" t="s" s="0">
         <v>99</v>
@@ -17701,7 +17719,7 @@
         <v>67</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I31" t="s" s="0">
         <v>55</v>
@@ -17715,16 +17733,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E32" t="s" s="0">
         <v>99</v>
@@ -17750,16 +17768,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E33" t="s" s="0">
         <v>127</v>
@@ -17785,16 +17803,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E34" t="s" s="0">
         <v>127</v>
@@ -17820,16 +17838,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="E35" t="s" s="0">
         <v>99</v>
@@ -17841,7 +17859,7 @@
         <v>67</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I35" t="s" s="0">
         <v>55</v>
@@ -17855,19 +17873,19 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="F36" t="s" s="0">
         <v>66</v>
@@ -17876,13 +17894,13 @@
         <v>67</v>
       </c>
       <c r="H36" t="s" s="0">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I36" t="s" s="0">
         <v>55</v>
       </c>
       <c r="J36" t="s" s="0">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K36" t="s" s="0">
         <v>55</v>
@@ -17893,25 +17911,25 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="G37" t="s" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="H37" t="s" s="0">
         <v>55</v>
@@ -17928,16 +17946,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E38" t="s" s="0">
         <v>99</v>
@@ -17949,7 +17967,7 @@
         <v>67</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I38" t="s" s="0">
         <v>55</v>
@@ -17963,16 +17981,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E39" t="s" s="0">
         <v>99</v>
@@ -17984,7 +18002,7 @@
         <v>67</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I39" t="s" s="0">
         <v>55</v>
@@ -17998,16 +18016,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E40" t="s" s="0">
         <v>127</v>
@@ -18033,31 +18051,31 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B41" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>526</v>
+      </c>
+      <c r="E41" t="s" s="0">
         <v>582</v>
       </c>
-      <c r="C41" t="s" s="0">
-        <v>582</v>
-      </c>
-      <c r="D41" t="s" s="0">
-        <v>522</v>
-      </c>
-      <c r="E41" t="s" s="0">
-        <v>576</v>
-      </c>
       <c r="F41" t="s" s="0">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G41" t="s" s="0">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I41" t="s" s="0">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K41" t="s" s="0">
         <v>55</v>
@@ -18068,28 +18086,28 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="F42" t="s" s="0">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G42" t="s" s="0">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H42" t="s" s="0">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I42" t="s" s="0">
         <v>93</v>
@@ -18103,19 +18121,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="F43" t="s" s="0">
         <v>66</v>
@@ -18124,13 +18142,13 @@
         <v>67</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I43" t="s" s="0">
         <v>55</v>
       </c>
       <c r="J43" t="s" s="0">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K43" t="s" s="0">
         <v>55</v>

--- a/docs/Finance/Finance model.xlsx
+++ b/docs/Finance/Finance model.xlsx
@@ -15273,7 +15273,7 @@
         <v>267</v>
       </c>
       <c r="E13" s="0">
-        <f>VLOOKUP(D12,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D13,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F13" s="0">
         <f>VLOOKUP(A13,Отношения!A:E,4,0)</f>
@@ -15308,7 +15308,7 @@
         <v>241</v>
       </c>
       <c r="E14" s="0">
-        <f>VLOOKUP(D13,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D14,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F14" s="0">
         <f>VLOOKUP(A14,Отношения!A:E,4,0)</f>
@@ -15343,7 +15343,7 @@
         <v>283</v>
       </c>
       <c r="E15" s="0">
-        <f>VLOOKUP(D14,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D15,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F15" s="0">
         <f>VLOOKUP(A15,Отношения!A:E,4,0)</f>
@@ -15378,7 +15378,7 @@
         <v>287</v>
       </c>
       <c r="E16" s="0">
-        <f>VLOOKUP(D15,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D16,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F16" s="0">
         <f>VLOOKUP(A16,Отношения!A:E,4,0)</f>
@@ -15413,7 +15413,7 @@
         <v>323</v>
       </c>
       <c r="E17" s="0">
-        <f>VLOOKUP(D16,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D17,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F17" s="0">
         <f>VLOOKUP(A17,Отношения!A:E,4,0)</f>
@@ -15448,7 +15448,7 @@
         <v>176</v>
       </c>
       <c r="E18" s="0">
-        <f>VLOOKUP(D17,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D18,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F18" s="0">
         <f>VLOOKUP(A18,Отношения!A:E,4,0)</f>
@@ -15483,7 +15483,7 @@
         <v>352</v>
       </c>
       <c r="E19" s="0">
-        <f>VLOOKUP(D18,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D19,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F19" s="0">
         <f>VLOOKUP(A19,Отношения!A:E,4,0)</f>
@@ -15518,7 +15518,7 @@
         <v>376</v>
       </c>
       <c r="E20" s="0">
-        <f>VLOOKUP(D19,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D20,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F20" s="0">
         <f>VLOOKUP(A20,Отношения!A:E,4,0)</f>
@@ -15553,7 +15553,7 @@
         <v>87</v>
       </c>
       <c r="E21" s="0">
-        <f>VLOOKUP(D20,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D21,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F21" s="0">
         <f>VLOOKUP(A21,Отношения!A:E,4,0)</f>
@@ -15588,7 +15588,7 @@
         <v>108</v>
       </c>
       <c r="E22" s="0">
-        <f>VLOOKUP(D21,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D22,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F22" s="0">
         <f>VLOOKUP(A22,Отношения!A:E,4,0)</f>
@@ -15623,7 +15623,7 @@
         <v>112</v>
       </c>
       <c r="E23" s="0">
-        <f>VLOOKUP(D22,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D23,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F23" s="0">
         <f>VLOOKUP(A23,Отношения!A:E,4,0)</f>
@@ -15658,7 +15658,7 @@
         <v>241</v>
       </c>
       <c r="E24" s="0">
-        <f>VLOOKUP(D23,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D24,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F24" s="0">
         <f>VLOOKUP(A24,Отношения!A:E,4,0)</f>
@@ -15693,7 +15693,7 @@
         <v>404</v>
       </c>
       <c r="E25" s="0">
-        <f>VLOOKUP(D24,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D25,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F25" s="0">
         <f>VLOOKUP(A25,Отношения!A:E,4,0)</f>
@@ -15728,7 +15728,7 @@
         <v>407</v>
       </c>
       <c r="E26" s="0">
-        <f>VLOOKUP(D25,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D26,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F26" s="0">
         <f>VLOOKUP(A26,Отношения!A:E,4,0)</f>
@@ -15763,7 +15763,7 @@
         <v>376</v>
       </c>
       <c r="E27" s="0">
-        <f>VLOOKUP(D26,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D27,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F27" s="0">
         <f>VLOOKUP(A27,Отношения!A:E,4,0)</f>
@@ -15798,7 +15798,7 @@
         <v>199</v>
       </c>
       <c r="E28" s="0">
-        <f>VLOOKUP(D27,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D28,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F28" s="0">
         <f>VLOOKUP(A28,Отношения!A:E,4,0)</f>
@@ -15833,7 +15833,7 @@
         <v>407</v>
       </c>
       <c r="E29" s="0">
-        <f>VLOOKUP(D28,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D29,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F29" s="0">
         <f>VLOOKUP(A29,Отношения!A:E,4,0)</f>
@@ -15868,7 +15868,7 @@
         <v>199</v>
       </c>
       <c r="E30" s="0">
-        <f>VLOOKUP(D29,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D30,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F30" s="0">
         <f>VLOOKUP(A30,Отношения!A:E,4,0)</f>
@@ -15903,7 +15903,7 @@
         <v>376</v>
       </c>
       <c r="E31" s="0">
-        <f>VLOOKUP(D30,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D31,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F31" s="0">
         <f>VLOOKUP(A31,Отношения!A:E,4,0)</f>
@@ -15938,7 +15938,7 @@
         <v>236</v>
       </c>
       <c r="E32" s="0">
-        <f>VLOOKUP(D31,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D32,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F32" s="0">
         <f>VLOOKUP(A32,Отношения!A:E,4,0)</f>
@@ -15973,7 +15973,7 @@
         <v>236</v>
       </c>
       <c r="E33" s="0">
-        <f>VLOOKUP(D31,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D33,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F33" s="0">
         <f>VLOOKUP(A33,Отношения!A:E,4,0)</f>
@@ -16008,7 +16008,7 @@
         <v>283</v>
       </c>
       <c r="E34" s="0">
-        <f>VLOOKUP(D32,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D34,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F34" s="0">
         <f>VLOOKUP(A34,Отношения!A:E,4,0)</f>
@@ -16043,7 +16043,7 @@
         <v>287</v>
       </c>
       <c r="E35" s="0">
-        <f>VLOOKUP(D33,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D35,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F35" s="0">
         <f>VLOOKUP(A35,Отношения!A:E,4,0)</f>
@@ -16078,7 +16078,7 @@
         <v>291</v>
       </c>
       <c r="E36" s="0">
-        <f>VLOOKUP(D34,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D36,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F36" s="0">
         <f>VLOOKUP(A36,Отношения!A:E,4,0)</f>
@@ -16113,7 +16113,7 @@
         <v>309</v>
       </c>
       <c r="E37" s="0">
-        <f>VLOOKUP(D35,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D37,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F37" s="0">
         <f>VLOOKUP(A37,Отношения!A:E,4,0)</f>
@@ -16148,7 +16148,7 @@
         <v>314</v>
       </c>
       <c r="E38" s="0">
-        <f>VLOOKUP(D36,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D38,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F38" s="0">
         <f>VLOOKUP(A38,Отношения!A:E,4,0)</f>
@@ -16183,7 +16183,7 @@
         <v>319</v>
       </c>
       <c r="E39" s="0">
-        <f>VLOOKUP(D37,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D39,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F39" s="0">
         <f>VLOOKUP(A39,Отношения!A:E,4,0)</f>
@@ -16218,7 +16218,7 @@
         <v>366</v>
       </c>
       <c r="E40" s="0">
-        <f>VLOOKUP(D38,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D40,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F40" s="0">
         <f>VLOOKUP(A40,Отношения!A:E,4,0)</f>
@@ -16253,7 +16253,7 @@
         <v>352</v>
       </c>
       <c r="E41" s="0">
-        <f>VLOOKUP(D39,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D41,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F41" s="0">
         <f>VLOOKUP(A41,Отношения!A:E,4,0)</f>
@@ -16288,7 +16288,7 @@
         <v>356</v>
       </c>
       <c r="E42" s="0">
-        <f>VLOOKUP(D40,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D42,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F42" s="0">
         <f>VLOOKUP(A42,Отношения!A:E,4,0)</f>
@@ -16323,7 +16323,7 @@
         <v>356</v>
       </c>
       <c r="E43" s="0">
-        <f>VLOOKUP(D40,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D43,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F43" s="0">
         <f>VLOOKUP(A43,Отношения!A:E,4,0)</f>
@@ -16358,7 +16358,7 @@
         <v>343</v>
       </c>
       <c r="E44" s="0">
-        <f>VLOOKUP(D41,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D44,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F44" s="0">
         <f>VLOOKUP(A44,Отношения!A:E,4,0)</f>
@@ -16393,7 +16393,7 @@
         <v>112</v>
       </c>
       <c r="E45" s="0">
-        <f>VLOOKUP(D42,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D45,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F45" s="0">
         <f>VLOOKUP(A45,Отношения!A:E,4,0)</f>
@@ -16428,7 +16428,7 @@
         <v>112</v>
       </c>
       <c r="E46" s="0">
-        <f>VLOOKUP(D43,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D46,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F46" s="0">
         <f>VLOOKUP(A46,Отношения!A:E,4,0)</f>
@@ -16463,7 +16463,7 @@
         <v>176</v>
       </c>
       <c r="E47" s="0">
-        <f>VLOOKUP(D44,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D47,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F47" s="0">
         <f>VLOOKUP(A47,Отношения!A:E,4,0)</f>
@@ -16498,7 +16498,7 @@
         <v>176</v>
       </c>
       <c r="E48" s="0">
-        <f>VLOOKUP(D45,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D48,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F48" s="0">
         <f>VLOOKUP(A48,Отношения!A:E,4,0)</f>
@@ -16533,7 +16533,7 @@
         <v>472</v>
       </c>
       <c r="E49" s="0">
-        <f>VLOOKUP(D46,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D49,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F49" s="0">
         <f>VLOOKUP(A49,Отношения!A:E,4,0)</f>
@@ -16568,7 +16568,7 @@
         <v>327</v>
       </c>
       <c r="E50" s="0">
-        <f>VLOOKUP(D47,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D50,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F50" s="0">
         <f>VLOOKUP(A50,Отношения!A:E,4,0)</f>
@@ -16603,7 +16603,7 @@
         <v>327</v>
       </c>
       <c r="E51" s="0">
-        <f>VLOOKUP(D47,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D51,Таблицы!C:D,2,0)</f>
       </c>
       <c r="F51" s="0">
         <f>VLOOKUP(A51,Отношения!A:E,4,0)</f>

--- a/docs/Finance/Finance model.xlsx
+++ b/docs/Finance/Finance model.xlsx
@@ -540,13 +540,13 @@
     <t>ExchangeRate_exchangeRateTypeId</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference (from) to currency </t>
+    <t>Reference (from) to currency</t>
   </si>
   <si>
     <t>ExchangeRate_fromCurrencyId</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference (to) to currency </t>
+    <t>Reference (to) to currency</t>
   </si>
   <si>
     <t>ExchangeRate_toCurrencyId</t>

--- a/docs/Finance/Finance model.xlsx
+++ b/docs/Finance/Finance model.xlsx
@@ -13027,7 +13027,7 @@
         <v>296</v>
       </c>
       <c r="G2" s="0">
-        <f>VLOOKUP(B2&amp;"."&amp;F2,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B2&amp;"."&amp;F2,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="3">
@@ -13050,7 +13050,7 @@
         <v>298</v>
       </c>
       <c r="G3" s="0">
-        <f>VLOOKUP(B3&amp;"."&amp;F3,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B3&amp;"."&amp;F3,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="4">
@@ -13073,7 +13073,7 @@
         <v>229</v>
       </c>
       <c r="G4" s="0">
-        <f>VLOOKUP(B4&amp;"."&amp;F4,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B4&amp;"."&amp;F4,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="5">
@@ -13096,7 +13096,7 @@
         <v>372</v>
       </c>
       <c r="G5" s="0">
-        <f>VLOOKUP(B5&amp;"."&amp;F5,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B5&amp;"."&amp;F5,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="6">
@@ -13119,7 +13119,7 @@
         <v>485</v>
       </c>
       <c r="G6" s="0">
-        <f>VLOOKUP(B6&amp;"."&amp;F6,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B6&amp;"."&amp;F6,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="7">
@@ -13142,7 +13142,7 @@
         <v>489</v>
       </c>
       <c r="G7" s="0">
-        <f>VLOOKUP(B7&amp;"."&amp;F7,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B7&amp;"."&amp;F7,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="8">
@@ -13165,7 +13165,7 @@
         <v>493</v>
       </c>
       <c r="G8" s="0">
-        <f>VLOOKUP(B8&amp;"."&amp;F8,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B8&amp;"."&amp;F8,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
   </sheetData>
@@ -14900,13 +14900,13 @@
         <v>101</v>
       </c>
       <c r="I2" s="0">
-        <f>VLOOKUP(B2&amp;"."&amp;H2,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B2&amp;"."&amp;H2,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J2" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K2" s="0">
-        <f>VLOOKUP(D2&amp;"."&amp;J2,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D2&amp;"."&amp;J2,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="3">
@@ -14935,13 +14935,13 @@
         <v>138</v>
       </c>
       <c r="I3" s="0">
-        <f>VLOOKUP(B3&amp;"."&amp;H3,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B3&amp;"."&amp;H3,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J3" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K3" s="0">
-        <f>VLOOKUP(D3&amp;"."&amp;J3,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D3&amp;"."&amp;J3,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="4">
@@ -14970,13 +14970,13 @@
         <v>140</v>
       </c>
       <c r="I4" s="0">
-        <f>VLOOKUP(B4&amp;"."&amp;H4,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B4&amp;"."&amp;H4,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J4" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K4" s="0">
-        <f>VLOOKUP(D4&amp;"."&amp;J4,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D4&amp;"."&amp;J4,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="5">
@@ -15005,13 +15005,13 @@
         <v>143</v>
       </c>
       <c r="I5" s="0">
-        <f>VLOOKUP(B5&amp;"."&amp;H5,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B5&amp;"."&amp;H5,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J5" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K5" s="0">
-        <f>VLOOKUP(D5&amp;"."&amp;J5,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D5&amp;"."&amp;J5,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="6">
@@ -15040,13 +15040,13 @@
         <v>101</v>
       </c>
       <c r="I6" s="0">
-        <f>VLOOKUP(B6&amp;"."&amp;H6,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B6&amp;"."&amp;H6,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J6" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K6" s="0">
-        <f>VLOOKUP(D6&amp;"."&amp;J6,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D6&amp;"."&amp;J6,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="7">
@@ -15075,13 +15075,13 @@
         <v>188</v>
       </c>
       <c r="I7" s="0">
-        <f>VLOOKUP(B7&amp;"."&amp;H7,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B7&amp;"."&amp;H7,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J7" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K7" s="0">
-        <f>VLOOKUP(D7&amp;"."&amp;J7,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D7&amp;"."&amp;J7,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="8">
@@ -15110,13 +15110,13 @@
         <v>214</v>
       </c>
       <c r="I8" s="0">
-        <f>VLOOKUP(B8&amp;"."&amp;H8,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B8&amp;"."&amp;H8,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J8" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K8" s="0">
-        <f>VLOOKUP(D8&amp;"."&amp;J8,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D8&amp;"."&amp;J8,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="9">
@@ -15145,13 +15145,13 @@
         <v>229</v>
       </c>
       <c r="I9" s="0">
-        <f>VLOOKUP(B9&amp;"."&amp;H9,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B9&amp;"."&amp;H9,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J9" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K9" s="0">
-        <f>VLOOKUP(D9&amp;"."&amp;J9,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D9&amp;"."&amp;J9,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="10">
@@ -15180,13 +15180,13 @@
         <v>227</v>
       </c>
       <c r="I10" s="0">
-        <f>VLOOKUP(B10&amp;"."&amp;H10,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B10&amp;"."&amp;H10,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J10" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K10" s="0">
-        <f>VLOOKUP(D10&amp;"."&amp;J10,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D10&amp;"."&amp;J10,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="11">
@@ -15215,13 +15215,13 @@
         <v>248</v>
       </c>
       <c r="I11" s="0">
-        <f>VLOOKUP(B11&amp;"."&amp;H11,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B11&amp;"."&amp;H11,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J11" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K11" s="0">
-        <f>VLOOKUP(D11&amp;"."&amp;J11,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D11&amp;"."&amp;J11,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="12">
@@ -15250,13 +15250,13 @@
         <v>248</v>
       </c>
       <c r="I12" s="0">
-        <f>VLOOKUP(B12&amp;"."&amp;H12,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B12&amp;"."&amp;H12,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J12" t="s" s="0">
         <v>248</v>
       </c>
       <c r="K12" s="0">
-        <f>VLOOKUP(D12&amp;"."&amp;J12,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D12&amp;"."&amp;J12,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="13">
@@ -15285,13 +15285,13 @@
         <v>261</v>
       </c>
       <c r="I13" s="0">
-        <f>VLOOKUP(B13&amp;"."&amp;H13,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B13&amp;"."&amp;H13,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J13" t="s" s="0">
         <v>261</v>
       </c>
       <c r="K13" s="0">
-        <f>VLOOKUP(D13&amp;"."&amp;J13,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D13&amp;"."&amp;J13,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="14">
@@ -15320,13 +15320,13 @@
         <v>248</v>
       </c>
       <c r="I14" s="0">
-        <f>VLOOKUP(B14&amp;"."&amp;H14,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B14&amp;"."&amp;H14,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J14" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K14" s="0">
-        <f>VLOOKUP(D14&amp;"."&amp;J14,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D14&amp;"."&amp;J14,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="15">
@@ -15355,13 +15355,13 @@
         <v>296</v>
       </c>
       <c r="I15" s="0">
-        <f>VLOOKUP(B15&amp;"."&amp;H15,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B15&amp;"."&amp;H15,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J15" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K15" s="0">
-        <f>VLOOKUP(D15&amp;"."&amp;J15,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D15&amp;"."&amp;J15,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="16">
@@ -15390,13 +15390,13 @@
         <v>298</v>
       </c>
       <c r="I16" s="0">
-        <f>VLOOKUP(B16&amp;"."&amp;H16,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B16&amp;"."&amp;H16,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J16" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K16" s="0">
-        <f>VLOOKUP(D16&amp;"."&amp;J16,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D16&amp;"."&amp;J16,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="17">
@@ -15425,13 +15425,13 @@
         <v>330</v>
       </c>
       <c r="I17" s="0">
-        <f>VLOOKUP(B17&amp;"."&amp;H17,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B17&amp;"."&amp;H17,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J17" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K17" s="0">
-        <f>VLOOKUP(D17&amp;"."&amp;J17,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D17&amp;"."&amp;J17,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="18">
@@ -15460,13 +15460,13 @@
         <v>348</v>
       </c>
       <c r="I18" s="0">
-        <f>VLOOKUP(B18&amp;"."&amp;H18,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B18&amp;"."&amp;H18,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J18" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K18" s="0">
-        <f>VLOOKUP(D18&amp;"."&amp;J18,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D18&amp;"."&amp;J18,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="19">
@@ -15495,13 +15495,13 @@
         <v>358</v>
       </c>
       <c r="I19" s="0">
-        <f>VLOOKUP(B19&amp;"."&amp;H19,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B19&amp;"."&amp;H19,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J19" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K19" s="0">
-        <f>VLOOKUP(D19&amp;"."&amp;J19,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D19&amp;"."&amp;J19,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="20">
@@ -15530,13 +15530,13 @@
         <v>372</v>
       </c>
       <c r="I20" s="0">
-        <f>VLOOKUP(B20&amp;"."&amp;H20,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B20&amp;"."&amp;H20,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J20" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K20" s="0">
-        <f>VLOOKUP(D20&amp;"."&amp;J20,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D20&amp;"."&amp;J20,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="21">
@@ -15565,13 +15565,13 @@
         <v>383</v>
       </c>
       <c r="I21" s="0">
-        <f>VLOOKUP(B21&amp;"."&amp;H21,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B21&amp;"."&amp;H21,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J21" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K21" s="0">
-        <f>VLOOKUP(D21&amp;"."&amp;J21,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D21&amp;"."&amp;J21,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="22">
@@ -15600,13 +15600,13 @@
         <v>101</v>
       </c>
       <c r="I22" s="0">
-        <f>VLOOKUP(B22&amp;"."&amp;H22,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B22&amp;"."&amp;H22,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J22" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K22" s="0">
-        <f>VLOOKUP(D22&amp;"."&amp;J22,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D22&amp;"."&amp;J22,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="23">
@@ -15635,13 +15635,13 @@
         <v>385</v>
       </c>
       <c r="I23" s="0">
-        <f>VLOOKUP(B23&amp;"."&amp;H23,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B23&amp;"."&amp;H23,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J23" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K23" s="0">
-        <f>VLOOKUP(D23&amp;"."&amp;J23,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D23&amp;"."&amp;J23,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="24">
@@ -15670,13 +15670,13 @@
         <v>248</v>
       </c>
       <c r="I24" s="0">
-        <f>VLOOKUP(B24&amp;"."&amp;H24,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B24&amp;"."&amp;H24,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J24" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K24" s="0">
-        <f>VLOOKUP(D24&amp;"."&amp;J24,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D24&amp;"."&amp;J24,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="25">
@@ -15705,13 +15705,13 @@
         <v>388</v>
       </c>
       <c r="I25" s="0">
-        <f>VLOOKUP(B25&amp;"."&amp;H25,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B25&amp;"."&amp;H25,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J25" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K25" s="0">
-        <f>VLOOKUP(D25&amp;"."&amp;J25,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D25&amp;"."&amp;J25,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="26">
@@ -15740,13 +15740,13 @@
         <v>392</v>
       </c>
       <c r="I26" s="0">
-        <f>VLOOKUP(B26&amp;"."&amp;H26,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B26&amp;"."&amp;H26,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J26" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K26" s="0">
-        <f>VLOOKUP(D26&amp;"."&amp;J26,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D26&amp;"."&amp;J26,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="27">
@@ -15775,13 +15775,13 @@
         <v>372</v>
       </c>
       <c r="I27" s="0">
-        <f>VLOOKUP(B27&amp;"."&amp;H27,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B27&amp;"."&amp;H27,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J27" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K27" s="0">
-        <f>VLOOKUP(D27&amp;"."&amp;J27,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D27&amp;"."&amp;J27,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="28">
@@ -15810,13 +15810,13 @@
         <v>229</v>
       </c>
       <c r="I28" s="0">
-        <f>VLOOKUP(B28&amp;"."&amp;H28,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B28&amp;"."&amp;H28,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J28" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K28" s="0">
-        <f>VLOOKUP(D28&amp;"."&amp;J28,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D28&amp;"."&amp;J28,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="29">
@@ -15845,13 +15845,13 @@
         <v>392</v>
       </c>
       <c r="I29" s="0">
-        <f>VLOOKUP(B29&amp;"."&amp;H29,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B29&amp;"."&amp;H29,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J29" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K29" s="0">
-        <f>VLOOKUP(D29&amp;"."&amp;J29,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D29&amp;"."&amp;J29,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="30">
@@ -15880,13 +15880,13 @@
         <v>229</v>
       </c>
       <c r="I30" s="0">
-        <f>VLOOKUP(B30&amp;"."&amp;H30,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B30&amp;"."&amp;H30,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J30" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K30" s="0">
-        <f>VLOOKUP(D30&amp;"."&amp;J30,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D30&amp;"."&amp;J30,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="31">
@@ -15915,13 +15915,13 @@
         <v>372</v>
       </c>
       <c r="I31" s="0">
-        <f>VLOOKUP(B31&amp;"."&amp;H31,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B31&amp;"."&amp;H31,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J31" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K31" s="0">
-        <f>VLOOKUP(D31&amp;"."&amp;J31,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D31&amp;"."&amp;J31,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="32">
@@ -15950,13 +15950,13 @@
         <v>248</v>
       </c>
       <c r="I32" s="0">
-        <f>VLOOKUP(B32&amp;"."&amp;H32,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B32&amp;"."&amp;H32,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J32" t="s" s="0">
         <v>248</v>
       </c>
       <c r="K32" s="0">
-        <f>VLOOKUP(D32&amp;"."&amp;J32,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D32&amp;"."&amp;J32,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="33">
@@ -15985,13 +15985,13 @@
         <v>251</v>
       </c>
       <c r="I33" s="0">
-        <f>VLOOKUP(B33&amp;"."&amp;H33,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B33&amp;"."&amp;H33,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J33" t="s" s="0">
         <v>251</v>
       </c>
       <c r="K33" s="0">
-        <f>VLOOKUP(D33&amp;"."&amp;J33,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D33&amp;"."&amp;J33,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="34">
@@ -16020,13 +16020,13 @@
         <v>296</v>
       </c>
       <c r="I34" s="0">
-        <f>VLOOKUP(B34&amp;"."&amp;H34,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B34&amp;"."&amp;H34,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J34" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K34" s="0">
-        <f>VLOOKUP(D34&amp;"."&amp;J34,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D34&amp;"."&amp;J34,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="35">
@@ -16055,13 +16055,13 @@
         <v>298</v>
       </c>
       <c r="I35" s="0">
-        <f>VLOOKUP(B35&amp;"."&amp;H35,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B35&amp;"."&amp;H35,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J35" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K35" s="0">
-        <f>VLOOKUP(D35&amp;"."&amp;J35,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D35&amp;"."&amp;J35,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="36">
@@ -16090,13 +16090,13 @@
         <v>510</v>
       </c>
       <c r="I36" s="0">
-        <f>VLOOKUP(B36&amp;"."&amp;H36,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B36&amp;"."&amp;H36,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J36" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K36" s="0">
-        <f>VLOOKUP(D36&amp;"."&amp;J36,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D36&amp;"."&amp;J36,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="37">
@@ -16125,13 +16125,13 @@
         <v>512</v>
       </c>
       <c r="I37" s="0">
-        <f>VLOOKUP(B37&amp;"."&amp;H37,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B37&amp;"."&amp;H37,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J37" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K37" s="0">
-        <f>VLOOKUP(D37&amp;"."&amp;J37,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D37&amp;"."&amp;J37,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="38">
@@ -16160,13 +16160,13 @@
         <v>514</v>
       </c>
       <c r="I38" s="0">
-        <f>VLOOKUP(B38&amp;"."&amp;H38,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B38&amp;"."&amp;H38,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J38" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K38" s="0">
-        <f>VLOOKUP(D38&amp;"."&amp;J38,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D38&amp;"."&amp;J38,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="39">
@@ -16195,13 +16195,13 @@
         <v>516</v>
       </c>
       <c r="I39" s="0">
-        <f>VLOOKUP(B39&amp;"."&amp;H39,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B39&amp;"."&amp;H39,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J39" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K39" s="0">
-        <f>VLOOKUP(D39&amp;"."&amp;J39,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D39&amp;"."&amp;J39,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="40">
@@ -16230,13 +16230,13 @@
         <v>518</v>
       </c>
       <c r="I40" s="0">
-        <f>VLOOKUP(B40&amp;"."&amp;H40,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B40&amp;"."&amp;H40,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J40" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K40" s="0">
-        <f>VLOOKUP(D40&amp;"."&amp;J40,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D40&amp;"."&amp;J40,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="41">
@@ -16265,13 +16265,13 @@
         <v>358</v>
       </c>
       <c r="I41" s="0">
-        <f>VLOOKUP(B41&amp;"."&amp;H41,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B41&amp;"."&amp;H41,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J41" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K41" s="0">
-        <f>VLOOKUP(D41&amp;"."&amp;J41,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D41&amp;"."&amp;J41,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="42">
@@ -16300,13 +16300,13 @@
         <v>358</v>
       </c>
       <c r="I42" s="0">
-        <f>VLOOKUP(B42&amp;"."&amp;H42,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B42&amp;"."&amp;H42,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J42" t="s" s="0">
         <v>358</v>
       </c>
       <c r="K42" s="0">
-        <f>VLOOKUP(D42&amp;"."&amp;J42,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D42&amp;"."&amp;J42,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="43">
@@ -16335,13 +16335,13 @@
         <v>361</v>
       </c>
       <c r="I43" s="0">
-        <f>VLOOKUP(B43&amp;"."&amp;H43,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B43&amp;"."&amp;H43,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J43" t="s" s="0">
         <v>361</v>
       </c>
       <c r="K43" s="0">
-        <f>VLOOKUP(D43&amp;"."&amp;J43,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D43&amp;"."&amp;J43,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="44">
@@ -16370,13 +16370,13 @@
         <v>520</v>
       </c>
       <c r="I44" s="0">
-        <f>VLOOKUP(B44&amp;"."&amp;H44,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B44&amp;"."&amp;H44,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J44" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K44" s="0">
-        <f>VLOOKUP(D44&amp;"."&amp;J44,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D44&amp;"."&amp;J44,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="45">
@@ -16405,13 +16405,13 @@
         <v>530</v>
       </c>
       <c r="I45" s="0">
-        <f>VLOOKUP(B45&amp;"."&amp;H45,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B45&amp;"."&amp;H45,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J45" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K45" s="0">
-        <f>VLOOKUP(D45&amp;"."&amp;J45,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D45&amp;"."&amp;J45,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="46">
@@ -16440,13 +16440,13 @@
         <v>536</v>
       </c>
       <c r="I46" s="0">
-        <f>VLOOKUP(B46&amp;"."&amp;H46,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B46&amp;"."&amp;H46,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J46" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K46" s="0">
-        <f>VLOOKUP(D46&amp;"."&amp;J46,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D46&amp;"."&amp;J46,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="47">
@@ -16475,13 +16475,13 @@
         <v>188</v>
       </c>
       <c r="I47" s="0">
-        <f>VLOOKUP(B47&amp;"."&amp;H47,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B47&amp;"."&amp;H47,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J47" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K47" s="0">
-        <f>VLOOKUP(D47&amp;"."&amp;J47,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D47&amp;"."&amp;J47,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="48">
@@ -16510,13 +16510,13 @@
         <v>348</v>
       </c>
       <c r="I48" s="0">
-        <f>VLOOKUP(B48&amp;"."&amp;H48,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B48&amp;"."&amp;H48,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J48" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K48" s="0">
-        <f>VLOOKUP(D48&amp;"."&amp;J48,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D48&amp;"."&amp;J48,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="49">
@@ -16545,13 +16545,13 @@
         <v>480</v>
       </c>
       <c r="I49" s="0">
-        <f>VLOOKUP(B49&amp;"."&amp;H49,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B49&amp;"."&amp;H49,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J49" t="s" s="0">
         <v>480</v>
       </c>
       <c r="K49" s="0">
-        <f>VLOOKUP(D49&amp;"."&amp;J49,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D49&amp;"."&amp;J49,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="50">
@@ -16580,13 +16580,13 @@
         <v>330</v>
       </c>
       <c r="I50" s="0">
-        <f>VLOOKUP(B50&amp;"."&amp;H50,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B50&amp;"."&amp;H50,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J50" t="s" s="0">
         <v>330</v>
       </c>
       <c r="K50" s="0">
-        <f>VLOOKUP(D50&amp;"."&amp;J50,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D50&amp;"."&amp;J50,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
     <row r="51">
@@ -16615,13 +16615,13 @@
         <v>333</v>
       </c>
       <c r="I51" s="0">
-        <f>VLOOKUP(B51&amp;"."&amp;H51,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(B51&amp;"."&amp;H51,Поля таблиц!A:G,7,0)</f>
       </c>
       <c r="J51" t="s" s="0">
         <v>333</v>
       </c>
       <c r="K51" s="0">
-        <f>VLOOKUP(D51&amp;"."&amp;J51,'Поля таблиц'!A:G,7,0)</f>
+        <f>VLOOKUP(D51&amp;"."&amp;J51,Поля таблиц!A:G,7,0)</f>
       </c>
     </row>
   </sheetData>

--- a/docs/Finance/Finance model.xlsx
+++ b/docs/Finance/Finance model.xlsx
@@ -2086,7 +2086,7 @@
         <v>209</v>
       </c>
       <c r="B2" s="0">
-        <f>VLOOKUP(A2,Перечисления!A:B,2,0)</f>
+        <f>VLOOKUP(A2,'Перечисления'!A:B,2,0)</f>
       </c>
       <c r="C2" t="s" s="0">
         <v>589</v>
@@ -2100,7 +2100,7 @@
         <v>209</v>
       </c>
       <c r="B3" s="0">
-        <f>VLOOKUP(A3,Перечисления!A:B,2,0)</f>
+        <f>VLOOKUP(A3,'Перечисления'!A:B,2,0)</f>
       </c>
       <c r="C3" t="s" s="0">
         <v>69</v>
@@ -2114,7 +2114,7 @@
         <v>255</v>
       </c>
       <c r="B4" s="0">
-        <f>VLOOKUP(A4,Перечисления!A:B,2,0)</f>
+        <f>VLOOKUP(A4,'Перечисления'!A:B,2,0)</f>
       </c>
       <c r="C4" t="s" s="0">
         <v>69</v>
@@ -2128,7 +2128,7 @@
         <v>255</v>
       </c>
       <c r="B5" s="0">
-        <f>VLOOKUP(A5,Перечисления!A:B,2,0)</f>
+        <f>VLOOKUP(A5,'Перечисления'!A:B,2,0)</f>
       </c>
       <c r="C5" t="s" s="0">
         <v>593</v>
@@ -2142,7 +2142,7 @@
         <v>255</v>
       </c>
       <c r="B6" s="0">
-        <f>VLOOKUP(A6,Перечисления!A:B,2,0)</f>
+        <f>VLOOKUP(A6,'Перечисления'!A:B,2,0)</f>
       </c>
       <c r="C6" t="s" s="0">
         <v>595</v>
@@ -2156,7 +2156,7 @@
         <v>255</v>
       </c>
       <c r="B7" s="0">
-        <f>VLOOKUP(A7,Перечисления!A:B,2,0)</f>
+        <f>VLOOKUP(A7,'Перечисления'!A:B,2,0)</f>
       </c>
       <c r="C7" t="s" s="0">
         <v>597</v>
@@ -2170,7 +2170,7 @@
         <v>255</v>
       </c>
       <c r="B8" s="0">
-        <f>VLOOKUP(A8,Перечисления!A:B,2,0)</f>
+        <f>VLOOKUP(A8,'Перечисления'!A:B,2,0)</f>
       </c>
       <c r="C8" t="s" s="0">
         <v>599</v>
@@ -2184,7 +2184,7 @@
         <v>422</v>
       </c>
       <c r="B9" s="0">
-        <f>VLOOKUP(A9,Перечисления!A:B,2,0)</f>
+        <f>VLOOKUP(A9,'Перечисления'!A:B,2,0)</f>
       </c>
       <c r="C9" t="s" s="0">
         <v>601</v>
@@ -2198,7 +2198,7 @@
         <v>422</v>
       </c>
       <c r="B10" s="0">
-        <f>VLOOKUP(A10,Перечисления!A:B,2,0)</f>
+        <f>VLOOKUP(A10,'Перечисления'!A:B,2,0)</f>
       </c>
       <c r="C10" t="s" s="0">
         <v>603</v>
@@ -2212,7 +2212,7 @@
         <v>422</v>
       </c>
       <c r="B11" s="0">
-        <f>VLOOKUP(A11,Перечисления!A:B,2,0)</f>
+        <f>VLOOKUP(A11,'Перечисления'!A:B,2,0)</f>
       </c>
       <c r="C11" t="s" s="0">
         <v>605</v>
@@ -2226,7 +2226,7 @@
         <v>422</v>
       </c>
       <c r="B12" s="0">
-        <f>VLOOKUP(A12,Перечисления!A:B,2,0)</f>
+        <f>VLOOKUP(A12,'Перечисления'!A:B,2,0)</f>
       </c>
       <c r="C12" t="s" s="0">
         <v>607</v>
@@ -2240,7 +2240,7 @@
         <v>422</v>
       </c>
       <c r="B13" s="0">
-        <f>VLOOKUP(A13,Перечисления!A:B,2,0)</f>
+        <f>VLOOKUP(A13,'Перечисления'!A:B,2,0)</f>
       </c>
       <c r="C13" t="s" s="0">
         <v>597</v>
@@ -2254,7 +2254,7 @@
         <v>522</v>
       </c>
       <c r="B14" s="0">
-        <f>VLOOKUP(A14,Перечисления!A:B,2,0)</f>
+        <f>VLOOKUP(A14,'Перечисления'!A:B,2,0)</f>
       </c>
       <c r="C14" t="s" s="0">
         <v>603</v>
@@ -2268,7 +2268,7 @@
         <v>522</v>
       </c>
       <c r="B15" s="0">
-        <f>VLOOKUP(A15,Перечисления!A:B,2,0)</f>
+        <f>VLOOKUP(A15,'Перечисления'!A:B,2,0)</f>
       </c>
       <c r="C15" t="s" s="0">
         <v>599</v>
@@ -2514,7 +2514,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="0">
-        <f>VLOOKUP(A2,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A2,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C2" t="s" s="0">
         <v>56</v>
@@ -2540,7 +2540,7 @@
         <v>82</v>
       </c>
       <c r="B3" s="0">
-        <f>VLOOKUP(A3,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A3,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C3" t="s" s="0">
         <v>87</v>
@@ -2566,7 +2566,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0">
-        <f>VLOOKUP(A4,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A4,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C4" t="s" s="0">
         <v>108</v>
@@ -2592,7 +2592,7 @@
         <v>82</v>
       </c>
       <c r="B5" s="0">
-        <f>VLOOKUP(A5,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A5,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C5" t="s" s="0">
         <v>112</v>
@@ -2618,7 +2618,7 @@
         <v>82</v>
       </c>
       <c r="B6" s="0">
-        <f>VLOOKUP(A6,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A6,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C6" t="s" s="0">
         <v>130</v>
@@ -2644,7 +2644,7 @@
         <v>82</v>
       </c>
       <c r="B7" s="0">
-        <f>VLOOKUP(A7,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A7,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C7" t="s" s="0">
         <v>136</v>
@@ -2670,7 +2670,7 @@
         <v>82</v>
       </c>
       <c r="B8" s="0">
-        <f>VLOOKUP(A8,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A8,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C8" t="s" s="0">
         <v>176</v>
@@ -2696,7 +2696,7 @@
         <v>82</v>
       </c>
       <c r="B9" s="0">
-        <f>VLOOKUP(A9,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A9,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C9" t="s" s="0">
         <v>184</v>
@@ -2722,7 +2722,7 @@
         <v>199</v>
       </c>
       <c r="B10" s="0">
-        <f>VLOOKUP(A10,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A10,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C10" t="s" s="0">
         <v>199</v>
@@ -2748,7 +2748,7 @@
         <v>199</v>
       </c>
       <c r="B11" s="0">
-        <f>VLOOKUP(A11,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A11,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C11" t="s" s="0">
         <v>219</v>
@@ -2774,7 +2774,7 @@
         <v>199</v>
       </c>
       <c r="B12" s="0">
-        <f>VLOOKUP(A12,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A12,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C12" t="s" s="0">
         <v>224</v>
@@ -2800,7 +2800,7 @@
         <v>236</v>
       </c>
       <c r="B13" s="0">
-        <f>VLOOKUP(A13,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A13,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C13" t="s" s="0">
         <v>241</v>
@@ -2826,7 +2826,7 @@
         <v>236</v>
       </c>
       <c r="B14" s="0">
-        <f>VLOOKUP(A14,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A14,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C14" t="s" s="0">
         <v>236</v>
@@ -2852,7 +2852,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="0">
-        <f>VLOOKUP(A15,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A15,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C15" t="s" s="0">
         <v>267</v>
@@ -2878,7 +2878,7 @@
         <v>278</v>
       </c>
       <c r="B16" s="0">
-        <f>VLOOKUP(A16,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A16,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C16" t="s" s="0">
         <v>283</v>
@@ -2904,7 +2904,7 @@
         <v>278</v>
       </c>
       <c r="B17" s="0">
-        <f>VLOOKUP(A17,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A17,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C17" t="s" s="0">
         <v>287</v>
@@ -2930,7 +2930,7 @@
         <v>278</v>
       </c>
       <c r="B18" s="0">
-        <f>VLOOKUP(A18,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A18,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C18" t="s" s="0">
         <v>291</v>
@@ -2956,7 +2956,7 @@
         <v>278</v>
       </c>
       <c r="B19" s="0">
-        <f>VLOOKUP(A19,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A19,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C19" t="s" s="0">
         <v>309</v>
@@ -2982,7 +2982,7 @@
         <v>278</v>
       </c>
       <c r="B20" s="0">
-        <f>VLOOKUP(A20,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A20,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C20" t="s" s="0">
         <v>314</v>
@@ -3008,7 +3008,7 @@
         <v>278</v>
       </c>
       <c r="B21" s="0">
-        <f>VLOOKUP(A21,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A21,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C21" t="s" s="0">
         <v>319</v>
@@ -3034,7 +3034,7 @@
         <v>278</v>
       </c>
       <c r="B22" s="0">
-        <f>VLOOKUP(A22,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A22,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C22" t="s" s="0">
         <v>323</v>
@@ -3060,7 +3060,7 @@
         <v>278</v>
       </c>
       <c r="B23" s="0">
-        <f>VLOOKUP(A23,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A23,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C23" t="s" s="0">
         <v>327</v>
@@ -3086,7 +3086,7 @@
         <v>338</v>
       </c>
       <c r="B24" s="0">
-        <f>VLOOKUP(A24,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A24,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C24" t="s" s="0">
         <v>343</v>
@@ -3112,7 +3112,7 @@
         <v>338</v>
       </c>
       <c r="B25" s="0">
-        <f>VLOOKUP(A25,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A25,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C25" t="s" s="0">
         <v>352</v>
@@ -3138,7 +3138,7 @@
         <v>338</v>
       </c>
       <c r="B26" s="0">
-        <f>VLOOKUP(A26,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A26,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C26" t="s" s="0">
         <v>356</v>
@@ -3164,7 +3164,7 @@
         <v>338</v>
       </c>
       <c r="B27" s="0">
-        <f>VLOOKUP(A27,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A27,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C27" t="s" s="0">
         <v>366</v>
@@ -3190,7 +3190,7 @@
         <v>376</v>
       </c>
       <c r="B28" s="0">
-        <f>VLOOKUP(A28,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A28,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C28" t="s" s="0">
         <v>376</v>
@@ -3216,7 +3216,7 @@
         <v>376</v>
       </c>
       <c r="B29" s="0">
-        <f>VLOOKUP(A29,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A29,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C29" t="s" s="0">
         <v>409</v>
@@ -3242,7 +3242,7 @@
         <v>376</v>
       </c>
       <c r="B30" s="0">
-        <f>VLOOKUP(A30,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A30,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C30" t="s" s="0">
         <v>404</v>
@@ -3268,7 +3268,7 @@
         <v>376</v>
       </c>
       <c r="B31" s="0">
-        <f>VLOOKUP(A31,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A31,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C31" t="s" s="0">
         <v>407</v>
@@ -3294,7 +3294,7 @@
         <v>376</v>
       </c>
       <c r="B32" s="0">
-        <f>VLOOKUP(A32,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A32,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C32" t="s" s="0">
         <v>419</v>
@@ -3320,7 +3320,7 @@
         <v>472</v>
       </c>
       <c r="B33" s="0">
-        <f>VLOOKUP(A33,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A33,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C33" t="s" s="0">
         <v>472</v>
@@ -3346,7 +3346,7 @@
         <v>472</v>
       </c>
       <c r="B34" s="0">
-        <f>VLOOKUP(A34,Группы!A:B,2,0)</f>
+        <f>VLOOKUP(A34,'Группы'!A:B,2,0)</f>
       </c>
       <c r="C34" t="s" s="0">
         <v>572</v>
@@ -3447,7 +3447,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="0">
-        <f>VLOOKUP(B2,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B2,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D2" t="s" s="0">
         <v>60</v>
@@ -3497,7 +3497,7 @@
         <v>56</v>
       </c>
       <c r="C3" s="0">
-        <f>VLOOKUP(B3,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B3,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D3" t="s" s="0">
         <v>60</v>
@@ -3544,7 +3544,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="0">
-        <f>VLOOKUP(B4,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B4,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D4" t="s" s="0">
         <v>60</v>
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="0">
-        <f>VLOOKUP(B5,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B5,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D5" t="s" s="0">
         <v>60</v>
@@ -3641,7 +3641,7 @@
         <v>87</v>
       </c>
       <c r="C6" s="0">
-        <f>VLOOKUP(B6,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B6,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D6" t="s" s="0">
         <v>60</v>
@@ -3694,7 +3694,7 @@
         <v>87</v>
       </c>
       <c r="C7" s="0">
-        <f>VLOOKUP(B7,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B7,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D7" t="s" s="0">
         <v>60</v>
@@ -3744,7 +3744,7 @@
         <v>87</v>
       </c>
       <c r="C8" s="0">
-        <f>VLOOKUP(B8,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B8,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D8" t="s" s="0">
         <v>60</v>
@@ -3788,7 +3788,7 @@
         <v>87</v>
       </c>
       <c r="C9" s="0">
-        <f>VLOOKUP(B9,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B9,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D9" t="s" s="0">
         <v>60</v>
@@ -3838,7 +3838,7 @@
         <v>87</v>
       </c>
       <c r="C10" s="0">
-        <f>VLOOKUP(B10,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B10,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D10" t="s" s="0">
         <v>104</v>
@@ -3888,7 +3888,7 @@
         <v>108</v>
       </c>
       <c r="C11" s="0">
-        <f>VLOOKUP(B11,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B11,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D11" t="s" s="0">
         <v>60</v>
@@ -3941,7 +3941,7 @@
         <v>108</v>
       </c>
       <c r="C12" s="0">
-        <f>VLOOKUP(B12,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B12,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D12" t="s" s="0">
         <v>60</v>
@@ -3991,7 +3991,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="0">
-        <f>VLOOKUP(B13,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B13,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D13" t="s" s="0">
         <v>104</v>
@@ -4041,7 +4041,7 @@
         <v>112</v>
       </c>
       <c r="C14" s="0">
-        <f>VLOOKUP(B14,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B14,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D14" t="s" s="0">
         <v>60</v>
@@ -4094,7 +4094,7 @@
         <v>112</v>
       </c>
       <c r="C15" s="0">
-        <f>VLOOKUP(B15,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B15,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D15" t="s" s="0">
         <v>60</v>
@@ -4144,7 +4144,7 @@
         <v>112</v>
       </c>
       <c r="C16" s="0">
-        <f>VLOOKUP(B16,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B16,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D16" t="s" s="0">
         <v>60</v>
@@ -4194,7 +4194,7 @@
         <v>112</v>
       </c>
       <c r="C17" s="0">
-        <f>VLOOKUP(B17,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B17,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D17" t="s" s="0">
         <v>60</v>
@@ -4241,7 +4241,7 @@
         <v>112</v>
       </c>
       <c r="C18" s="0">
-        <f>VLOOKUP(B18,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B18,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D18" t="s" s="0">
         <v>60</v>
@@ -4288,7 +4288,7 @@
         <v>112</v>
       </c>
       <c r="C19" s="0">
-        <f>VLOOKUP(B19,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B19,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D19" t="s" s="0">
         <v>60</v>
@@ -4335,7 +4335,7 @@
         <v>112</v>
       </c>
       <c r="C20" s="0">
-        <f>VLOOKUP(B20,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B20,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D20" t="s" s="0">
         <v>104</v>
@@ -4385,7 +4385,7 @@
         <v>130</v>
       </c>
       <c r="C21" s="0">
-        <f>VLOOKUP(B21,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B21,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D21" t="s" s="0">
         <v>60</v>
@@ -4438,7 +4438,7 @@
         <v>130</v>
       </c>
       <c r="C22" s="0">
-        <f>VLOOKUP(B22,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B22,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D22" t="s" s="0">
         <v>60</v>
@@ -4488,7 +4488,7 @@
         <v>130</v>
       </c>
       <c r="C23" s="0">
-        <f>VLOOKUP(B23,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B23,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D23" t="s" s="0">
         <v>104</v>
@@ -4538,7 +4538,7 @@
         <v>136</v>
       </c>
       <c r="C24" s="0">
-        <f>VLOOKUP(B24,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B24,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D24" t="s" s="0">
         <v>60</v>
@@ -4591,7 +4591,7 @@
         <v>136</v>
       </c>
       <c r="C25" s="0">
-        <f>VLOOKUP(B25,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B25,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D25" t="s" s="0">
         <v>60</v>
@@ -4644,7 +4644,7 @@
         <v>136</v>
       </c>
       <c r="C26" s="0">
-        <f>VLOOKUP(B26,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B26,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D26" t="s" s="0">
         <v>60</v>
@@ -4697,7 +4697,7 @@
         <v>136</v>
       </c>
       <c r="C27" s="0">
-        <f>VLOOKUP(B27,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B27,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D27" t="s" s="0">
         <v>60</v>
@@ -4747,7 +4747,7 @@
         <v>136</v>
       </c>
       <c r="C28" s="0">
-        <f>VLOOKUP(B28,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B28,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D28" t="s" s="0">
         <v>60</v>
@@ -4797,7 +4797,7 @@
         <v>136</v>
       </c>
       <c r="C29" s="0">
-        <f>VLOOKUP(B29,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B29,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D29" t="s" s="0">
         <v>60</v>
@@ -4844,7 +4844,7 @@
         <v>136</v>
       </c>
       <c r="C30" s="0">
-        <f>VLOOKUP(B30,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B30,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D30" t="s" s="0">
         <v>60</v>
@@ -4891,7 +4891,7 @@
         <v>136</v>
       </c>
       <c r="C31" s="0">
-        <f>VLOOKUP(B31,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B31,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D31" t="s" s="0">
         <v>60</v>
@@ -4938,7 +4938,7 @@
         <v>136</v>
       </c>
       <c r="C32" s="0">
-        <f>VLOOKUP(B32,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B32,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D32" t="s" s="0">
         <v>104</v>
@@ -4988,7 +4988,7 @@
         <v>176</v>
       </c>
       <c r="C33" s="0">
-        <f>VLOOKUP(B33,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B33,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D33" t="s" s="0">
         <v>60</v>
@@ -5041,7 +5041,7 @@
         <v>176</v>
       </c>
       <c r="C34" s="0">
-        <f>VLOOKUP(B34,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B34,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D34" t="s" s="0">
         <v>60</v>
@@ -5091,7 +5091,7 @@
         <v>176</v>
       </c>
       <c r="C35" s="0">
-        <f>VLOOKUP(B35,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B35,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D35" t="s" s="0">
         <v>60</v>
@@ -5138,7 +5138,7 @@
         <v>176</v>
       </c>
       <c r="C36" s="0">
-        <f>VLOOKUP(B36,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B36,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D36" t="s" s="0">
         <v>60</v>
@@ -5182,7 +5182,7 @@
         <v>176</v>
       </c>
       <c r="C37" s="0">
-        <f>VLOOKUP(B37,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B37,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D37" t="s" s="0">
         <v>104</v>
@@ -5232,7 +5232,7 @@
         <v>184</v>
       </c>
       <c r="C38" s="0">
-        <f>VLOOKUP(B38,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B38,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D38" t="s" s="0">
         <v>60</v>
@@ -5285,7 +5285,7 @@
         <v>184</v>
       </c>
       <c r="C39" s="0">
-        <f>VLOOKUP(B39,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B39,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D39" t="s" s="0">
         <v>60</v>
@@ -5338,7 +5338,7 @@
         <v>184</v>
       </c>
       <c r="C40" s="0">
-        <f>VLOOKUP(B40,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B40,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D40" t="s" s="0">
         <v>60</v>
@@ -5388,7 +5388,7 @@
         <v>184</v>
       </c>
       <c r="C41" s="0">
-        <f>VLOOKUP(B41,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B41,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D41" t="s" s="0">
         <v>60</v>
@@ -5438,7 +5438,7 @@
         <v>184</v>
       </c>
       <c r="C42" s="0">
-        <f>VLOOKUP(B42,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B42,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D42" t="s" s="0">
         <v>60</v>
@@ -5485,7 +5485,7 @@
         <v>184</v>
       </c>
       <c r="C43" s="0">
-        <f>VLOOKUP(B43,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B43,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D43" t="s" s="0">
         <v>60</v>
@@ -5532,7 +5532,7 @@
         <v>184</v>
       </c>
       <c r="C44" s="0">
-        <f>VLOOKUP(B44,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B44,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D44" t="s" s="0">
         <v>104</v>
@@ -5582,7 +5582,7 @@
         <v>199</v>
       </c>
       <c r="C45" s="0">
-        <f>VLOOKUP(B45,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B45,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D45" t="s" s="0">
         <v>60</v>
@@ -5635,7 +5635,7 @@
         <v>199</v>
       </c>
       <c r="C46" s="0">
-        <f>VLOOKUP(B46,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B46,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D46" t="s" s="0">
         <v>60</v>
@@ -5685,7 +5685,7 @@
         <v>199</v>
       </c>
       <c r="C47" s="0">
-        <f>VLOOKUP(B47,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B47,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D47" t="s" s="0">
         <v>60</v>
@@ -5732,7 +5732,7 @@
         <v>199</v>
       </c>
       <c r="C48" s="0">
-        <f>VLOOKUP(B48,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B48,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D48" t="s" s="0">
         <v>60</v>
@@ -5782,7 +5782,7 @@
         <v>199</v>
       </c>
       <c r="C49" s="0">
-        <f>VLOOKUP(B49,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B49,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D49" t="s" s="0">
         <v>60</v>
@@ -5829,7 +5829,7 @@
         <v>199</v>
       </c>
       <c r="C50" s="0">
-        <f>VLOOKUP(B50,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B50,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D50" t="s" s="0">
         <v>104</v>
@@ -5879,7 +5879,7 @@
         <v>219</v>
       </c>
       <c r="C51" s="0">
-        <f>VLOOKUP(B51,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B51,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D51" t="s" s="0">
         <v>60</v>
@@ -5932,7 +5932,7 @@
         <v>219</v>
       </c>
       <c r="C52" s="0">
-        <f>VLOOKUP(B52,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B52,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D52" t="s" s="0">
         <v>60</v>
@@ -5982,7 +5982,7 @@
         <v>219</v>
       </c>
       <c r="C53" s="0">
-        <f>VLOOKUP(B53,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B53,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D53" t="s" s="0">
         <v>104</v>
@@ -6032,7 +6032,7 @@
         <v>224</v>
       </c>
       <c r="C54" s="0">
-        <f>VLOOKUP(B54,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B54,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D54" t="s" s="0">
         <v>60</v>
@@ -6085,7 +6085,7 @@
         <v>224</v>
       </c>
       <c r="C55" s="0">
-        <f>VLOOKUP(B55,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B55,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D55" t="s" s="0">
         <v>60</v>
@@ -6138,7 +6138,7 @@
         <v>224</v>
       </c>
       <c r="C56" s="0">
-        <f>VLOOKUP(B56,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B56,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D56" t="s" s="0">
         <v>60</v>
@@ -6185,7 +6185,7 @@
         <v>224</v>
       </c>
       <c r="C57" s="0">
-        <f>VLOOKUP(B57,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B57,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D57" t="s" s="0">
         <v>104</v>
@@ -6235,7 +6235,7 @@
         <v>241</v>
       </c>
       <c r="C58" s="0">
-        <f>VLOOKUP(B58,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B58,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D58" t="s" s="0">
         <v>60</v>
@@ -6288,7 +6288,7 @@
         <v>241</v>
       </c>
       <c r="C59" s="0">
-        <f>VLOOKUP(B59,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B59,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D59" t="s" s="0">
         <v>60</v>
@@ -6338,7 +6338,7 @@
         <v>241</v>
       </c>
       <c r="C60" s="0">
-        <f>VLOOKUP(B60,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B60,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D60" t="s" s="0">
         <v>104</v>
@@ -6388,7 +6388,7 @@
         <v>236</v>
       </c>
       <c r="C61" s="0">
-        <f>VLOOKUP(B61,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B61,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D61" t="s" s="0">
         <v>60</v>
@@ -6441,7 +6441,7 @@
         <v>236</v>
       </c>
       <c r="C62" s="0">
-        <f>VLOOKUP(B62,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B62,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D62" t="s" s="0">
         <v>60</v>
@@ -6494,7 +6494,7 @@
         <v>236</v>
       </c>
       <c r="C63" s="0">
-        <f>VLOOKUP(B63,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B63,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D63" t="s" s="0">
         <v>60</v>
@@ -6544,7 +6544,7 @@
         <v>236</v>
       </c>
       <c r="C64" s="0">
-        <f>VLOOKUP(B64,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B64,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D64" t="s" s="0">
         <v>60</v>
@@ -6594,7 +6594,7 @@
         <v>236</v>
       </c>
       <c r="C65" s="0">
-        <f>VLOOKUP(B65,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B65,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D65" t="s" s="0">
         <v>60</v>
@@ -6644,7 +6644,7 @@
         <v>236</v>
       </c>
       <c r="C66" s="0">
-        <f>VLOOKUP(B66,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B66,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D66" t="s" s="0">
         <v>60</v>
@@ -6694,7 +6694,7 @@
         <v>236</v>
       </c>
       <c r="C67" s="0">
-        <f>VLOOKUP(B67,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B67,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D67" t="s" s="0">
         <v>104</v>
@@ -6744,7 +6744,7 @@
         <v>267</v>
       </c>
       <c r="C68" s="0">
-        <f>VLOOKUP(B68,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B68,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D68" t="s" s="0">
         <v>60</v>
@@ -6797,7 +6797,7 @@
         <v>267</v>
       </c>
       <c r="C69" s="0">
-        <f>VLOOKUP(B69,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B69,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D69" t="s" s="0">
         <v>60</v>
@@ -6850,7 +6850,7 @@
         <v>267</v>
       </c>
       <c r="C70" s="0">
-        <f>VLOOKUP(B70,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B70,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D70" t="s" s="0">
         <v>60</v>
@@ -6900,7 +6900,7 @@
         <v>267</v>
       </c>
       <c r="C71" s="0">
-        <f>VLOOKUP(B71,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B71,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D71" t="s" s="0">
         <v>60</v>
@@ -6950,7 +6950,7 @@
         <v>267</v>
       </c>
       <c r="C72" s="0">
-        <f>VLOOKUP(B72,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B72,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D72" t="s" s="0">
         <v>60</v>
@@ -7000,7 +7000,7 @@
         <v>267</v>
       </c>
       <c r="C73" s="0">
-        <f>VLOOKUP(B73,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B73,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D73" t="s" s="0">
         <v>60</v>
@@ -7050,7 +7050,7 @@
         <v>267</v>
       </c>
       <c r="C74" s="0">
-        <f>VLOOKUP(B74,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B74,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D74" t="s" s="0">
         <v>104</v>
@@ -7100,7 +7100,7 @@
         <v>283</v>
       </c>
       <c r="C75" s="0">
-        <f>VLOOKUP(B75,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B75,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D75" t="s" s="0">
         <v>60</v>
@@ -7153,7 +7153,7 @@
         <v>283</v>
       </c>
       <c r="C76" s="0">
-        <f>VLOOKUP(B76,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B76,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D76" t="s" s="0">
         <v>60</v>
@@ -7203,7 +7203,7 @@
         <v>283</v>
       </c>
       <c r="C77" s="0">
-        <f>VLOOKUP(B77,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B77,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D77" t="s" s="0">
         <v>104</v>
@@ -7253,7 +7253,7 @@
         <v>287</v>
       </c>
       <c r="C78" s="0">
-        <f>VLOOKUP(B78,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B78,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D78" t="s" s="0">
         <v>60</v>
@@ -7306,7 +7306,7 @@
         <v>287</v>
       </c>
       <c r="C79" s="0">
-        <f>VLOOKUP(B79,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B79,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D79" t="s" s="0">
         <v>60</v>
@@ -7356,7 +7356,7 @@
         <v>287</v>
       </c>
       <c r="C80" s="0">
-        <f>VLOOKUP(B80,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B80,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D80" t="s" s="0">
         <v>104</v>
@@ -7406,7 +7406,7 @@
         <v>291</v>
       </c>
       <c r="C81" s="0">
-        <f>VLOOKUP(B81,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B81,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D81" t="s" s="0">
         <v>60</v>
@@ -7459,7 +7459,7 @@
         <v>291</v>
       </c>
       <c r="C82" s="0">
-        <f>VLOOKUP(B82,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B82,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D82" t="s" s="0">
         <v>60</v>
@@ -7509,7 +7509,7 @@
         <v>291</v>
       </c>
       <c r="C83" s="0">
-        <f>VLOOKUP(B83,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B83,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D83" t="s" s="0">
         <v>60</v>
@@ -7556,7 +7556,7 @@
         <v>291</v>
       </c>
       <c r="C84" s="0">
-        <f>VLOOKUP(B84,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B84,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D84" t="s" s="0">
         <v>60</v>
@@ -7603,7 +7603,7 @@
         <v>291</v>
       </c>
       <c r="C85" s="0">
-        <f>VLOOKUP(B85,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B85,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D85" t="s" s="0">
         <v>104</v>
@@ -7653,7 +7653,7 @@
         <v>309</v>
       </c>
       <c r="C86" s="0">
-        <f>VLOOKUP(B86,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B86,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D86" t="s" s="0">
         <v>60</v>
@@ -7706,7 +7706,7 @@
         <v>309</v>
       </c>
       <c r="C87" s="0">
-        <f>VLOOKUP(B87,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B87,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D87" t="s" s="0">
         <v>60</v>
@@ -7756,7 +7756,7 @@
         <v>309</v>
       </c>
       <c r="C88" s="0">
-        <f>VLOOKUP(B88,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B88,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D88" t="s" s="0">
         <v>104</v>
@@ -7806,7 +7806,7 @@
         <v>314</v>
       </c>
       <c r="C89" s="0">
-        <f>VLOOKUP(B89,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B89,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D89" t="s" s="0">
         <v>60</v>
@@ -7859,7 +7859,7 @@
         <v>314</v>
       </c>
       <c r="C90" s="0">
-        <f>VLOOKUP(B90,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B90,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D90" t="s" s="0">
         <v>60</v>
@@ -7909,7 +7909,7 @@
         <v>314</v>
       </c>
       <c r="C91" s="0">
-        <f>VLOOKUP(B91,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B91,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D91" t="s" s="0">
         <v>104</v>
@@ -7959,7 +7959,7 @@
         <v>319</v>
       </c>
       <c r="C92" s="0">
-        <f>VLOOKUP(B92,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B92,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D92" t="s" s="0">
         <v>60</v>
@@ -8012,7 +8012,7 @@
         <v>319</v>
       </c>
       <c r="C93" s="0">
-        <f>VLOOKUP(B93,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B93,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D93" t="s" s="0">
         <v>60</v>
@@ -8062,7 +8062,7 @@
         <v>319</v>
       </c>
       <c r="C94" s="0">
-        <f>VLOOKUP(B94,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B94,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D94" t="s" s="0">
         <v>104</v>
@@ -8112,7 +8112,7 @@
         <v>323</v>
       </c>
       <c r="C95" s="0">
-        <f>VLOOKUP(B95,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B95,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D95" t="s" s="0">
         <v>60</v>
@@ -8165,7 +8165,7 @@
         <v>323</v>
       </c>
       <c r="C96" s="0">
-        <f>VLOOKUP(B96,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B96,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D96" t="s" s="0">
         <v>60</v>
@@ -8215,7 +8215,7 @@
         <v>323</v>
       </c>
       <c r="C97" s="0">
-        <f>VLOOKUP(B97,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B97,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D97" t="s" s="0">
         <v>104</v>
@@ -8265,7 +8265,7 @@
         <v>327</v>
       </c>
       <c r="C98" s="0">
-        <f>VLOOKUP(B98,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B98,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D98" t="s" s="0">
         <v>60</v>
@@ -8318,7 +8318,7 @@
         <v>327</v>
       </c>
       <c r="C99" s="0">
-        <f>VLOOKUP(B99,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B99,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D99" t="s" s="0">
         <v>60</v>
@@ -8371,7 +8371,7 @@
         <v>327</v>
       </c>
       <c r="C100" s="0">
-        <f>VLOOKUP(B100,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B100,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D100" t="s" s="0">
         <v>60</v>
@@ -8421,7 +8421,7 @@
         <v>327</v>
       </c>
       <c r="C101" s="0">
-        <f>VLOOKUP(B101,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B101,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D101" t="s" s="0">
         <v>104</v>
@@ -8471,7 +8471,7 @@
         <v>343</v>
       </c>
       <c r="C102" s="0">
-        <f>VLOOKUP(B102,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B102,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D102" t="s" s="0">
         <v>60</v>
@@ -8524,7 +8524,7 @@
         <v>343</v>
       </c>
       <c r="C103" s="0">
-        <f>VLOOKUP(B103,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B103,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D103" t="s" s="0">
         <v>60</v>
@@ -8574,7 +8574,7 @@
         <v>343</v>
       </c>
       <c r="C104" s="0">
-        <f>VLOOKUP(B104,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B104,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D104" t="s" s="0">
         <v>60</v>
@@ -8624,7 +8624,7 @@
         <v>343</v>
       </c>
       <c r="C105" s="0">
-        <f>VLOOKUP(B105,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B105,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D105" t="s" s="0">
         <v>60</v>
@@ -8674,7 +8674,7 @@
         <v>343</v>
       </c>
       <c r="C106" s="0">
-        <f>VLOOKUP(B106,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B106,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D106" t="s" s="0">
         <v>104</v>
@@ -8724,7 +8724,7 @@
         <v>352</v>
       </c>
       <c r="C107" s="0">
-        <f>VLOOKUP(B107,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B107,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D107" t="s" s="0">
         <v>60</v>
@@ -8777,7 +8777,7 @@
         <v>352</v>
       </c>
       <c r="C108" s="0">
-        <f>VLOOKUP(B108,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B108,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D108" t="s" s="0">
         <v>60</v>
@@ -8827,7 +8827,7 @@
         <v>352</v>
       </c>
       <c r="C109" s="0">
-        <f>VLOOKUP(B109,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B109,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D109" t="s" s="0">
         <v>60</v>
@@ -8877,7 +8877,7 @@
         <v>352</v>
       </c>
       <c r="C110" s="0">
-        <f>VLOOKUP(B110,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B110,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D110" t="s" s="0">
         <v>104</v>
@@ -8927,7 +8927,7 @@
         <v>356</v>
       </c>
       <c r="C111" s="0">
-        <f>VLOOKUP(B111,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B111,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D111" t="s" s="0">
         <v>60</v>
@@ -8980,7 +8980,7 @@
         <v>356</v>
       </c>
       <c r="C112" s="0">
-        <f>VLOOKUP(B112,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B112,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D112" t="s" s="0">
         <v>60</v>
@@ -9033,7 +9033,7 @@
         <v>356</v>
       </c>
       <c r="C113" s="0">
-        <f>VLOOKUP(B113,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B113,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D113" t="s" s="0">
         <v>60</v>
@@ -9083,7 +9083,7 @@
         <v>356</v>
       </c>
       <c r="C114" s="0">
-        <f>VLOOKUP(B114,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B114,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D114" t="s" s="0">
         <v>60</v>
@@ -9133,7 +9133,7 @@
         <v>356</v>
       </c>
       <c r="C115" s="0">
-        <f>VLOOKUP(B115,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B115,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D115" t="s" s="0">
         <v>104</v>
@@ -9183,7 +9183,7 @@
         <v>366</v>
       </c>
       <c r="C116" s="0">
-        <f>VLOOKUP(B116,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B116,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D116" t="s" s="0">
         <v>60</v>
@@ -9236,7 +9236,7 @@
         <v>366</v>
       </c>
       <c r="C117" s="0">
-        <f>VLOOKUP(B117,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B117,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D117" t="s" s="0">
         <v>60</v>
@@ -9286,7 +9286,7 @@
         <v>366</v>
       </c>
       <c r="C118" s="0">
-        <f>VLOOKUP(B118,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B118,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D118" t="s" s="0">
         <v>60</v>
@@ -9336,7 +9336,7 @@
         <v>366</v>
       </c>
       <c r="C119" s="0">
-        <f>VLOOKUP(B119,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B119,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D119" t="s" s="0">
         <v>60</v>
@@ -9386,7 +9386,7 @@
         <v>366</v>
       </c>
       <c r="C120" s="0">
-        <f>VLOOKUP(B120,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B120,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D120" t="s" s="0">
         <v>104</v>
@@ -9436,7 +9436,7 @@
         <v>376</v>
       </c>
       <c r="C121" s="0">
-        <f>VLOOKUP(B121,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B121,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D121" t="s" s="0">
         <v>60</v>
@@ -9489,7 +9489,7 @@
         <v>376</v>
       </c>
       <c r="C122" s="0">
-        <f>VLOOKUP(B122,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B122,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D122" t="s" s="0">
         <v>60</v>
@@ -9539,7 +9539,7 @@
         <v>376</v>
       </c>
       <c r="C123" s="0">
-        <f>VLOOKUP(B123,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B123,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D123" t="s" s="0">
         <v>60</v>
@@ -9589,7 +9589,7 @@
         <v>376</v>
       </c>
       <c r="C124" s="0">
-        <f>VLOOKUP(B124,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B124,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D124" t="s" s="0">
         <v>60</v>
@@ -9639,7 +9639,7 @@
         <v>376</v>
       </c>
       <c r="C125" s="0">
-        <f>VLOOKUP(B125,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B125,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D125" t="s" s="0">
         <v>60</v>
@@ -9689,7 +9689,7 @@
         <v>376</v>
       </c>
       <c r="C126" s="0">
-        <f>VLOOKUP(B126,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B126,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D126" t="s" s="0">
         <v>60</v>
@@ -9739,7 +9739,7 @@
         <v>376</v>
       </c>
       <c r="C127" s="0">
-        <f>VLOOKUP(B127,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B127,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D127" t="s" s="0">
         <v>60</v>
@@ -9789,7 +9789,7 @@
         <v>376</v>
       </c>
       <c r="C128" s="0">
-        <f>VLOOKUP(B128,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B128,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D128" t="s" s="0">
         <v>60</v>
@@ -9839,7 +9839,7 @@
         <v>376</v>
       </c>
       <c r="C129" s="0">
-        <f>VLOOKUP(B129,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B129,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D129" t="s" s="0">
         <v>104</v>
@@ -9889,7 +9889,7 @@
         <v>409</v>
       </c>
       <c r="C130" s="0">
-        <f>VLOOKUP(B130,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B130,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D130" t="s" s="0">
         <v>60</v>
@@ -9942,7 +9942,7 @@
         <v>409</v>
       </c>
       <c r="C131" s="0">
-        <f>VLOOKUP(B131,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B131,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D131" t="s" s="0">
         <v>60</v>
@@ -9995,7 +9995,7 @@
         <v>409</v>
       </c>
       <c r="C132" s="0">
-        <f>VLOOKUP(B132,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B132,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D132" t="s" s="0">
         <v>104</v>
@@ -10045,7 +10045,7 @@
         <v>404</v>
       </c>
       <c r="C133" s="0">
-        <f>VLOOKUP(B133,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B133,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D133" t="s" s="0">
         <v>60</v>
@@ -10098,7 +10098,7 @@
         <v>404</v>
       </c>
       <c r="C134" s="0">
-        <f>VLOOKUP(B134,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B134,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D134" t="s" s="0">
         <v>60</v>
@@ -10148,7 +10148,7 @@
         <v>404</v>
       </c>
       <c r="C135" s="0">
-        <f>VLOOKUP(B135,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B135,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D135" t="s" s="0">
         <v>104</v>
@@ -10198,7 +10198,7 @@
         <v>407</v>
       </c>
       <c r="C136" s="0">
-        <f>VLOOKUP(B136,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B136,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D136" t="s" s="0">
         <v>60</v>
@@ -10251,7 +10251,7 @@
         <v>407</v>
       </c>
       <c r="C137" s="0">
-        <f>VLOOKUP(B137,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B137,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D137" t="s" s="0">
         <v>60</v>
@@ -10301,7 +10301,7 @@
         <v>407</v>
       </c>
       <c r="C138" s="0">
-        <f>VLOOKUP(B138,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B138,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D138" t="s" s="0">
         <v>104</v>
@@ -10351,7 +10351,7 @@
         <v>419</v>
       </c>
       <c r="C139" s="0">
-        <f>VLOOKUP(B139,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B139,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D139" t="s" s="0">
         <v>60</v>
@@ -10404,7 +10404,7 @@
         <v>419</v>
       </c>
       <c r="C140" s="0">
-        <f>VLOOKUP(B140,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B140,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D140" t="s" s="0">
         <v>60</v>
@@ -10457,7 +10457,7 @@
         <v>419</v>
       </c>
       <c r="C141" s="0">
-        <f>VLOOKUP(B141,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B141,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D141" t="s" s="0">
         <v>60</v>
@@ -10510,7 +10510,7 @@
         <v>419</v>
       </c>
       <c r="C142" s="0">
-        <f>VLOOKUP(B142,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B142,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D142" t="s" s="0">
         <v>60</v>
@@ -10560,7 +10560,7 @@
         <v>419</v>
       </c>
       <c r="C143" s="0">
-        <f>VLOOKUP(B143,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B143,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D143" t="s" s="0">
         <v>60</v>
@@ -10610,7 +10610,7 @@
         <v>419</v>
       </c>
       <c r="C144" s="0">
-        <f>VLOOKUP(B144,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B144,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D144" t="s" s="0">
         <v>60</v>
@@ -10660,7 +10660,7 @@
         <v>419</v>
       </c>
       <c r="C145" s="0">
-        <f>VLOOKUP(B145,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B145,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D145" t="s" s="0">
         <v>60</v>
@@ -10710,7 +10710,7 @@
         <v>419</v>
       </c>
       <c r="C146" s="0">
-        <f>VLOOKUP(B146,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B146,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D146" t="s" s="0">
         <v>60</v>
@@ -10760,7 +10760,7 @@
         <v>419</v>
       </c>
       <c r="C147" s="0">
-        <f>VLOOKUP(B147,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B147,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D147" t="s" s="0">
         <v>60</v>
@@ -10810,7 +10810,7 @@
         <v>419</v>
       </c>
       <c r="C148" s="0">
-        <f>VLOOKUP(B148,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B148,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D148" t="s" s="0">
         <v>60</v>
@@ -10860,7 +10860,7 @@
         <v>419</v>
       </c>
       <c r="C149" s="0">
-        <f>VLOOKUP(B149,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B149,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D149" t="s" s="0">
         <v>60</v>
@@ -10910,7 +10910,7 @@
         <v>419</v>
       </c>
       <c r="C150" s="0">
-        <f>VLOOKUP(B150,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B150,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D150" t="s" s="0">
         <v>60</v>
@@ -10960,7 +10960,7 @@
         <v>419</v>
       </c>
       <c r="C151" s="0">
-        <f>VLOOKUP(B151,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B151,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D151" t="s" s="0">
         <v>60</v>
@@ -11010,7 +11010,7 @@
         <v>419</v>
       </c>
       <c r="C152" s="0">
-        <f>VLOOKUP(B152,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B152,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D152" t="s" s="0">
         <v>60</v>
@@ -11060,7 +11060,7 @@
         <v>419</v>
       </c>
       <c r="C153" s="0">
-        <f>VLOOKUP(B153,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B153,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D153" t="s" s="0">
         <v>60</v>
@@ -11110,7 +11110,7 @@
         <v>419</v>
       </c>
       <c r="C154" s="0">
-        <f>VLOOKUP(B154,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B154,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D154" t="s" s="0">
         <v>60</v>
@@ -11160,7 +11160,7 @@
         <v>472</v>
       </c>
       <c r="C155" s="0">
-        <f>VLOOKUP(B155,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B155,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D155" t="s" s="0">
         <v>60</v>
@@ -11213,7 +11213,7 @@
         <v>472</v>
       </c>
       <c r="C156" s="0">
-        <f>VLOOKUP(B156,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B156,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D156" t="s" s="0">
         <v>60</v>
@@ -11263,7 +11263,7 @@
         <v>472</v>
       </c>
       <c r="C157" s="0">
-        <f>VLOOKUP(B157,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B157,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D157" t="s" s="0">
         <v>60</v>
@@ -11313,7 +11313,7 @@
         <v>472</v>
       </c>
       <c r="C158" s="0">
-        <f>VLOOKUP(B158,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B158,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D158" t="s" s="0">
         <v>60</v>
@@ -11363,7 +11363,7 @@
         <v>472</v>
       </c>
       <c r="C159" s="0">
-        <f>VLOOKUP(B159,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B159,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D159" t="s" s="0">
         <v>60</v>
@@ -11413,7 +11413,7 @@
         <v>472</v>
       </c>
       <c r="C160" s="0">
-        <f>VLOOKUP(B160,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B160,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D160" t="s" s="0">
         <v>60</v>
@@ -11463,7 +11463,7 @@
         <v>472</v>
       </c>
       <c r="C161" s="0">
-        <f>VLOOKUP(B161,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B161,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D161" t="s" s="0">
         <v>60</v>
@@ -11510,7 +11510,7 @@
         <v>472</v>
       </c>
       <c r="C162" s="0">
-        <f>VLOOKUP(B162,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B162,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D162" t="s" s="0">
         <v>60</v>
@@ -11557,7 +11557,7 @@
         <v>472</v>
       </c>
       <c r="C163" s="0">
-        <f>VLOOKUP(B163,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B163,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D163" t="s" s="0">
         <v>60</v>
@@ -11604,7 +11604,7 @@
         <v>472</v>
       </c>
       <c r="C164" s="0">
-        <f>VLOOKUP(B164,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B164,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D164" t="s" s="0">
         <v>60</v>
@@ -11654,7 +11654,7 @@
         <v>472</v>
       </c>
       <c r="C165" s="0">
-        <f>VLOOKUP(B165,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B165,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D165" t="s" s="0">
         <v>60</v>
@@ -11704,7 +11704,7 @@
         <v>472</v>
       </c>
       <c r="C166" s="0">
-        <f>VLOOKUP(B166,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B166,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D166" t="s" s="0">
         <v>60</v>
@@ -11754,7 +11754,7 @@
         <v>472</v>
       </c>
       <c r="C167" s="0">
-        <f>VLOOKUP(B167,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B167,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D167" t="s" s="0">
         <v>60</v>
@@ -11804,7 +11804,7 @@
         <v>472</v>
       </c>
       <c r="C168" s="0">
-        <f>VLOOKUP(B168,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B168,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D168" t="s" s="0">
         <v>60</v>
@@ -11851,7 +11851,7 @@
         <v>472</v>
       </c>
       <c r="C169" s="0">
-        <f>VLOOKUP(B169,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B169,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D169" t="s" s="0">
         <v>60</v>
@@ -11898,7 +11898,7 @@
         <v>472</v>
       </c>
       <c r="C170" s="0">
-        <f>VLOOKUP(B170,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B170,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D170" t="s" s="0">
         <v>60</v>
@@ -11945,7 +11945,7 @@
         <v>472</v>
       </c>
       <c r="C171" s="0">
-        <f>VLOOKUP(B171,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B171,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D171" t="s" s="0">
         <v>60</v>
@@ -11992,7 +11992,7 @@
         <v>472</v>
       </c>
       <c r="C172" s="0">
-        <f>VLOOKUP(B172,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B172,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D172" t="s" s="0">
         <v>60</v>
@@ -12039,7 +12039,7 @@
         <v>472</v>
       </c>
       <c r="C173" s="0">
-        <f>VLOOKUP(B173,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B173,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D173" t="s" s="0">
         <v>60</v>
@@ -12086,7 +12086,7 @@
         <v>472</v>
       </c>
       <c r="C174" s="0">
-        <f>VLOOKUP(B174,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B174,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D174" t="s" s="0">
         <v>60</v>
@@ -12133,7 +12133,7 @@
         <v>472</v>
       </c>
       <c r="C175" s="0">
-        <f>VLOOKUP(B175,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B175,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D175" t="s" s="0">
         <v>60</v>
@@ -12180,7 +12180,7 @@
         <v>472</v>
       </c>
       <c r="C176" s="0">
-        <f>VLOOKUP(B176,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B176,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D176" t="s" s="0">
         <v>60</v>
@@ -12227,7 +12227,7 @@
         <v>472</v>
       </c>
       <c r="C177" s="0">
-        <f>VLOOKUP(B177,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B177,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D177" t="s" s="0">
         <v>60</v>
@@ -12274,7 +12274,7 @@
         <v>472</v>
       </c>
       <c r="C178" s="0">
-        <f>VLOOKUP(B178,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B178,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D178" t="s" s="0">
         <v>60</v>
@@ -12324,7 +12324,7 @@
         <v>472</v>
       </c>
       <c r="C179" s="0">
-        <f>VLOOKUP(B179,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B179,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D179" t="s" s="0">
         <v>60</v>
@@ -12374,7 +12374,7 @@
         <v>472</v>
       </c>
       <c r="C180" s="0">
-        <f>VLOOKUP(B180,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B180,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D180" t="s" s="0">
         <v>60</v>
@@ -12424,7 +12424,7 @@
         <v>472</v>
       </c>
       <c r="C181" s="0">
-        <f>VLOOKUP(B181,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B181,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D181" t="s" s="0">
         <v>60</v>
@@ -12474,7 +12474,7 @@
         <v>472</v>
       </c>
       <c r="C182" s="0">
-        <f>VLOOKUP(B182,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B182,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D182" t="s" s="0">
         <v>60</v>
@@ -12524,7 +12524,7 @@
         <v>472</v>
       </c>
       <c r="C183" s="0">
-        <f>VLOOKUP(B183,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B183,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D183" t="s" s="0">
         <v>60</v>
@@ -12571,7 +12571,7 @@
         <v>472</v>
       </c>
       <c r="C184" s="0">
-        <f>VLOOKUP(B184,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B184,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D184" t="s" s="0">
         <v>60</v>
@@ -12618,7 +12618,7 @@
         <v>472</v>
       </c>
       <c r="C185" s="0">
-        <f>VLOOKUP(B185,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B185,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D185" t="s" s="0">
         <v>60</v>
@@ -12665,7 +12665,7 @@
         <v>472</v>
       </c>
       <c r="C186" s="0">
-        <f>VLOOKUP(B186,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B186,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D186" t="s" s="0">
         <v>104</v>
@@ -12715,7 +12715,7 @@
         <v>572</v>
       </c>
       <c r="C187" s="0">
-        <f>VLOOKUP(B187,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B187,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D187" t="s" s="0">
         <v>60</v>
@@ -12768,7 +12768,7 @@
         <v>572</v>
       </c>
       <c r="C188" s="0">
-        <f>VLOOKUP(B188,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B188,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D188" t="s" s="0">
         <v>60</v>
@@ -12821,7 +12821,7 @@
         <v>572</v>
       </c>
       <c r="C189" s="0">
-        <f>VLOOKUP(B189,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B189,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D189" t="s" s="0">
         <v>60</v>
@@ -12910,7 +12910,7 @@
         <v>291</v>
       </c>
       <c r="C2" s="0">
-        <f>VLOOKUP(B2,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B2,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D2" t="s" s="0">
         <v>297</v>
@@ -12933,7 +12933,7 @@
         <v>291</v>
       </c>
       <c r="C3" s="0">
-        <f>VLOOKUP(B3,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B3,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D3" t="s" s="0">
         <v>299</v>
@@ -12956,7 +12956,7 @@
         <v>472</v>
       </c>
       <c r="C4" s="0">
-        <f>VLOOKUP(B4,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B4,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D4" t="s" s="0">
         <v>543</v>
@@ -13012,22 +13012,22 @@
         <v>301</v>
       </c>
       <c r="B2" s="0">
-        <f>VLOOKUP(A2,Индексы!A:E,2,0)</f>
+        <f>VLOOKUP(A2,'Индексы'!A:E,2,0)</f>
       </c>
       <c r="C2" s="0">
-        <f>VLOOKUP(A2,Индексы!A:E,3,0)</f>
+        <f>VLOOKUP(A2,'Индексы'!A:E,3,0)</f>
       </c>
       <c r="D2" s="0">
-        <f>VLOOKUP(A2,Индексы!A:E,4,0)</f>
+        <f>VLOOKUP(A2,'Индексы'!A:E,4,0)</f>
       </c>
       <c r="E2" s="0">
-        <f>VLOOKUP(A2,Индексы!A:E,5,0)</f>
+        <f>VLOOKUP(A2,'Индексы'!A:E,5,0)</f>
       </c>
       <c r="F2" t="s" s="0">
         <v>296</v>
       </c>
       <c r="G2" s="0">
-        <f>VLOOKUP(B2&amp;"."&amp;F2,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B2&amp;"."&amp;F2,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="3">
@@ -13035,22 +13035,22 @@
         <v>303</v>
       </c>
       <c r="B3" s="0">
-        <f>VLOOKUP(A3,Индексы!A:E,2,0)</f>
+        <f>VLOOKUP(A3,'Индексы'!A:E,2,0)</f>
       </c>
       <c r="C3" s="0">
-        <f>VLOOKUP(A3,Индексы!A:E,3,0)</f>
+        <f>VLOOKUP(A3,'Индексы'!A:E,3,0)</f>
       </c>
       <c r="D3" s="0">
-        <f>VLOOKUP(A3,Индексы!A:E,4,0)</f>
+        <f>VLOOKUP(A3,'Индексы'!A:E,4,0)</f>
       </c>
       <c r="E3" s="0">
-        <f>VLOOKUP(A3,Индексы!A:E,5,0)</f>
+        <f>VLOOKUP(A3,'Индексы'!A:E,5,0)</f>
       </c>
       <c r="F3" t="s" s="0">
         <v>298</v>
       </c>
       <c r="G3" s="0">
-        <f>VLOOKUP(B3&amp;"."&amp;F3,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B3&amp;"."&amp;F3,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="4">
@@ -13058,22 +13058,22 @@
         <v>545</v>
       </c>
       <c r="B4" s="0">
-        <f>VLOOKUP(A4,Индексы!A:E,2,0)</f>
+        <f>VLOOKUP(A4,'Индексы'!A:E,2,0)</f>
       </c>
       <c r="C4" s="0">
-        <f>VLOOKUP(A4,Индексы!A:E,3,0)</f>
+        <f>VLOOKUP(A4,'Индексы'!A:E,3,0)</f>
       </c>
       <c r="D4" s="0">
-        <f>VLOOKUP(A4,Индексы!A:E,4,0)</f>
+        <f>VLOOKUP(A4,'Индексы'!A:E,4,0)</f>
       </c>
       <c r="E4" s="0">
-        <f>VLOOKUP(A4,Индексы!A:E,5,0)</f>
+        <f>VLOOKUP(A4,'Индексы'!A:E,5,0)</f>
       </c>
       <c r="F4" t="s" s="0">
         <v>229</v>
       </c>
       <c r="G4" s="0">
-        <f>VLOOKUP(B4&amp;"."&amp;F4,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B4&amp;"."&amp;F4,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="5">
@@ -13081,22 +13081,22 @@
         <v>545</v>
       </c>
       <c r="B5" s="0">
-        <f>VLOOKUP(A5,Индексы!A:E,2,0)</f>
+        <f>VLOOKUP(A5,'Индексы'!A:E,2,0)</f>
       </c>
       <c r="C5" s="0">
-        <f>VLOOKUP(A5,Индексы!A:E,3,0)</f>
+        <f>VLOOKUP(A5,'Индексы'!A:E,3,0)</f>
       </c>
       <c r="D5" s="0">
-        <f>VLOOKUP(A5,Индексы!A:E,4,0)</f>
+        <f>VLOOKUP(A5,'Индексы'!A:E,4,0)</f>
       </c>
       <c r="E5" s="0">
-        <f>VLOOKUP(A5,Индексы!A:E,5,0)</f>
+        <f>VLOOKUP(A5,'Индексы'!A:E,5,0)</f>
       </c>
       <c r="F5" t="s" s="0">
         <v>372</v>
       </c>
       <c r="G5" s="0">
-        <f>VLOOKUP(B5&amp;"."&amp;F5,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B5&amp;"."&amp;F5,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="6">
@@ -13104,22 +13104,22 @@
         <v>545</v>
       </c>
       <c r="B6" s="0">
-        <f>VLOOKUP(A6,Индексы!A:E,2,0)</f>
+        <f>VLOOKUP(A6,'Индексы'!A:E,2,0)</f>
       </c>
       <c r="C6" s="0">
-        <f>VLOOKUP(A6,Индексы!A:E,3,0)</f>
+        <f>VLOOKUP(A6,'Индексы'!A:E,3,0)</f>
       </c>
       <c r="D6" s="0">
-        <f>VLOOKUP(A6,Индексы!A:E,4,0)</f>
+        <f>VLOOKUP(A6,'Индексы'!A:E,4,0)</f>
       </c>
       <c r="E6" s="0">
-        <f>VLOOKUP(A6,Индексы!A:E,5,0)</f>
+        <f>VLOOKUP(A6,'Индексы'!A:E,5,0)</f>
       </c>
       <c r="F6" t="s" s="0">
         <v>485</v>
       </c>
       <c r="G6" s="0">
-        <f>VLOOKUP(B6&amp;"."&amp;F6,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B6&amp;"."&amp;F6,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="7">
@@ -13127,22 +13127,22 @@
         <v>545</v>
       </c>
       <c r="B7" s="0">
-        <f>VLOOKUP(A7,Индексы!A:E,2,0)</f>
+        <f>VLOOKUP(A7,'Индексы'!A:E,2,0)</f>
       </c>
       <c r="C7" s="0">
-        <f>VLOOKUP(A7,Индексы!A:E,3,0)</f>
+        <f>VLOOKUP(A7,'Индексы'!A:E,3,0)</f>
       </c>
       <c r="D7" s="0">
-        <f>VLOOKUP(A7,Индексы!A:E,4,0)</f>
+        <f>VLOOKUP(A7,'Индексы'!A:E,4,0)</f>
       </c>
       <c r="E7" s="0">
-        <f>VLOOKUP(A7,Индексы!A:E,5,0)</f>
+        <f>VLOOKUP(A7,'Индексы'!A:E,5,0)</f>
       </c>
       <c r="F7" t="s" s="0">
         <v>489</v>
       </c>
       <c r="G7" s="0">
-        <f>VLOOKUP(B7&amp;"."&amp;F7,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B7&amp;"."&amp;F7,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="8">
@@ -13150,22 +13150,22 @@
         <v>545</v>
       </c>
       <c r="B8" s="0">
-        <f>VLOOKUP(A8,Индексы!A:E,2,0)</f>
+        <f>VLOOKUP(A8,'Индексы'!A:E,2,0)</f>
       </c>
       <c r="C8" s="0">
-        <f>VLOOKUP(A8,Индексы!A:E,3,0)</f>
+        <f>VLOOKUP(A8,'Индексы'!A:E,3,0)</f>
       </c>
       <c r="D8" s="0">
-        <f>VLOOKUP(A8,Индексы!A:E,4,0)</f>
+        <f>VLOOKUP(A8,'Индексы'!A:E,4,0)</f>
       </c>
       <c r="E8" s="0">
-        <f>VLOOKUP(A8,Индексы!A:E,5,0)</f>
+        <f>VLOOKUP(A8,'Индексы'!A:E,5,0)</f>
       </c>
       <c r="F8" t="s" s="0">
         <v>493</v>
       </c>
       <c r="G8" s="0">
-        <f>VLOOKUP(B8&amp;"."&amp;F8,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B8&amp;"."&amp;F8,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
   </sheetData>
@@ -13224,7 +13224,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="0">
-        <f>VLOOKUP(B2,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B2,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D2" t="s" s="0">
         <v>101</v>
@@ -13239,7 +13239,7 @@
         <v>108</v>
       </c>
       <c r="H2" s="0">
-        <f>VLOOKUP(G2,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G2,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I2" t="s" s="0">
         <v>109</v>
@@ -13259,7 +13259,7 @@
         <v>136</v>
       </c>
       <c r="C3" s="0">
-        <f>VLOOKUP(B3,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B3,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D3" t="s" s="0">
         <v>138</v>
@@ -13274,7 +13274,7 @@
         <v>130</v>
       </c>
       <c r="H3" s="0">
-        <f>VLOOKUP(G3,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G3,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I3" t="s" s="0">
         <v>109</v>
@@ -13294,7 +13294,7 @@
         <v>136</v>
       </c>
       <c r="C4" s="0">
-        <f>VLOOKUP(B4,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B4,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D4" t="s" s="0">
         <v>140</v>
@@ -13309,7 +13309,7 @@
         <v>112</v>
       </c>
       <c r="H4" s="0">
-        <f>VLOOKUP(G4,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G4,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I4" t="s" s="0">
         <v>109</v>
@@ -13329,7 +13329,7 @@
         <v>136</v>
       </c>
       <c r="C5" s="0">
-        <f>VLOOKUP(B5,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B5,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D5" t="s" s="0">
         <v>143</v>
@@ -13344,7 +13344,7 @@
         <v>112</v>
       </c>
       <c r="H5" s="0">
-        <f>VLOOKUP(G5,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G5,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I5" t="s" s="0">
         <v>109</v>
@@ -13364,7 +13364,7 @@
         <v>184</v>
       </c>
       <c r="C6" s="0">
-        <f>VLOOKUP(B6,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B6,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D6" t="s" s="0">
         <v>101</v>
@@ -13379,7 +13379,7 @@
         <v>108</v>
       </c>
       <c r="H6" s="0">
-        <f>VLOOKUP(G6,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G6,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I6" t="s" s="0">
         <v>109</v>
@@ -13399,7 +13399,7 @@
         <v>184</v>
       </c>
       <c r="C7" s="0">
-        <f>VLOOKUP(B7,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B7,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D7" t="s" s="0">
         <v>188</v>
@@ -13414,7 +13414,7 @@
         <v>176</v>
       </c>
       <c r="H7" s="0">
-        <f>VLOOKUP(G7,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G7,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I7" t="s" s="0">
         <v>109</v>
@@ -13434,7 +13434,7 @@
         <v>199</v>
       </c>
       <c r="C8" s="0">
-        <f>VLOOKUP(B8,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B8,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D8" t="s" s="0">
         <v>214</v>
@@ -13449,7 +13449,7 @@
         <v>199</v>
       </c>
       <c r="H8" s="0">
-        <f>VLOOKUP(G8,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G8,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I8" t="s" s="0">
         <v>109</v>
@@ -13469,7 +13469,7 @@
         <v>224</v>
       </c>
       <c r="C9" s="0">
-        <f>VLOOKUP(B9,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B9,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D9" t="s" s="0">
         <v>229</v>
@@ -13484,7 +13484,7 @@
         <v>199</v>
       </c>
       <c r="H9" s="0">
-        <f>VLOOKUP(G9,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G9,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I9" t="s" s="0">
         <v>109</v>
@@ -13504,7 +13504,7 @@
         <v>224</v>
       </c>
       <c r="C10" s="0">
-        <f>VLOOKUP(B10,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B10,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D10" t="s" s="0">
         <v>227</v>
@@ -13519,7 +13519,7 @@
         <v>219</v>
       </c>
       <c r="H10" s="0">
-        <f>VLOOKUP(G10,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G10,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I10" t="s" s="0">
         <v>109</v>
@@ -13539,7 +13539,7 @@
         <v>236</v>
       </c>
       <c r="C11" s="0">
-        <f>VLOOKUP(B11,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B11,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D11" t="s" s="0">
         <v>248</v>
@@ -13554,7 +13554,7 @@
         <v>241</v>
       </c>
       <c r="H11" s="0">
-        <f>VLOOKUP(G11,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G11,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I11" t="s" s="0">
         <v>109</v>
@@ -13574,7 +13574,7 @@
         <v>236</v>
       </c>
       <c r="C12" s="0">
-        <f>VLOOKUP(B12,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B12,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D12" t="s" s="0">
         <v>261</v>
@@ -13589,7 +13589,7 @@
         <v>267</v>
       </c>
       <c r="H12" s="0">
-        <f>VLOOKUP(G12,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G12,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I12" t="s" s="0">
         <v>109</v>
@@ -13609,7 +13609,7 @@
         <v>267</v>
       </c>
       <c r="C13" s="0">
-        <f>VLOOKUP(B13,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B13,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D13" t="s" s="0">
         <v>248</v>
@@ -13624,7 +13624,7 @@
         <v>241</v>
       </c>
       <c r="H13" s="0">
-        <f>VLOOKUP(G13,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G13,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I13" t="s" s="0">
         <v>109</v>
@@ -13644,7 +13644,7 @@
         <v>291</v>
       </c>
       <c r="C14" s="0">
-        <f>VLOOKUP(B14,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B14,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D14" t="s" s="0">
         <v>296</v>
@@ -13659,7 +13659,7 @@
         <v>283</v>
       </c>
       <c r="H14" s="0">
-        <f>VLOOKUP(G14,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G14,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I14" t="s" s="0">
         <v>109</v>
@@ -13679,7 +13679,7 @@
         <v>291</v>
       </c>
       <c r="C15" s="0">
-        <f>VLOOKUP(B15,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B15,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D15" t="s" s="0">
         <v>298</v>
@@ -13694,7 +13694,7 @@
         <v>287</v>
       </c>
       <c r="H15" s="0">
-        <f>VLOOKUP(G15,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G15,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I15" t="s" s="0">
         <v>109</v>
@@ -13714,7 +13714,7 @@
         <v>327</v>
       </c>
       <c r="C16" s="0">
-        <f>VLOOKUP(B16,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B16,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D16" t="s" s="0">
         <v>330</v>
@@ -13729,7 +13729,7 @@
         <v>323</v>
       </c>
       <c r="H16" s="0">
-        <f>VLOOKUP(G16,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G16,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I16" t="s" s="0">
         <v>109</v>
@@ -13749,7 +13749,7 @@
         <v>343</v>
       </c>
       <c r="C17" s="0">
-        <f>VLOOKUP(B17,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B17,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D17" t="s" s="0">
         <v>348</v>
@@ -13764,7 +13764,7 @@
         <v>176</v>
       </c>
       <c r="H17" s="0">
-        <f>VLOOKUP(G17,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G17,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I17" t="s" s="0">
         <v>109</v>
@@ -13784,7 +13784,7 @@
         <v>356</v>
       </c>
       <c r="C18" s="0">
-        <f>VLOOKUP(B18,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B18,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D18" t="s" s="0">
         <v>358</v>
@@ -13799,7 +13799,7 @@
         <v>352</v>
       </c>
       <c r="H18" s="0">
-        <f>VLOOKUP(G18,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G18,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I18" t="s" s="0">
         <v>109</v>
@@ -13819,7 +13819,7 @@
         <v>366</v>
       </c>
       <c r="C19" s="0">
-        <f>VLOOKUP(B19,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B19,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D19" t="s" s="0">
         <v>372</v>
@@ -13834,7 +13834,7 @@
         <v>376</v>
       </c>
       <c r="H19" s="0">
-        <f>VLOOKUP(G19,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G19,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I19" t="s" s="0">
         <v>109</v>
@@ -13854,7 +13854,7 @@
         <v>376</v>
       </c>
       <c r="C20" s="0">
-        <f>VLOOKUP(B20,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B20,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D20" t="s" s="0">
         <v>383</v>
@@ -13869,7 +13869,7 @@
         <v>87</v>
       </c>
       <c r="H20" s="0">
-        <f>VLOOKUP(G20,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G20,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I20" t="s" s="0">
         <v>109</v>
@@ -13889,7 +13889,7 @@
         <v>376</v>
       </c>
       <c r="C21" s="0">
-        <f>VLOOKUP(B21,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B21,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D21" t="s" s="0">
         <v>101</v>
@@ -13904,7 +13904,7 @@
         <v>108</v>
       </c>
       <c r="H21" s="0">
-        <f>VLOOKUP(G21,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G21,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I21" t="s" s="0">
         <v>109</v>
@@ -13924,7 +13924,7 @@
         <v>376</v>
       </c>
       <c r="C22" s="0">
-        <f>VLOOKUP(B22,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B22,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D22" t="s" s="0">
         <v>385</v>
@@ -13939,7 +13939,7 @@
         <v>112</v>
       </c>
       <c r="H22" s="0">
-        <f>VLOOKUP(G22,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G22,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I22" t="s" s="0">
         <v>109</v>
@@ -13959,7 +13959,7 @@
         <v>376</v>
       </c>
       <c r="C23" s="0">
-        <f>VLOOKUP(B23,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B23,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D23" t="s" s="0">
         <v>248</v>
@@ -13974,7 +13974,7 @@
         <v>241</v>
       </c>
       <c r="H23" s="0">
-        <f>VLOOKUP(G23,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G23,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I23" t="s" s="0">
         <v>109</v>
@@ -13994,7 +13994,7 @@
         <v>376</v>
       </c>
       <c r="C24" s="0">
-        <f>VLOOKUP(B24,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B24,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D24" t="s" s="0">
         <v>388</v>
@@ -14009,7 +14009,7 @@
         <v>404</v>
       </c>
       <c r="H24" s="0">
-        <f>VLOOKUP(G24,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G24,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I24" t="s" s="0">
         <v>109</v>
@@ -14029,7 +14029,7 @@
         <v>376</v>
       </c>
       <c r="C25" s="0">
-        <f>VLOOKUP(B25,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B25,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D25" t="s" s="0">
         <v>392</v>
@@ -14044,7 +14044,7 @@
         <v>407</v>
       </c>
       <c r="H25" s="0">
-        <f>VLOOKUP(G25,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G25,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I25" t="s" s="0">
         <v>109</v>
@@ -14064,7 +14064,7 @@
         <v>409</v>
       </c>
       <c r="C26" s="0">
-        <f>VLOOKUP(B26,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B26,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D26" t="s" s="0">
         <v>372</v>
@@ -14079,7 +14079,7 @@
         <v>376</v>
       </c>
       <c r="H26" s="0">
-        <f>VLOOKUP(G26,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G26,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I26" t="s" s="0">
         <v>109</v>
@@ -14099,7 +14099,7 @@
         <v>409</v>
       </c>
       <c r="C27" s="0">
-        <f>VLOOKUP(B27,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B27,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D27" t="s" s="0">
         <v>229</v>
@@ -14114,7 +14114,7 @@
         <v>199</v>
       </c>
       <c r="H27" s="0">
-        <f>VLOOKUP(G27,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G27,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I27" t="s" s="0">
         <v>109</v>
@@ -14134,7 +14134,7 @@
         <v>419</v>
       </c>
       <c r="C28" s="0">
-        <f>VLOOKUP(B28,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B28,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D28" t="s" s="0">
         <v>392</v>
@@ -14149,7 +14149,7 @@
         <v>407</v>
       </c>
       <c r="H28" s="0">
-        <f>VLOOKUP(G28,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G28,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I28" t="s" s="0">
         <v>109</v>
@@ -14169,7 +14169,7 @@
         <v>472</v>
       </c>
       <c r="C29" s="0">
-        <f>VLOOKUP(B29,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B29,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D29" t="s" s="0">
         <v>229</v>
@@ -14184,7 +14184,7 @@
         <v>199</v>
       </c>
       <c r="H29" s="0">
-        <f>VLOOKUP(G29,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G29,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I29" t="s" s="0">
         <v>109</v>
@@ -14204,7 +14204,7 @@
         <v>472</v>
       </c>
       <c r="C30" s="0">
-        <f>VLOOKUP(B30,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B30,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D30" t="s" s="0">
         <v>372</v>
@@ -14219,7 +14219,7 @@
         <v>376</v>
       </c>
       <c r="H30" s="0">
-        <f>VLOOKUP(G30,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G30,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I30" t="s" s="0">
         <v>109</v>
@@ -14239,7 +14239,7 @@
         <v>472</v>
       </c>
       <c r="C31" s="0">
-        <f>VLOOKUP(B31,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B31,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D31" t="s" s="0">
         <v>251</v>
@@ -14254,7 +14254,7 @@
         <v>236</v>
       </c>
       <c r="H31" s="0">
-        <f>VLOOKUP(G31,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G31,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I31" t="s" s="0">
         <v>109</v>
@@ -14274,7 +14274,7 @@
         <v>472</v>
       </c>
       <c r="C32" s="0">
-        <f>VLOOKUP(B32,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B32,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D32" t="s" s="0">
         <v>296</v>
@@ -14289,7 +14289,7 @@
         <v>283</v>
       </c>
       <c r="H32" s="0">
-        <f>VLOOKUP(G32,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G32,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I32" t="s" s="0">
         <v>109</v>
@@ -14309,7 +14309,7 @@
         <v>472</v>
       </c>
       <c r="C33" s="0">
-        <f>VLOOKUP(B33,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B33,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D33" t="s" s="0">
         <v>298</v>
@@ -14324,7 +14324,7 @@
         <v>287</v>
       </c>
       <c r="H33" s="0">
-        <f>VLOOKUP(G33,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G33,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I33" t="s" s="0">
         <v>109</v>
@@ -14344,7 +14344,7 @@
         <v>472</v>
       </c>
       <c r="C34" s="0">
-        <f>VLOOKUP(B34,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B34,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D34" t="s" s="0">
         <v>510</v>
@@ -14359,7 +14359,7 @@
         <v>291</v>
       </c>
       <c r="H34" s="0">
-        <f>VLOOKUP(G34,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G34,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I34" t="s" s="0">
         <v>109</v>
@@ -14379,7 +14379,7 @@
         <v>472</v>
       </c>
       <c r="C35" s="0">
-        <f>VLOOKUP(B35,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B35,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D35" t="s" s="0">
         <v>512</v>
@@ -14394,7 +14394,7 @@
         <v>309</v>
       </c>
       <c r="H35" s="0">
-        <f>VLOOKUP(G35,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G35,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I35" t="s" s="0">
         <v>109</v>
@@ -14414,7 +14414,7 @@
         <v>472</v>
       </c>
       <c r="C36" s="0">
-        <f>VLOOKUP(B36,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B36,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D36" t="s" s="0">
         <v>514</v>
@@ -14429,7 +14429,7 @@
         <v>314</v>
       </c>
       <c r="H36" s="0">
-        <f>VLOOKUP(G36,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G36,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I36" t="s" s="0">
         <v>109</v>
@@ -14449,7 +14449,7 @@
         <v>472</v>
       </c>
       <c r="C37" s="0">
-        <f>VLOOKUP(B37,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B37,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D37" t="s" s="0">
         <v>516</v>
@@ -14464,7 +14464,7 @@
         <v>319</v>
       </c>
       <c r="H37" s="0">
-        <f>VLOOKUP(G37,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G37,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I37" t="s" s="0">
         <v>109</v>
@@ -14484,7 +14484,7 @@
         <v>472</v>
       </c>
       <c r="C38" s="0">
-        <f>VLOOKUP(B38,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B38,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D38" t="s" s="0">
         <v>518</v>
@@ -14499,7 +14499,7 @@
         <v>366</v>
       </c>
       <c r="H38" s="0">
-        <f>VLOOKUP(G38,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G38,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I38" t="s" s="0">
         <v>109</v>
@@ -14519,7 +14519,7 @@
         <v>472</v>
       </c>
       <c r="C39" s="0">
-        <f>VLOOKUP(B39,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B39,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D39" t="s" s="0">
         <v>358</v>
@@ -14534,7 +14534,7 @@
         <v>352</v>
       </c>
       <c r="H39" s="0">
-        <f>VLOOKUP(G39,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G39,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I39" t="s" s="0">
         <v>109</v>
@@ -14554,7 +14554,7 @@
         <v>472</v>
       </c>
       <c r="C40" s="0">
-        <f>VLOOKUP(B40,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B40,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D40" t="s" s="0">
         <v>361</v>
@@ -14569,7 +14569,7 @@
         <v>356</v>
       </c>
       <c r="H40" s="0">
-        <f>VLOOKUP(G40,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G40,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I40" t="s" s="0">
         <v>109</v>
@@ -14589,7 +14589,7 @@
         <v>472</v>
       </c>
       <c r="C41" s="0">
-        <f>VLOOKUP(B41,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B41,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D41" t="s" s="0">
         <v>520</v>
@@ -14604,7 +14604,7 @@
         <v>343</v>
       </c>
       <c r="H41" s="0">
-        <f>VLOOKUP(G41,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G41,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I41" t="s" s="0">
         <v>109</v>
@@ -14624,7 +14624,7 @@
         <v>472</v>
       </c>
       <c r="C42" s="0">
-        <f>VLOOKUP(B42,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B42,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D42" t="s" s="0">
         <v>530</v>
@@ -14639,7 +14639,7 @@
         <v>112</v>
       </c>
       <c r="H42" s="0">
-        <f>VLOOKUP(G42,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G42,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I42" t="s" s="0">
         <v>109</v>
@@ -14659,7 +14659,7 @@
         <v>472</v>
       </c>
       <c r="C43" s="0">
-        <f>VLOOKUP(B43,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B43,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D43" t="s" s="0">
         <v>536</v>
@@ -14674,7 +14674,7 @@
         <v>112</v>
       </c>
       <c r="H43" s="0">
-        <f>VLOOKUP(G43,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G43,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I43" t="s" s="0">
         <v>109</v>
@@ -14694,7 +14694,7 @@
         <v>472</v>
       </c>
       <c r="C44" s="0">
-        <f>VLOOKUP(B44,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B44,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D44" t="s" s="0">
         <v>188</v>
@@ -14709,7 +14709,7 @@
         <v>176</v>
       </c>
       <c r="H44" s="0">
-        <f>VLOOKUP(G44,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G44,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I44" t="s" s="0">
         <v>109</v>
@@ -14729,7 +14729,7 @@
         <v>472</v>
       </c>
       <c r="C45" s="0">
-        <f>VLOOKUP(B45,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B45,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D45" t="s" s="0">
         <v>348</v>
@@ -14744,7 +14744,7 @@
         <v>176</v>
       </c>
       <c r="H45" s="0">
-        <f>VLOOKUP(G45,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G45,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I45" t="s" s="0">
         <v>109</v>
@@ -14764,7 +14764,7 @@
         <v>572</v>
       </c>
       <c r="C46" s="0">
-        <f>VLOOKUP(B46,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B46,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D46" t="s" s="0">
         <v>480</v>
@@ -14779,7 +14779,7 @@
         <v>472</v>
       </c>
       <c r="H46" s="0">
-        <f>VLOOKUP(G46,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G46,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I46" t="s" s="0">
         <v>109</v>
@@ -14799,7 +14799,7 @@
         <v>572</v>
       </c>
       <c r="C47" s="0">
-        <f>VLOOKUP(B47,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(B47,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="D47" t="s" s="0">
         <v>333</v>
@@ -14814,7 +14814,7 @@
         <v>327</v>
       </c>
       <c r="H47" s="0">
-        <f>VLOOKUP(G47,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(G47,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="I47" t="s" s="0">
         <v>109</v>
@@ -14879,34 +14879,34 @@
         <v>110</v>
       </c>
       <c r="B2" s="0">
-        <f>VLOOKUP(A2,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A2,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C2" s="0">
-        <f>VLOOKUP(A2,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A2,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D2" t="s" s="0">
         <v>108</v>
       </c>
       <c r="E2" s="0">
-        <f>VLOOKUP(D2,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D2,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F2" s="0">
-        <f>VLOOKUP(A2,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A2,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G2" s="0">
-        <f>VLOOKUP(A2,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A2,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H2" t="s" s="0">
         <v>101</v>
       </c>
       <c r="I2" s="0">
-        <f>VLOOKUP(B2&amp;"."&amp;H2,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B2&amp;"."&amp;H2,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J2" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K2" s="0">
-        <f>VLOOKUP(D2&amp;"."&amp;J2,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D2&amp;"."&amp;J2,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="3">
@@ -14914,34 +14914,34 @@
         <v>171</v>
       </c>
       <c r="B3" s="0">
-        <f>VLOOKUP(A3,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A3,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C3" s="0">
-        <f>VLOOKUP(A3,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A3,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D3" t="s" s="0">
         <v>130</v>
       </c>
       <c r="E3" s="0">
-        <f>VLOOKUP(D3,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D3,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F3" s="0">
-        <f>VLOOKUP(A3,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A3,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G3" s="0">
-        <f>VLOOKUP(A3,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A3,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H3" t="s" s="0">
         <v>138</v>
       </c>
       <c r="I3" s="0">
-        <f>VLOOKUP(B3&amp;"."&amp;H3,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B3&amp;"."&amp;H3,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J3" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K3" s="0">
-        <f>VLOOKUP(D3&amp;"."&amp;J3,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D3&amp;"."&amp;J3,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="4">
@@ -14949,34 +14949,34 @@
         <v>173</v>
       </c>
       <c r="B4" s="0">
-        <f>VLOOKUP(A4,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A4,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C4" s="0">
-        <f>VLOOKUP(A4,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A4,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D4" t="s" s="0">
         <v>112</v>
       </c>
       <c r="E4" s="0">
-        <f>VLOOKUP(D4,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D4,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F4" s="0">
-        <f>VLOOKUP(A4,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A4,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G4" s="0">
-        <f>VLOOKUP(A4,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A4,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H4" t="s" s="0">
         <v>140</v>
       </c>
       <c r="I4" s="0">
-        <f>VLOOKUP(B4&amp;"."&amp;H4,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B4&amp;"."&amp;H4,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J4" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K4" s="0">
-        <f>VLOOKUP(D4&amp;"."&amp;J4,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D4&amp;"."&amp;J4,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="5">
@@ -14984,34 +14984,34 @@
         <v>175</v>
       </c>
       <c r="B5" s="0">
-        <f>VLOOKUP(A5,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A5,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C5" s="0">
-        <f>VLOOKUP(A5,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A5,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D5" t="s" s="0">
         <v>112</v>
       </c>
       <c r="E5" s="0">
-        <f>VLOOKUP(D5,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D5,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F5" s="0">
-        <f>VLOOKUP(A5,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A5,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G5" s="0">
-        <f>VLOOKUP(A5,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A5,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H5" t="s" s="0">
         <v>143</v>
       </c>
       <c r="I5" s="0">
-        <f>VLOOKUP(B5&amp;"."&amp;H5,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B5&amp;"."&amp;H5,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J5" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K5" s="0">
-        <f>VLOOKUP(D5&amp;"."&amp;J5,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D5&amp;"."&amp;J5,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="6">
@@ -15019,34 +15019,34 @@
         <v>196</v>
       </c>
       <c r="B6" s="0">
-        <f>VLOOKUP(A6,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A6,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C6" s="0">
-        <f>VLOOKUP(A6,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A6,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D6" t="s" s="0">
         <v>108</v>
       </c>
       <c r="E6" s="0">
-        <f>VLOOKUP(D6,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D6,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F6" s="0">
-        <f>VLOOKUP(A6,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A6,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G6" s="0">
-        <f>VLOOKUP(A6,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A6,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H6" t="s" s="0">
         <v>101</v>
       </c>
       <c r="I6" s="0">
-        <f>VLOOKUP(B6&amp;"."&amp;H6,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B6&amp;"."&amp;H6,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J6" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K6" s="0">
-        <f>VLOOKUP(D6&amp;"."&amp;J6,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D6&amp;"."&amp;J6,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="7">
@@ -15054,34 +15054,34 @@
         <v>198</v>
       </c>
       <c r="B7" s="0">
-        <f>VLOOKUP(A7,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A7,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C7" s="0">
-        <f>VLOOKUP(A7,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A7,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D7" t="s" s="0">
         <v>176</v>
       </c>
       <c r="E7" s="0">
-        <f>VLOOKUP(D7,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D7,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F7" s="0">
-        <f>VLOOKUP(A7,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A7,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G7" s="0">
-        <f>VLOOKUP(A7,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A7,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H7" t="s" s="0">
         <v>188</v>
       </c>
       <c r="I7" s="0">
-        <f>VLOOKUP(B7&amp;"."&amp;H7,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B7&amp;"."&amp;H7,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J7" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K7" s="0">
-        <f>VLOOKUP(D7&amp;"."&amp;J7,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D7&amp;"."&amp;J7,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="8">
@@ -15089,34 +15089,34 @@
         <v>218</v>
       </c>
       <c r="B8" s="0">
-        <f>VLOOKUP(A8,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A8,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C8" s="0">
-        <f>VLOOKUP(A8,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A8,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D8" t="s" s="0">
         <v>199</v>
       </c>
       <c r="E8" s="0">
-        <f>VLOOKUP(D8,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D8,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F8" s="0">
-        <f>VLOOKUP(A8,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A8,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G8" s="0">
-        <f>VLOOKUP(A8,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A8,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H8" t="s" s="0">
         <v>214</v>
       </c>
       <c r="I8" s="0">
-        <f>VLOOKUP(B8&amp;"."&amp;H8,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B8&amp;"."&amp;H8,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J8" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K8" s="0">
-        <f>VLOOKUP(D8&amp;"."&amp;J8,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D8&amp;"."&amp;J8,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="9">
@@ -15124,34 +15124,34 @@
         <v>233</v>
       </c>
       <c r="B9" s="0">
-        <f>VLOOKUP(A9,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A9,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C9" s="0">
-        <f>VLOOKUP(A9,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A9,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D9" t="s" s="0">
         <v>199</v>
       </c>
       <c r="E9" s="0">
-        <f>VLOOKUP(D9,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D9,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F9" s="0">
-        <f>VLOOKUP(A9,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A9,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G9" s="0">
-        <f>VLOOKUP(A9,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A9,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H9" t="s" s="0">
         <v>229</v>
       </c>
       <c r="I9" s="0">
-        <f>VLOOKUP(B9&amp;"."&amp;H9,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B9&amp;"."&amp;H9,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J9" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K9" s="0">
-        <f>VLOOKUP(D9&amp;"."&amp;J9,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D9&amp;"."&amp;J9,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="10">
@@ -15159,34 +15159,34 @@
         <v>235</v>
       </c>
       <c r="B10" s="0">
-        <f>VLOOKUP(A10,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A10,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C10" s="0">
-        <f>VLOOKUP(A10,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A10,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D10" t="s" s="0">
         <v>219</v>
       </c>
       <c r="E10" s="0">
-        <f>VLOOKUP(D10,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D10,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F10" s="0">
-        <f>VLOOKUP(A10,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A10,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G10" s="0">
-        <f>VLOOKUP(A10,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A10,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H10" t="s" s="0">
         <v>227</v>
       </c>
       <c r="I10" s="0">
-        <f>VLOOKUP(B10&amp;"."&amp;H10,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B10&amp;"."&amp;H10,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J10" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K10" s="0">
-        <f>VLOOKUP(D10&amp;"."&amp;J10,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D10&amp;"."&amp;J10,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="11">
@@ -15194,34 +15194,34 @@
         <v>265</v>
       </c>
       <c r="B11" s="0">
-        <f>VLOOKUP(A11,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A11,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C11" s="0">
-        <f>VLOOKUP(A11,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A11,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D11" t="s" s="0">
         <v>241</v>
       </c>
       <c r="E11" s="0">
-        <f>VLOOKUP(D11,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D11,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F11" s="0">
-        <f>VLOOKUP(A11,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A11,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G11" s="0">
-        <f>VLOOKUP(A11,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A11,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H11" t="s" s="0">
         <v>248</v>
       </c>
       <c r="I11" s="0">
-        <f>VLOOKUP(B11&amp;"."&amp;H11,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B11&amp;"."&amp;H11,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J11" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K11" s="0">
-        <f>VLOOKUP(D11&amp;"."&amp;J11,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D11&amp;"."&amp;J11,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="12">
@@ -15229,34 +15229,34 @@
         <v>268</v>
       </c>
       <c r="B12" s="0">
-        <f>VLOOKUP(A12,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A12,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C12" s="0">
-        <f>VLOOKUP(A12,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A12,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D12" t="s" s="0">
         <v>267</v>
       </c>
       <c r="E12" s="0">
-        <f>VLOOKUP(D12,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D12,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F12" s="0">
-        <f>VLOOKUP(A12,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A12,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G12" s="0">
-        <f>VLOOKUP(A12,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A12,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H12" t="s" s="0">
         <v>248</v>
       </c>
       <c r="I12" s="0">
-        <f>VLOOKUP(B12&amp;"."&amp;H12,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B12&amp;"."&amp;H12,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J12" t="s" s="0">
         <v>248</v>
       </c>
       <c r="K12" s="0">
-        <f>VLOOKUP(D12&amp;"."&amp;J12,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D12&amp;"."&amp;J12,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="13">
@@ -15264,34 +15264,34 @@
         <v>268</v>
       </c>
       <c r="B13" s="0">
-        <f>VLOOKUP(A13,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A13,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C13" s="0">
-        <f>VLOOKUP(A13,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A13,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D13" t="s" s="0">
         <v>267</v>
       </c>
       <c r="E13" s="0">
-        <f>VLOOKUP(D13,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D13,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F13" s="0">
-        <f>VLOOKUP(A13,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A13,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G13" s="0">
-        <f>VLOOKUP(A13,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A13,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H13" t="s" s="0">
         <v>261</v>
       </c>
       <c r="I13" s="0">
-        <f>VLOOKUP(B13&amp;"."&amp;H13,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B13&amp;"."&amp;H13,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J13" t="s" s="0">
         <v>261</v>
       </c>
       <c r="K13" s="0">
-        <f>VLOOKUP(D13&amp;"."&amp;J13,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D13&amp;"."&amp;J13,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="14">
@@ -15299,34 +15299,34 @@
         <v>277</v>
       </c>
       <c r="B14" s="0">
-        <f>VLOOKUP(A14,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A14,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C14" s="0">
-        <f>VLOOKUP(A14,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A14,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D14" t="s" s="0">
         <v>241</v>
       </c>
       <c r="E14" s="0">
-        <f>VLOOKUP(D14,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D14,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F14" s="0">
-        <f>VLOOKUP(A14,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A14,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G14" s="0">
-        <f>VLOOKUP(A14,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A14,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H14" t="s" s="0">
         <v>248</v>
       </c>
       <c r="I14" s="0">
-        <f>VLOOKUP(B14&amp;"."&amp;H14,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B14&amp;"."&amp;H14,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J14" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K14" s="0">
-        <f>VLOOKUP(D14&amp;"."&amp;J14,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D14&amp;"."&amp;J14,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="15">
@@ -15334,34 +15334,34 @@
         <v>306</v>
       </c>
       <c r="B15" s="0">
-        <f>VLOOKUP(A15,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A15,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C15" s="0">
-        <f>VLOOKUP(A15,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A15,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D15" t="s" s="0">
         <v>283</v>
       </c>
       <c r="E15" s="0">
-        <f>VLOOKUP(D15,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D15,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F15" s="0">
-        <f>VLOOKUP(A15,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A15,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G15" s="0">
-        <f>VLOOKUP(A15,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A15,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H15" t="s" s="0">
         <v>296</v>
       </c>
       <c r="I15" s="0">
-        <f>VLOOKUP(B15&amp;"."&amp;H15,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B15&amp;"."&amp;H15,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J15" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K15" s="0">
-        <f>VLOOKUP(D15&amp;"."&amp;J15,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D15&amp;"."&amp;J15,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="16">
@@ -15369,34 +15369,34 @@
         <v>308</v>
       </c>
       <c r="B16" s="0">
-        <f>VLOOKUP(A16,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A16,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C16" s="0">
-        <f>VLOOKUP(A16,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A16,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D16" t="s" s="0">
         <v>287</v>
       </c>
       <c r="E16" s="0">
-        <f>VLOOKUP(D16,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D16,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F16" s="0">
-        <f>VLOOKUP(A16,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A16,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G16" s="0">
-        <f>VLOOKUP(A16,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A16,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H16" t="s" s="0">
         <v>298</v>
       </c>
       <c r="I16" s="0">
-        <f>VLOOKUP(B16&amp;"."&amp;H16,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B16&amp;"."&amp;H16,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J16" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K16" s="0">
-        <f>VLOOKUP(D16&amp;"."&amp;J16,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D16&amp;"."&amp;J16,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="17">
@@ -15404,34 +15404,34 @@
         <v>337</v>
       </c>
       <c r="B17" s="0">
-        <f>VLOOKUP(A17,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A17,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C17" s="0">
-        <f>VLOOKUP(A17,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A17,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D17" t="s" s="0">
         <v>323</v>
       </c>
       <c r="E17" s="0">
-        <f>VLOOKUP(D17,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D17,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F17" s="0">
-        <f>VLOOKUP(A17,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A17,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G17" s="0">
-        <f>VLOOKUP(A17,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A17,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H17" t="s" s="0">
         <v>330</v>
       </c>
       <c r="I17" s="0">
-        <f>VLOOKUP(B17&amp;"."&amp;H17,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B17&amp;"."&amp;H17,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J17" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K17" s="0">
-        <f>VLOOKUP(D17&amp;"."&amp;J17,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D17&amp;"."&amp;J17,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="18">
@@ -15439,34 +15439,34 @@
         <v>351</v>
       </c>
       <c r="B18" s="0">
-        <f>VLOOKUP(A18,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A18,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C18" s="0">
-        <f>VLOOKUP(A18,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A18,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D18" t="s" s="0">
         <v>176</v>
       </c>
       <c r="E18" s="0">
-        <f>VLOOKUP(D18,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D18,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F18" s="0">
-        <f>VLOOKUP(A18,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A18,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G18" s="0">
-        <f>VLOOKUP(A18,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A18,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H18" t="s" s="0">
         <v>348</v>
       </c>
       <c r="I18" s="0">
-        <f>VLOOKUP(B18&amp;"."&amp;H18,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B18&amp;"."&amp;H18,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J18" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K18" s="0">
-        <f>VLOOKUP(D18&amp;"."&amp;J18,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D18&amp;"."&amp;J18,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="19">
@@ -15474,34 +15474,34 @@
         <v>365</v>
       </c>
       <c r="B19" s="0">
-        <f>VLOOKUP(A19,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A19,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C19" s="0">
-        <f>VLOOKUP(A19,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A19,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D19" t="s" s="0">
         <v>352</v>
       </c>
       <c r="E19" s="0">
-        <f>VLOOKUP(D19,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D19,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F19" s="0">
-        <f>VLOOKUP(A19,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A19,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G19" s="0">
-        <f>VLOOKUP(A19,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A19,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H19" t="s" s="0">
         <v>358</v>
       </c>
       <c r="I19" s="0">
-        <f>VLOOKUP(B19&amp;"."&amp;H19,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B19&amp;"."&amp;H19,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J19" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K19" s="0">
-        <f>VLOOKUP(D19&amp;"."&amp;J19,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D19&amp;"."&amp;J19,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="20">
@@ -15509,34 +15509,34 @@
         <v>377</v>
       </c>
       <c r="B20" s="0">
-        <f>VLOOKUP(A20,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A20,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C20" s="0">
-        <f>VLOOKUP(A20,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A20,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D20" t="s" s="0">
         <v>376</v>
       </c>
       <c r="E20" s="0">
-        <f>VLOOKUP(D20,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D20,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F20" s="0">
-        <f>VLOOKUP(A20,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A20,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G20" s="0">
-        <f>VLOOKUP(A20,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A20,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H20" t="s" s="0">
         <v>372</v>
       </c>
       <c r="I20" s="0">
-        <f>VLOOKUP(B20&amp;"."&amp;H20,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B20&amp;"."&amp;H20,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J20" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K20" s="0">
-        <f>VLOOKUP(D20&amp;"."&amp;J20,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D20&amp;"."&amp;J20,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="21">
@@ -15544,34 +15544,34 @@
         <v>396</v>
       </c>
       <c r="B21" s="0">
-        <f>VLOOKUP(A21,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A21,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C21" s="0">
-        <f>VLOOKUP(A21,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A21,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D21" t="s" s="0">
         <v>87</v>
       </c>
       <c r="E21" s="0">
-        <f>VLOOKUP(D21,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D21,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F21" s="0">
-        <f>VLOOKUP(A21,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A21,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G21" s="0">
-        <f>VLOOKUP(A21,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A21,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H21" t="s" s="0">
         <v>383</v>
       </c>
       <c r="I21" s="0">
-        <f>VLOOKUP(B21&amp;"."&amp;H21,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B21&amp;"."&amp;H21,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J21" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K21" s="0">
-        <f>VLOOKUP(D21&amp;"."&amp;J21,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D21&amp;"."&amp;J21,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="22">
@@ -15579,34 +15579,34 @@
         <v>398</v>
       </c>
       <c r="B22" s="0">
-        <f>VLOOKUP(A22,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A22,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C22" s="0">
-        <f>VLOOKUP(A22,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A22,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D22" t="s" s="0">
         <v>108</v>
       </c>
       <c r="E22" s="0">
-        <f>VLOOKUP(D22,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D22,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F22" s="0">
-        <f>VLOOKUP(A22,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A22,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G22" s="0">
-        <f>VLOOKUP(A22,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A22,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H22" t="s" s="0">
         <v>101</v>
       </c>
       <c r="I22" s="0">
-        <f>VLOOKUP(B22&amp;"."&amp;H22,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B22&amp;"."&amp;H22,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J22" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K22" s="0">
-        <f>VLOOKUP(D22&amp;"."&amp;J22,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D22&amp;"."&amp;J22,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="23">
@@ -15614,34 +15614,34 @@
         <v>400</v>
       </c>
       <c r="B23" s="0">
-        <f>VLOOKUP(A23,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A23,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C23" s="0">
-        <f>VLOOKUP(A23,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A23,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D23" t="s" s="0">
         <v>112</v>
       </c>
       <c r="E23" s="0">
-        <f>VLOOKUP(D23,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D23,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F23" s="0">
-        <f>VLOOKUP(A23,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A23,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G23" s="0">
-        <f>VLOOKUP(A23,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A23,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H23" t="s" s="0">
         <v>385</v>
       </c>
       <c r="I23" s="0">
-        <f>VLOOKUP(B23&amp;"."&amp;H23,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B23&amp;"."&amp;H23,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J23" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K23" s="0">
-        <f>VLOOKUP(D23&amp;"."&amp;J23,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D23&amp;"."&amp;J23,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="24">
@@ -15649,34 +15649,34 @@
         <v>402</v>
       </c>
       <c r="B24" s="0">
-        <f>VLOOKUP(A24,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A24,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C24" s="0">
-        <f>VLOOKUP(A24,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A24,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D24" t="s" s="0">
         <v>241</v>
       </c>
       <c r="E24" s="0">
-        <f>VLOOKUP(D24,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D24,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F24" s="0">
-        <f>VLOOKUP(A24,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A24,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G24" s="0">
-        <f>VLOOKUP(A24,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A24,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H24" t="s" s="0">
         <v>248</v>
       </c>
       <c r="I24" s="0">
-        <f>VLOOKUP(B24&amp;"."&amp;H24,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B24&amp;"."&amp;H24,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J24" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K24" s="0">
-        <f>VLOOKUP(D24&amp;"."&amp;J24,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D24&amp;"."&amp;J24,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="25">
@@ -15684,34 +15684,34 @@
         <v>405</v>
       </c>
       <c r="B25" s="0">
-        <f>VLOOKUP(A25,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A25,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C25" s="0">
-        <f>VLOOKUP(A25,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A25,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D25" t="s" s="0">
         <v>404</v>
       </c>
       <c r="E25" s="0">
-        <f>VLOOKUP(D25,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D25,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F25" s="0">
-        <f>VLOOKUP(A25,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A25,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G25" s="0">
-        <f>VLOOKUP(A25,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A25,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H25" t="s" s="0">
         <v>388</v>
       </c>
       <c r="I25" s="0">
-        <f>VLOOKUP(B25&amp;"."&amp;H25,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B25&amp;"."&amp;H25,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J25" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K25" s="0">
-        <f>VLOOKUP(D25&amp;"."&amp;J25,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D25&amp;"."&amp;J25,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="26">
@@ -15719,34 +15719,34 @@
         <v>408</v>
       </c>
       <c r="B26" s="0">
-        <f>VLOOKUP(A26,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A26,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C26" s="0">
-        <f>VLOOKUP(A26,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A26,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D26" t="s" s="0">
         <v>407</v>
       </c>
       <c r="E26" s="0">
-        <f>VLOOKUP(D26,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D26,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F26" s="0">
-        <f>VLOOKUP(A26,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A26,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G26" s="0">
-        <f>VLOOKUP(A26,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A26,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H26" t="s" s="0">
         <v>392</v>
       </c>
       <c r="I26" s="0">
-        <f>VLOOKUP(B26&amp;"."&amp;H26,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B26&amp;"."&amp;H26,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J26" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K26" s="0">
-        <f>VLOOKUP(D26&amp;"."&amp;J26,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D26&amp;"."&amp;J26,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="27">
@@ -15754,34 +15754,34 @@
         <v>412</v>
       </c>
       <c r="B27" s="0">
-        <f>VLOOKUP(A27,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A27,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C27" s="0">
-        <f>VLOOKUP(A27,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A27,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D27" t="s" s="0">
         <v>376</v>
       </c>
       <c r="E27" s="0">
-        <f>VLOOKUP(D27,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D27,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F27" s="0">
-        <f>VLOOKUP(A27,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A27,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G27" s="0">
-        <f>VLOOKUP(A27,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A27,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H27" t="s" s="0">
         <v>372</v>
       </c>
       <c r="I27" s="0">
-        <f>VLOOKUP(B27&amp;"."&amp;H27,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B27&amp;"."&amp;H27,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J27" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K27" s="0">
-        <f>VLOOKUP(D27&amp;"."&amp;J27,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D27&amp;"."&amp;J27,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="28">
@@ -15789,34 +15789,34 @@
         <v>414</v>
       </c>
       <c r="B28" s="0">
-        <f>VLOOKUP(A28,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A28,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C28" s="0">
-        <f>VLOOKUP(A28,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A28,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D28" t="s" s="0">
         <v>199</v>
       </c>
       <c r="E28" s="0">
-        <f>VLOOKUP(D28,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D28,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F28" s="0">
-        <f>VLOOKUP(A28,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A28,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G28" s="0">
-        <f>VLOOKUP(A28,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A28,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H28" t="s" s="0">
         <v>229</v>
       </c>
       <c r="I28" s="0">
-        <f>VLOOKUP(B28&amp;"."&amp;H28,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B28&amp;"."&amp;H28,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J28" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K28" s="0">
-        <f>VLOOKUP(D28&amp;"."&amp;J28,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D28&amp;"."&amp;J28,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="29">
@@ -15824,34 +15824,34 @@
         <v>471</v>
       </c>
       <c r="B29" s="0">
-        <f>VLOOKUP(A29,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A29,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C29" s="0">
-        <f>VLOOKUP(A29,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A29,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D29" t="s" s="0">
         <v>407</v>
       </c>
       <c r="E29" s="0">
-        <f>VLOOKUP(D29,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D29,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F29" s="0">
-        <f>VLOOKUP(A29,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A29,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G29" s="0">
-        <f>VLOOKUP(A29,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A29,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H29" t="s" s="0">
         <v>392</v>
       </c>
       <c r="I29" s="0">
-        <f>VLOOKUP(B29&amp;"."&amp;H29,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B29&amp;"."&amp;H29,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J29" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K29" s="0">
-        <f>VLOOKUP(D29&amp;"."&amp;J29,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D29&amp;"."&amp;J29,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="30">
@@ -15859,34 +15859,34 @@
         <v>546</v>
       </c>
       <c r="B30" s="0">
-        <f>VLOOKUP(A30,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A30,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C30" s="0">
-        <f>VLOOKUP(A30,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A30,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D30" t="s" s="0">
         <v>199</v>
       </c>
       <c r="E30" s="0">
-        <f>VLOOKUP(D30,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D30,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F30" s="0">
-        <f>VLOOKUP(A30,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A30,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G30" s="0">
-        <f>VLOOKUP(A30,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A30,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H30" t="s" s="0">
         <v>229</v>
       </c>
       <c r="I30" s="0">
-        <f>VLOOKUP(B30&amp;"."&amp;H30,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B30&amp;"."&amp;H30,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J30" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K30" s="0">
-        <f>VLOOKUP(D30&amp;"."&amp;J30,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D30&amp;"."&amp;J30,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="31">
@@ -15894,34 +15894,34 @@
         <v>547</v>
       </c>
       <c r="B31" s="0">
-        <f>VLOOKUP(A31,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A31,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C31" s="0">
-        <f>VLOOKUP(A31,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A31,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D31" t="s" s="0">
         <v>376</v>
       </c>
       <c r="E31" s="0">
-        <f>VLOOKUP(D31,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D31,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F31" s="0">
-        <f>VLOOKUP(A31,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A31,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G31" s="0">
-        <f>VLOOKUP(A31,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A31,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H31" t="s" s="0">
         <v>372</v>
       </c>
       <c r="I31" s="0">
-        <f>VLOOKUP(B31&amp;"."&amp;H31,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B31&amp;"."&amp;H31,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J31" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K31" s="0">
-        <f>VLOOKUP(D31&amp;"."&amp;J31,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D31&amp;"."&amp;J31,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="32">
@@ -15929,34 +15929,34 @@
         <v>549</v>
       </c>
       <c r="B32" s="0">
-        <f>VLOOKUP(A32,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A32,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C32" s="0">
-        <f>VLOOKUP(A32,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A32,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D32" t="s" s="0">
         <v>236</v>
       </c>
       <c r="E32" s="0">
-        <f>VLOOKUP(D32,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D32,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F32" s="0">
-        <f>VLOOKUP(A32,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A32,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G32" s="0">
-        <f>VLOOKUP(A32,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A32,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H32" t="s" s="0">
         <v>248</v>
       </c>
       <c r="I32" s="0">
-        <f>VLOOKUP(B32&amp;"."&amp;H32,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B32&amp;"."&amp;H32,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J32" t="s" s="0">
         <v>248</v>
       </c>
       <c r="K32" s="0">
-        <f>VLOOKUP(D32&amp;"."&amp;J32,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D32&amp;"."&amp;J32,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="33">
@@ -15964,34 +15964,34 @@
         <v>549</v>
       </c>
       <c r="B33" s="0">
-        <f>VLOOKUP(A33,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A33,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C33" s="0">
-        <f>VLOOKUP(A33,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A33,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D33" t="s" s="0">
         <v>236</v>
       </c>
       <c r="E33" s="0">
-        <f>VLOOKUP(D33,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D33,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F33" s="0">
-        <f>VLOOKUP(A33,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A33,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G33" s="0">
-        <f>VLOOKUP(A33,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A33,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H33" t="s" s="0">
         <v>251</v>
       </c>
       <c r="I33" s="0">
-        <f>VLOOKUP(B33&amp;"."&amp;H33,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B33&amp;"."&amp;H33,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J33" t="s" s="0">
         <v>251</v>
       </c>
       <c r="K33" s="0">
-        <f>VLOOKUP(D33&amp;"."&amp;J33,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D33&amp;"."&amp;J33,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="34">
@@ -15999,34 +15999,34 @@
         <v>550</v>
       </c>
       <c r="B34" s="0">
-        <f>VLOOKUP(A34,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A34,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C34" s="0">
-        <f>VLOOKUP(A34,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A34,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D34" t="s" s="0">
         <v>283</v>
       </c>
       <c r="E34" s="0">
-        <f>VLOOKUP(D34,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D34,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F34" s="0">
-        <f>VLOOKUP(A34,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A34,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G34" s="0">
-        <f>VLOOKUP(A34,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A34,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H34" t="s" s="0">
         <v>296</v>
       </c>
       <c r="I34" s="0">
-        <f>VLOOKUP(B34&amp;"."&amp;H34,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B34&amp;"."&amp;H34,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J34" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K34" s="0">
-        <f>VLOOKUP(D34&amp;"."&amp;J34,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D34&amp;"."&amp;J34,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="35">
@@ -16034,34 +16034,34 @@
         <v>551</v>
       </c>
       <c r="B35" s="0">
-        <f>VLOOKUP(A35,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A35,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C35" s="0">
-        <f>VLOOKUP(A35,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A35,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D35" t="s" s="0">
         <v>287</v>
       </c>
       <c r="E35" s="0">
-        <f>VLOOKUP(D35,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D35,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F35" s="0">
-        <f>VLOOKUP(A35,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A35,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G35" s="0">
-        <f>VLOOKUP(A35,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A35,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H35" t="s" s="0">
         <v>298</v>
       </c>
       <c r="I35" s="0">
-        <f>VLOOKUP(B35&amp;"."&amp;H35,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B35&amp;"."&amp;H35,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J35" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K35" s="0">
-        <f>VLOOKUP(D35&amp;"."&amp;J35,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D35&amp;"."&amp;J35,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="36">
@@ -16069,34 +16069,34 @@
         <v>553</v>
       </c>
       <c r="B36" s="0">
-        <f>VLOOKUP(A36,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A36,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C36" s="0">
-        <f>VLOOKUP(A36,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A36,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D36" t="s" s="0">
         <v>291</v>
       </c>
       <c r="E36" s="0">
-        <f>VLOOKUP(D36,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D36,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F36" s="0">
-        <f>VLOOKUP(A36,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A36,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G36" s="0">
-        <f>VLOOKUP(A36,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A36,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H36" t="s" s="0">
         <v>510</v>
       </c>
       <c r="I36" s="0">
-        <f>VLOOKUP(B36&amp;"."&amp;H36,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B36&amp;"."&amp;H36,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J36" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K36" s="0">
-        <f>VLOOKUP(D36&amp;"."&amp;J36,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D36&amp;"."&amp;J36,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="37">
@@ -16104,34 +16104,34 @@
         <v>555</v>
       </c>
       <c r="B37" s="0">
-        <f>VLOOKUP(A37,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A37,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C37" s="0">
-        <f>VLOOKUP(A37,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A37,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D37" t="s" s="0">
         <v>309</v>
       </c>
       <c r="E37" s="0">
-        <f>VLOOKUP(D37,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D37,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F37" s="0">
-        <f>VLOOKUP(A37,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A37,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G37" s="0">
-        <f>VLOOKUP(A37,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A37,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H37" t="s" s="0">
         <v>512</v>
       </c>
       <c r="I37" s="0">
-        <f>VLOOKUP(B37&amp;"."&amp;H37,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B37&amp;"."&amp;H37,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J37" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K37" s="0">
-        <f>VLOOKUP(D37&amp;"."&amp;J37,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D37&amp;"."&amp;J37,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="38">
@@ -16139,34 +16139,34 @@
         <v>557</v>
       </c>
       <c r="B38" s="0">
-        <f>VLOOKUP(A38,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A38,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C38" s="0">
-        <f>VLOOKUP(A38,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A38,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D38" t="s" s="0">
         <v>314</v>
       </c>
       <c r="E38" s="0">
-        <f>VLOOKUP(D38,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D38,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F38" s="0">
-        <f>VLOOKUP(A38,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A38,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G38" s="0">
-        <f>VLOOKUP(A38,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A38,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H38" t="s" s="0">
         <v>514</v>
       </c>
       <c r="I38" s="0">
-        <f>VLOOKUP(B38&amp;"."&amp;H38,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B38&amp;"."&amp;H38,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J38" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K38" s="0">
-        <f>VLOOKUP(D38&amp;"."&amp;J38,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D38&amp;"."&amp;J38,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="39">
@@ -16174,34 +16174,34 @@
         <v>559</v>
       </c>
       <c r="B39" s="0">
-        <f>VLOOKUP(A39,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A39,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C39" s="0">
-        <f>VLOOKUP(A39,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A39,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D39" t="s" s="0">
         <v>319</v>
       </c>
       <c r="E39" s="0">
-        <f>VLOOKUP(D39,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D39,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F39" s="0">
-        <f>VLOOKUP(A39,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A39,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G39" s="0">
-        <f>VLOOKUP(A39,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A39,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H39" t="s" s="0">
         <v>516</v>
       </c>
       <c r="I39" s="0">
-        <f>VLOOKUP(B39&amp;"."&amp;H39,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B39&amp;"."&amp;H39,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J39" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K39" s="0">
-        <f>VLOOKUP(D39&amp;"."&amp;J39,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D39&amp;"."&amp;J39,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="40">
@@ -16209,34 +16209,34 @@
         <v>561</v>
       </c>
       <c r="B40" s="0">
-        <f>VLOOKUP(A40,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A40,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C40" s="0">
-        <f>VLOOKUP(A40,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A40,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D40" t="s" s="0">
         <v>366</v>
       </c>
       <c r="E40" s="0">
-        <f>VLOOKUP(D40,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D40,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F40" s="0">
-        <f>VLOOKUP(A40,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A40,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G40" s="0">
-        <f>VLOOKUP(A40,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A40,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H40" t="s" s="0">
         <v>518</v>
       </c>
       <c r="I40" s="0">
-        <f>VLOOKUP(B40&amp;"."&amp;H40,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B40&amp;"."&amp;H40,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J40" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K40" s="0">
-        <f>VLOOKUP(D40&amp;"."&amp;J40,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D40&amp;"."&amp;J40,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="41">
@@ -16244,34 +16244,34 @@
         <v>562</v>
       </c>
       <c r="B41" s="0">
-        <f>VLOOKUP(A41,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A41,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C41" s="0">
-        <f>VLOOKUP(A41,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A41,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D41" t="s" s="0">
         <v>352</v>
       </c>
       <c r="E41" s="0">
-        <f>VLOOKUP(D41,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D41,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F41" s="0">
-        <f>VLOOKUP(A41,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A41,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G41" s="0">
-        <f>VLOOKUP(A41,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A41,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H41" t="s" s="0">
         <v>358</v>
       </c>
       <c r="I41" s="0">
-        <f>VLOOKUP(B41&amp;"."&amp;H41,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B41&amp;"."&amp;H41,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J41" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K41" s="0">
-        <f>VLOOKUP(D41&amp;"."&amp;J41,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D41&amp;"."&amp;J41,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="42">
@@ -16279,34 +16279,34 @@
         <v>564</v>
       </c>
       <c r="B42" s="0">
-        <f>VLOOKUP(A42,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A42,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C42" s="0">
-        <f>VLOOKUP(A42,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A42,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D42" t="s" s="0">
         <v>356</v>
       </c>
       <c r="E42" s="0">
-        <f>VLOOKUP(D42,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D42,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F42" s="0">
-        <f>VLOOKUP(A42,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A42,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G42" s="0">
-        <f>VLOOKUP(A42,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A42,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H42" t="s" s="0">
         <v>358</v>
       </c>
       <c r="I42" s="0">
-        <f>VLOOKUP(B42&amp;"."&amp;H42,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B42&amp;"."&amp;H42,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J42" t="s" s="0">
         <v>358</v>
       </c>
       <c r="K42" s="0">
-        <f>VLOOKUP(D42&amp;"."&amp;J42,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D42&amp;"."&amp;J42,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="43">
@@ -16314,34 +16314,34 @@
         <v>564</v>
       </c>
       <c r="B43" s="0">
-        <f>VLOOKUP(A43,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A43,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C43" s="0">
-        <f>VLOOKUP(A43,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A43,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D43" t="s" s="0">
         <v>356</v>
       </c>
       <c r="E43" s="0">
-        <f>VLOOKUP(D43,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D43,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F43" s="0">
-        <f>VLOOKUP(A43,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A43,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G43" s="0">
-        <f>VLOOKUP(A43,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A43,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H43" t="s" s="0">
         <v>361</v>
       </c>
       <c r="I43" s="0">
-        <f>VLOOKUP(B43&amp;"."&amp;H43,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B43&amp;"."&amp;H43,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J43" t="s" s="0">
         <v>361</v>
       </c>
       <c r="K43" s="0">
-        <f>VLOOKUP(D43&amp;"."&amp;J43,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D43&amp;"."&amp;J43,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="44">
@@ -16349,34 +16349,34 @@
         <v>566</v>
       </c>
       <c r="B44" s="0">
-        <f>VLOOKUP(A44,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A44,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C44" s="0">
-        <f>VLOOKUP(A44,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A44,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D44" t="s" s="0">
         <v>343</v>
       </c>
       <c r="E44" s="0">
-        <f>VLOOKUP(D44,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D44,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F44" s="0">
-        <f>VLOOKUP(A44,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A44,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G44" s="0">
-        <f>VLOOKUP(A44,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A44,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H44" t="s" s="0">
         <v>520</v>
       </c>
       <c r="I44" s="0">
-        <f>VLOOKUP(B44&amp;"."&amp;H44,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B44&amp;"."&amp;H44,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J44" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K44" s="0">
-        <f>VLOOKUP(D44&amp;"."&amp;J44,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D44&amp;"."&amp;J44,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="45">
@@ -16384,34 +16384,34 @@
         <v>567</v>
       </c>
       <c r="B45" s="0">
-        <f>VLOOKUP(A45,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A45,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C45" s="0">
-        <f>VLOOKUP(A45,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A45,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D45" t="s" s="0">
         <v>112</v>
       </c>
       <c r="E45" s="0">
-        <f>VLOOKUP(D45,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D45,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F45" s="0">
-        <f>VLOOKUP(A45,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A45,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G45" s="0">
-        <f>VLOOKUP(A45,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A45,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H45" t="s" s="0">
         <v>530</v>
       </c>
       <c r="I45" s="0">
-        <f>VLOOKUP(B45&amp;"."&amp;H45,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B45&amp;"."&amp;H45,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J45" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K45" s="0">
-        <f>VLOOKUP(D45&amp;"."&amp;J45,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D45&amp;"."&amp;J45,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="46">
@@ -16419,34 +16419,34 @@
         <v>568</v>
       </c>
       <c r="B46" s="0">
-        <f>VLOOKUP(A46,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A46,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C46" s="0">
-        <f>VLOOKUP(A46,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A46,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D46" t="s" s="0">
         <v>112</v>
       </c>
       <c r="E46" s="0">
-        <f>VLOOKUP(D46,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D46,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F46" s="0">
-        <f>VLOOKUP(A46,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A46,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G46" s="0">
-        <f>VLOOKUP(A46,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A46,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H46" t="s" s="0">
         <v>536</v>
       </c>
       <c r="I46" s="0">
-        <f>VLOOKUP(B46&amp;"."&amp;H46,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B46&amp;"."&amp;H46,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J46" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K46" s="0">
-        <f>VLOOKUP(D46&amp;"."&amp;J46,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D46&amp;"."&amp;J46,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="47">
@@ -16454,34 +16454,34 @@
         <v>570</v>
       </c>
       <c r="B47" s="0">
-        <f>VLOOKUP(A47,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A47,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C47" s="0">
-        <f>VLOOKUP(A47,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A47,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D47" t="s" s="0">
         <v>176</v>
       </c>
       <c r="E47" s="0">
-        <f>VLOOKUP(D47,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D47,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F47" s="0">
-        <f>VLOOKUP(A47,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A47,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G47" s="0">
-        <f>VLOOKUP(A47,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A47,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H47" t="s" s="0">
         <v>188</v>
       </c>
       <c r="I47" s="0">
-        <f>VLOOKUP(B47&amp;"."&amp;H47,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B47&amp;"."&amp;H47,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J47" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K47" s="0">
-        <f>VLOOKUP(D47&amp;"."&amp;J47,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D47&amp;"."&amp;J47,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="48">
@@ -16489,34 +16489,34 @@
         <v>571</v>
       </c>
       <c r="B48" s="0">
-        <f>VLOOKUP(A48,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A48,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C48" s="0">
-        <f>VLOOKUP(A48,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A48,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D48" t="s" s="0">
         <v>176</v>
       </c>
       <c r="E48" s="0">
-        <f>VLOOKUP(D48,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D48,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F48" s="0">
-        <f>VLOOKUP(A48,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A48,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G48" s="0">
-        <f>VLOOKUP(A48,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A48,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H48" t="s" s="0">
         <v>348</v>
       </c>
       <c r="I48" s="0">
-        <f>VLOOKUP(B48&amp;"."&amp;H48,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B48&amp;"."&amp;H48,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J48" t="s" s="0">
         <v>91</v>
       </c>
       <c r="K48" s="0">
-        <f>VLOOKUP(D48&amp;"."&amp;J48,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D48&amp;"."&amp;J48,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="49">
@@ -16524,34 +16524,34 @@
         <v>576</v>
       </c>
       <c r="B49" s="0">
-        <f>VLOOKUP(A49,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A49,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C49" s="0">
-        <f>VLOOKUP(A49,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A49,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D49" t="s" s="0">
         <v>472</v>
       </c>
       <c r="E49" s="0">
-        <f>VLOOKUP(D49,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D49,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F49" s="0">
-        <f>VLOOKUP(A49,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A49,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G49" s="0">
-        <f>VLOOKUP(A49,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A49,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H49" t="s" s="0">
         <v>480</v>
       </c>
       <c r="I49" s="0">
-        <f>VLOOKUP(B49&amp;"."&amp;H49,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B49&amp;"."&amp;H49,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J49" t="s" s="0">
         <v>480</v>
       </c>
       <c r="K49" s="0">
-        <f>VLOOKUP(D49&amp;"."&amp;J49,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D49&amp;"."&amp;J49,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="50">
@@ -16559,34 +16559,34 @@
         <v>578</v>
       </c>
       <c r="B50" s="0">
-        <f>VLOOKUP(A50,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A50,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C50" s="0">
-        <f>VLOOKUP(A50,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A50,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D50" t="s" s="0">
         <v>327</v>
       </c>
       <c r="E50" s="0">
-        <f>VLOOKUP(D50,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D50,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F50" s="0">
-        <f>VLOOKUP(A50,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A50,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G50" s="0">
-        <f>VLOOKUP(A50,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A50,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H50" t="s" s="0">
         <v>330</v>
       </c>
       <c r="I50" s="0">
-        <f>VLOOKUP(B50&amp;"."&amp;H50,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B50&amp;"."&amp;H50,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J50" t="s" s="0">
         <v>330</v>
       </c>
       <c r="K50" s="0">
-        <f>VLOOKUP(D50&amp;"."&amp;J50,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D50&amp;"."&amp;J50,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
     <row r="51">
@@ -16594,34 +16594,34 @@
         <v>578</v>
       </c>
       <c r="B51" s="0">
-        <f>VLOOKUP(A51,Отношения!A:E,2,0)</f>
+        <f>VLOOKUP(A51,'Отношения'!A:E,2,0)</f>
       </c>
       <c r="C51" s="0">
-        <f>VLOOKUP(A51,Отношения!A:E,3,0)</f>
+        <f>VLOOKUP(A51,'Отношения'!A:E,3,0)</f>
       </c>
       <c r="D51" t="s" s="0">
         <v>327</v>
       </c>
       <c r="E51" s="0">
-        <f>VLOOKUP(D51,Таблицы!C:D,2,0)</f>
+        <f>VLOOKUP(D51,'Таблицы'!C:D,2,0)</f>
       </c>
       <c r="F51" s="0">
-        <f>VLOOKUP(A51,Отношения!A:E,4,0)</f>
+        <f>VLOOKUP(A51,'Отношения'!A:E,4,0)</f>
       </c>
       <c r="G51" s="0">
-        <f>VLOOKUP(A51,Отношения!A:E,5,0)</f>
+        <f>VLOOKUP(A51,'Отношения'!A:E,5,0)</f>
       </c>
       <c r="H51" t="s" s="0">
         <v>333</v>
       </c>
       <c r="I51" s="0">
-        <f>VLOOKUP(B51&amp;"."&amp;H51,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(B51&amp;"."&amp;H51,'Поля таблиц'!A:G,7,0)</f>
       </c>
       <c r="J51" t="s" s="0">
         <v>333</v>
       </c>
       <c r="K51" s="0">
-        <f>VLOOKUP(D51&amp;"."&amp;J51,Поля таблиц!A:G,7,0)</f>
+        <f>VLOOKUP(D51&amp;"."&amp;J51,'Поля таблиц'!A:G,7,0)</f>
       </c>
     </row>
   </sheetData>
